--- a/Songhay.Social.Shell.Tests/TweetBooks/TweetBook-2019-05.xlsx
+++ b/Songhay.Social.Shell.Tests/TweetBooks/TweetBook-2019-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afc7c5093acab52c/MSExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~shares\sourceRoot\Songhay.Social\Songhay.Social.Shell.Tests\TweetBooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E4700B-EC40-484E-A094-EA756EE95CDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0D5522-F8DF-4840-83D0-605AB61BD3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="600" windowWidth="27915" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="330" windowWidth="28305" windowHeight="14910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BryanWilhite" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1002">
-  <si>
-    <t>url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1001">
   <si>
     <t>https://codewala.net/2018/05/01/expression-bodied-members-in-c/</t>
   </si>
@@ -3084,10 +3081,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3399,3010 +3395,3004 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B500" sqref="B500"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="61.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="1" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="1" t="s">
+      <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="1" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="1" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="1" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="1" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="1" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="1" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="1" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="1" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="1" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="1" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="1" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="1" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="1" t="s">
+      <c r="B114" t="s">
         <v>116</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="1" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="1" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="1" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="1" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="1" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="1" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="1" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="1" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="1" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="1" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="1" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="1" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="1" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="1" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="1" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="1" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="1" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="1" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="1" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="1" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="1" t="s">
+      <c r="B138" t="s">
         <v>141</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="1" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="1" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="1" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="1" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="1" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="1" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="1" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="1" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="1" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="1" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="1" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="1" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="1" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="1" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="1" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="1" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="1" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="1" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="1" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="1" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="1" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="1" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="1" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="1" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="1" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="1" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="1" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="1" t="s">
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="1" t="s">
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="1" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="1" t="s">
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="1" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="1" t="s">
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="1" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="1" t="s">
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="1" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="1" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="1" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="1" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="1" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="1" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="1" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="1" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="1" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="1" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="1" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="1" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="1" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="1" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="1" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="1" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="1" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="1" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="1" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="1" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="1" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="1" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="1" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="1" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="1" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="1" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="1" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="1" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="1" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="1" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="1" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="1" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="1" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="1" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="1" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="1" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="1" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="1" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="1" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="1" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="1" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="1" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="1" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="1" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="1" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="1" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="1" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="1" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="1" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="1" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="1" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="1" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="1" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="1" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="1" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="1" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="1" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="1" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="1" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="1" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="1" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="1" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="1" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="1" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="1" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="1" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="1" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="1" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="1" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="1" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="1" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="1" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="1" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="1" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="1" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="1" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="1" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="1" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
-      <c r="B256" s="1" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="1" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
-      <c r="B258" s="1" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
-      <c r="B259" s="1" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
-      <c r="B260" s="1" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
-      <c r="B261" s="1" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
-      <c r="B262" s="1" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="1" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
-      <c r="B264" s="1" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
-      <c r="B265" s="1" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
-      <c r="B266" s="1" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
-      <c r="B267" s="1" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
-      <c r="B268" s="1" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="1" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
-      <c r="B270" s="1" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="1" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="1" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="1" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="1" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="1" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="276" spans="2:2">
-      <c r="B276" s="1" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="277" spans="2:2">
-      <c r="B277" s="1" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
-      <c r="B278" s="1" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="1" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="1" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
-      <c r="B281" s="1" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
-      <c r="B282" s="1" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
-      <c r="B283" s="1" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
-      <c r="B284" s="1" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="1" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="1" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="1" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
-      <c r="B288" s="1" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="1" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="1" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="291" spans="2:2">
-      <c r="B291" s="1" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="1" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="1" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="294" spans="2:2">
-      <c r="B294" s="1" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="295" spans="2:2">
-      <c r="B295" s="1" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="1" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
-      <c r="B297" s="1" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="1" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="1" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="1" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="301" spans="2:2">
-      <c r="B301" s="1" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="1" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="303" spans="2:2">
-      <c r="B303" s="1" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="1" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="1" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="1" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
-      <c r="B307" s="1" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="1" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="1" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="1" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="1" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" s="1" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="1" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
-      <c r="B314" s="1" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="1" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="1" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="1" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="1" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="1" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
-      <c r="B320" s="1" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="1" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="1" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="1" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="1" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="325" spans="2:2">
-      <c r="B325" s="1" t="s">
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="326" spans="2:2">
-      <c r="B326" s="1" t="s">
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
-      <c r="B327" s="1" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
-      <c r="B328" s="1" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="1" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
-      <c r="B330" s="1" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="1" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="1" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="1" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
-      <c r="B334" s="1" t="s">
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="1" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="1" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
-      <c r="B337" s="1" t="s">
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
-      <c r="B338" s="1" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="1" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
-      <c r="B340" s="1" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="1" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
-      <c r="B342" s="1" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
-      <c r="B343" s="1" t="s">
+    <row r="343" spans="1:1">
+      <c r="A343" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
-      <c r="B344" s="6" t="s">
+    <row r="344" spans="1:1">
+      <c r="A344" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="2:2">
-      <c r="B345" s="6" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
-      <c r="B346" s="1" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
-      <c r="B347" s="1" t="s">
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
-      <c r="B348" s="1" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
-      <c r="B349" s="1" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
-      <c r="B350" s="1" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
-      <c r="B351" s="1" t="s">
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="1" t="s">
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="1" t="s">
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="1" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="1" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="1" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="1" t="s">
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="1" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="1" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="1" t="s">
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="1" t="s">
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="1" t="s">
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="1" t="s">
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="1" t="s">
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="1" t="s">
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="1" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="1" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="1" t="s">
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="1" t="s">
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="1" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="1" t="s">
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
-      <c r="B372" s="1" t="s">
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
-      <c r="B373" s="1" t="s">
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
-      <c r="B374" s="1" t="s">
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="1" t="s">
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="376" spans="2:2">
-      <c r="B376" s="1" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="1" t="s">
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="1" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
-      <c r="B379" s="1" t="s">
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="1" t="s">
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
-      <c r="B381" s="1" t="s">
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
-      <c r="B382" s="1" t="s">
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
-      <c r="B383" s="1" t="s">
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="384" spans="2:2">
-      <c r="B384" s="1" t="s">
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="1" t="s">
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="1" t="s">
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="1" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="1" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="1" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="1" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
-      <c r="B391" s="1" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
-      <c r="B392" s="1" t="s">
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" s="1" t="s">
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
-      <c r="B394" s="1" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
-      <c r="B395" s="1" t="s">
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" s="1" t="s">
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
-      <c r="B397" s="1" t="s">
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
-      <c r="B398" s="1" t="s">
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="1" t="s">
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="400" spans="2:2">
-      <c r="B400" s="1" t="s">
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="401" spans="2:2">
-      <c r="B401" s="1" t="s">
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
-      <c r="B402" s="1" t="s">
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="1" t="s">
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="404" spans="2:2">
-      <c r="B404" s="1" t="s">
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="405" spans="2:2">
-      <c r="B405" s="1" t="s">
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
-      <c r="B406" s="1" t="s">
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
-      <c r="B407" s="1" t="s">
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
-      <c r="B408" s="1" t="s">
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
-      <c r="B409" s="1" t="s">
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
-      <c r="B410" s="1" t="s">
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="411" spans="2:2">
-      <c r="B411" s="1" t="s">
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
-      <c r="B412" s="1" t="s">
+    <row r="412" spans="1:1">
+      <c r="A412" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
-      <c r="B413" s="1" t="s">
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
-      <c r="B414" s="1" t="s">
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="415" spans="2:2">
-      <c r="B415" s="1" t="s">
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="416" spans="2:2">
-      <c r="B416" s="1" t="s">
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="1" t="s">
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="1" t="s">
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="419" spans="2:2">
-      <c r="B419" s="1" t="s">
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="420" spans="2:2">
-      <c r="B420" s="1" t="s">
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="1" t="s">
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="1" t="s">
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="1" t="s">
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="424" spans="2:2">
-      <c r="B424" s="1" t="s">
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="1" t="s">
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="426" spans="2:2">
-      <c r="B426" s="1" t="s">
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="427" spans="2:2">
-      <c r="B427" s="1" t="s">
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="2:2">
-      <c r="B428" s="1" t="s">
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="429" spans="2:2">
-      <c r="B429" s="1" t="s">
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="430" spans="2:2">
-      <c r="B430" s="1" t="s">
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="431" spans="2:2">
-      <c r="B431" s="1" t="s">
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="432" spans="2:2">
-      <c r="B432" s="1" t="s">
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="433" spans="2:3">
-      <c r="B433" s="1" t="s">
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="434" spans="2:3">
-      <c r="B434" s="1" t="s">
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="435" spans="2:3">
-      <c r="B435" s="1" t="s">
+    <row r="435" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A435" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="436" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B436" s="1" t="s">
+      <c r="B435" s="4"/>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C436" s="5"/>
-    </row>
-    <row r="437" spans="2:3">
-      <c r="B437" s="1" t="s">
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="438" spans="2:3">
-      <c r="B438" s="1" t="s">
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="439" spans="2:3">
-      <c r="B439" s="1" t="s">
+    <row r="439" spans="1:2">
+      <c r="A439" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="440" spans="2:3">
-      <c r="B440" s="1" t="s">
+    <row r="440" spans="1:2">
+      <c r="A440" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="441" spans="2:3">
-      <c r="B441" s="1" t="s">
+    <row r="441" spans="1:2">
+      <c r="A441" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="442" spans="2:3">
-      <c r="B442" s="1" t="s">
+    <row r="442" spans="1:2">
+      <c r="A442" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="443" spans="2:3">
-      <c r="B443" s="1" t="s">
+    <row r="443" spans="1:2">
+      <c r="A443" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="444" spans="2:3">
-      <c r="B444" s="1" t="s">
+    <row r="444" spans="1:2">
+      <c r="A444" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="445" spans="2:3">
-      <c r="B445" s="1" t="s">
+    <row r="445" spans="1:2">
+      <c r="A445" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="446" spans="2:3">
-      <c r="B446" s="1" t="s">
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="447" spans="2:3">
-      <c r="B447" s="1" t="s">
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="448" spans="2:3">
-      <c r="B448" s="1" t="s">
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="449" spans="2:2">
-      <c r="B449" s="1" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="450" spans="2:2">
-      <c r="B450" s="1" t="s">
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="1" t="s">
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="452" spans="2:2">
-      <c r="B452" s="1" t="s">
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="453" spans="2:2">
-      <c r="B453" s="1" t="s">
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="454" spans="2:2">
-      <c r="B454" s="1" t="s">
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="1" t="s">
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="1" t="s">
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="457" spans="2:2">
-      <c r="B457" s="1" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="458" spans="2:2">
-      <c r="B458" s="1" t="s">
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="459" spans="2:2">
-      <c r="B459" s="1" t="s">
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="1" t="s">
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="1" t="s">
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="462" spans="2:2">
-      <c r="B462" s="1" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="463" spans="2:2">
-      <c r="B463" s="1" t="s">
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="464" spans="2:2">
-      <c r="B464" s="1" t="s">
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="1" t="s">
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="466" spans="2:2">
-      <c r="B466" s="1" t="s">
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="467" spans="2:2">
-      <c r="B467" s="1" t="s">
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="468" spans="2:2">
-      <c r="B468" s="1" t="s">
+    <row r="468" spans="1:1">
+      <c r="A468" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="1" t="s">
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="470" spans="2:2">
-      <c r="B470" s="1" t="s">
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="471" spans="2:2">
-      <c r="B471" s="1" t="s">
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="1" t="s">
+    <row r="472" spans="1:1">
+      <c r="A472" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="1" t="s">
+    <row r="473" spans="1:1">
+      <c r="A473" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="474" spans="2:2">
-      <c r="B474" s="1" t="s">
+    <row r="474" spans="1:1">
+      <c r="A474" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="475" spans="2:2">
-      <c r="B475" s="1" t="s">
+    <row r="475" spans="1:1">
+      <c r="A475" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="1" t="s">
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="477" spans="2:2">
-      <c r="B477" s="1" t="s">
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="478" spans="2:2">
-      <c r="B478" s="1" t="s">
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="479" spans="2:2">
-      <c r="B479" s="1" t="s">
+    <row r="479" spans="1:1">
+      <c r="A479" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="480" spans="2:2">
-      <c r="B480" s="1" t="s">
+    <row r="480" spans="1:1">
+      <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="481" spans="2:2">
-      <c r="B481" s="1" t="s">
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="482" spans="2:2">
-      <c r="B482" s="1" t="s">
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="483" spans="2:2">
-      <c r="B483" s="1" t="s">
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="484" spans="2:2">
-      <c r="B484" s="1" t="s">
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="485" spans="2:2">
-      <c r="B485" s="1" t="s">
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="486" spans="2:2">
-      <c r="B486" s="1" t="s">
+    <row r="486" spans="1:1">
+      <c r="A486" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="487" spans="2:2">
-      <c r="B487" s="1" t="s">
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="488" spans="2:2">
-      <c r="B488" s="1" t="s">
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="489" spans="2:2">
-      <c r="B489" s="1" t="s">
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="490" spans="2:2">
-      <c r="B490" s="1" t="s">
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="491" spans="2:2">
-      <c r="B491" s="1" t="s">
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="492" spans="2:2">
-      <c r="B492" s="1" t="s">
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="493" spans="2:2">
-      <c r="B493" s="1" t="s">
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="494" spans="2:2">
-      <c r="B494" s="1" t="s">
+    <row r="494" spans="1:1">
+      <c r="A494" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="495" spans="2:2">
-      <c r="B495" s="1" t="s">
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="496" spans="2:2">
-      <c r="B496" s="1" t="s">
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="497" spans="2:2">
-      <c r="B497" s="1" t="s">
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="498" spans="2:2">
-      <c r="B498" t="s">
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="499" spans="2:2">
-      <c r="B499" s="1" t="s">
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="500" spans="2:2">
-      <c r="B500" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0E502E81-41C7-4EF4-842E-04A6B6BB53F0}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3D168EE5-4A7C-4718-8A66-7C5136A14D0B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{3464537B-250D-46FA-8ABE-D7DB4EA60431}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{DA2DA1F3-BCDA-40B6-8A52-C210436EC201}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{E609EAB0-DF1C-4C61-BE91-F3B67F8A0BFF}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{7E6A93D1-A686-4CA7-8826-1A3D718A68C2}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{1B576608-3854-49DC-B534-5F3E5BE4BC58}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{1451179C-1209-4083-8857-09ACDAB01DDB}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{B86E3301-C5CB-434B-BD36-A3B2E5CE8F98}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{23C7ED80-BD5A-4CEA-A0A9-E22CD0C009A0}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{D95CADFD-922F-4944-97F5-3023404A05B5}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{4AA83A02-36D5-441A-8B9E-EBDB772763A0}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{F52D3E28-B3BE-47C4-B825-3F91F98157E3}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{22818A29-8EF3-44C9-92B7-DCC25298EC4A}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{81E21E5A-4CD8-45AD-B415-4B128F28F04F}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{5EAE9FE8-6D87-4F18-B1C6-F52F025C7A1C}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{DDA4BCBD-7DD1-4D0C-BAFD-1483EFFCAC0B}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{57B0FB96-DA75-40FA-A392-B38E46FBDEB4}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{493F51AE-AACA-4F7C-B759-44F61C8F6661}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{B3729BA2-C3EE-4625-B391-0D6D438470CF}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{8299BB2E-FFEB-40EB-A55F-CF048D976AD9}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{065A180A-1CE6-4377-BBE2-BFA2BB145043}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{22DEB710-A6B7-45F9-87A4-1C94B5A7FB14}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{0972B30B-A16A-4763-A631-AB46A805E050}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{6A6270FF-B420-42BF-86FF-2CCBF52313C4}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{5AADD106-2495-405C-890A-EF2CF77BDD8A}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{8A6690D0-AD2C-470A-B53D-F8B14C60BF2C}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00713A24-BB2F-46DE-BCF5-DC7449FB5DA1}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{E7870A63-57D6-47DF-8144-E2D4088B6635}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{FA85815E-7699-4B4A-80D7-D8FD95CF0D96}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{76CBD2A6-2E08-41F2-8699-B548FB795869}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{291793D4-AA54-45C3-93AC-60748DC7827D}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{EFE451B3-FB3C-4C2C-975E-6D397A7BEDC1}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{1B694E13-922D-403D-953B-5B209487EFE2}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{43E2B0AB-6FB1-4D22-90CC-18D96EB2B01D}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{53BBA24B-FD42-4B8C-AF4B-E5C4D3B50B01}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{86CED2C2-73F1-4852-BE80-01A40E811E5F}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{170D37E3-8EEE-4E98-A4BF-4D96E618077D}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{100A422A-A50A-4A7A-A44B-1310786AECF3}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{BF9AF71E-BA91-4B79-BEE3-BCB7E7D0D799}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{6F293589-A1C7-4900-873A-F46FE6BCD49A}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{FBC97A3F-2F29-4B71-914A-7FC41720DD96}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{D59774DC-C48D-4E5D-9B23-BB7AC282FE64}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{ACCED5EC-6156-4C1C-9A65-1151FFACE678}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{C49B2495-A12E-4EA5-9468-4A1D4A2B459F}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{19FC9A65-B540-4BCB-858D-E1D5D9B767A2}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{4EF42D90-2F8F-4492-8D2C-2CF7D7624D67}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{FA87D1D8-9CA3-47D9-AC0B-5C9106F01A85}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{97EEB8A1-6FB5-437D-971C-DD188EF12888}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{E0635FEE-BCB8-4C45-BE89-CC1B28837545}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{A0DC6BEA-DFD2-4BBE-8E91-37E62971937C}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{2D0C652D-9B6B-4EA0-9928-13E3B61B33A8}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{C777B01C-828C-49E6-A561-6A4D15996973}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{07E221AF-9F61-483D-B926-3D01B5D379B6}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{8EC218DF-F184-4045-AE72-B6E59DACBE8E}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{36855E9A-83C1-497D-A3EB-4B12A794BAC5}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{70F8597B-0C7E-4B3D-8C88-BFA36E91FF6D}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{4D1AA0BA-D045-483C-85B4-A767489866E9}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{1684928F-75BC-4462-B461-8CCC989F301E}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{AECE934C-13C0-4266-9CE6-4C29B88E1794}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{C8D0143F-BADB-40D0-8F97-CC19A7604257}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{CE94DB55-D948-440A-AC19-D0498E4A6157}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{BD1361B2-E3D6-485F-AC1D-7EAE6C261E0D}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{48BA6071-F606-42BB-BF6F-34B44B47E730}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{C112E01F-3064-4207-A8BC-F522564330AA}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{15C3F25B-0ACB-441C-B5B8-B9D210360AE1}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{173044C0-54B0-4968-8E4A-6D9310D07D4B}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{1975D670-52A0-4AED-8B17-99DD09FA8C45}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{4AE44868-6648-4228-996E-1CAB7B9E62A1}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{01F96DE0-A55C-4FFF-B4FB-C113565743E2}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{A9A6AF14-FF12-49BE-A564-E6B4995B42D9}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{B86ADB73-2292-4E95-B123-2E8FB607AAFE}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{BEC5AD99-A2DA-4905-82C6-A919AD95CBB5}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{83418216-360A-4F9D-AC55-1E74DC70224A}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{B804A1BA-3703-463B-8730-8E665B09BE0E}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{C081B78D-0EC7-4492-9184-272E8F8CEFB1}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{BAA2AFC2-CB8F-4282-A878-87723D54AC16}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{DFA8E622-3EFF-440E-ABA2-F75CFAC3AB0C}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{824B2593-AB57-4568-9401-73B96563C711}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{78D77AC0-3F60-48F2-9C47-51220BB01F00}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{2F3DEDE0-54CC-4F38-B67B-98BE88F4B6B1}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{07EDEA3E-C1D3-4097-8F5C-900107B6B3FD}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{A10A7843-73C3-4905-BA80-148E2241F9CA}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{EB32B79A-38A3-42A6-8AF4-F08FCB6C6AEC}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{DAF83BFF-E3F0-458C-8BB3-2EC27CB292F7}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{07433079-F927-4920-9934-21493A523CD3}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{D9C4F7EE-7BF2-490E-8EEB-C135A80FFF1D}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{EDB141C0-26B7-440A-BF1C-A678C9EC70DC}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{55606D5D-70A8-4886-A4E4-314AA0EEA52F}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{1AEA9E6D-6D41-4EC1-BCCB-226CD7B37181}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{5911C9CB-3767-43C1-AE8B-191B73E1D753}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{A3E65886-4845-44CC-A622-919C7ACE5AE3}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{F2F04050-41FD-4871-AB3F-AF782B5DA5FA}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{182FC24C-C499-4F72-AEC5-BC40CF2B53F1}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{8582D5FF-2AB9-4E3B-8110-ECA399CBED3C}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{33679B53-229E-4F45-AC58-902FCA17877C}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{12B8F057-1C93-4B86-91EC-A95E33A7CF9A}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{EF231955-98CC-43D4-A0B9-0D53E5CA3522}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{3C10CE1A-9C0A-47EB-8E67-E48EBFE79BCA}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{041EC4CC-638E-4C4D-B17F-9F83A3541CC3}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{DB90EC8F-5019-4DF2-8F9E-BFBA87C32711}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{D6DF0832-AF3C-40C4-BD3B-0AAFBD6324F6}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{F3CA4A6A-CE89-47F9-8016-F427F4191163}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{4A56F788-3C78-4C65-A553-105128693BD1}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{7FE1226A-85C2-48DC-A390-BDDCFB13F9A2}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{CA2327E7-5E1E-4D17-BE04-D360E950F55D}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{C9A33B18-45DE-4189-95CC-1DC57F65E5BE}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{A7D0A15D-FE74-43DE-BE09-7BAAE3E82504}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{4CE75BD6-B468-447B-8A4D-3B44F6954E9F}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{604A5CC3-6F7F-4DA1-B900-726731801C47}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{6AD405FB-ADB1-463B-B90B-A809C808F088}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{9B45E2AF-F25A-49D8-B8B2-E6DCCF606628}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{FD07CD83-1D18-4345-90D2-FC6E5B66C5D2}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{A4A23144-0484-4B86-A8A0-3061A27506EC}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{E06ED9D4-1FF1-48FB-957E-84EFF2C42BCB}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{4C44CA95-FD87-4756-9541-29311FEA57C5}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{931BE274-213F-4A70-8DE0-BF97FE2F60DC}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{59B8641A-BFD6-4239-B7EC-F5238A842343}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{DDD413D2-FB16-4E3E-A443-4723E3E21CB1}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{C0977BD5-EA83-43F7-944A-B38EBB458F2B}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{60C62F2A-7C87-49C5-8D18-567A5D253E09}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{E371FC6D-FFFA-4AC4-A6EC-068CD8A3401E}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{E9CD3572-73AA-4223-9923-D82D4D4E5F02}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{A13840D9-367F-4744-9F58-2B2A5B0AF703}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{E745D6B3-807A-44E3-B01A-558766C02FC3}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{7357E884-8EDB-4005-B37B-FBFBA324581E}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{4290BCBC-C7BC-47D2-9035-5FB11F2749DD}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{446E7437-A746-40E0-8BAC-48130D16874A}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{A200FA58-7EF2-4950-A423-30BB9F84C7F8}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{C4C1B1DF-1F39-49E3-BDBF-F3F7CAA647B3}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{F06C786E-FD93-4ED9-8A2E-A90D778D860B}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{B2B05976-3DFB-4BE6-9B1B-6646B30A4F03}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{CAFACF57-3E22-40B2-892F-29E2C9153485}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{3A2871FE-6AC4-400A-A487-29A5FC9EBE5A}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{DD4CAC81-EA42-4A1E-9854-EB526A0B8967}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{1687AD66-42A1-4513-8A6F-C7144E981CB5}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{AB248323-E88C-4ECF-8D94-36EAF9451E0D}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{B1193285-2E29-434D-89E2-7DDD190EA109}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{0FCAE0B3-E500-423C-B3C2-B2C4B9710BE6}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{FD90ED76-5F0D-4D36-8A0D-D91CFEC2AB62}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{4FEB72E4-C71C-4C92-91A9-B3BF7870EE66}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{42C29ADA-C4E8-4E2A-BD31-4AA734620098}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{5ABACCC2-BF2D-4484-9E50-033B62A9993F}"/>
-    <hyperlink ref="B145" r:id="rId144" location="1daa23e69e47" xr:uid="{CE9FD6DD-16FE-49E1-BEE1-391922E5A8BB}"/>
-    <hyperlink ref="B146" r:id="rId145" xr:uid="{E1395EEC-448A-4380-AE51-1E35D3DEB72E}"/>
-    <hyperlink ref="B147" r:id="rId146" xr:uid="{C6BB1613-C0DB-4328-882C-58AD02B1DD00}"/>
-    <hyperlink ref="B148" r:id="rId147" xr:uid="{1DF5AB00-1032-42FB-A73F-A3E27090EABF}"/>
-    <hyperlink ref="B149" r:id="rId148" xr:uid="{EB8C3196-4639-432A-A2D2-1FDFEFBC1C02}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{5F7C266B-86E7-43DE-9263-4BCFA602221D}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{DB9799E1-342E-4B87-B6C2-40761ADEE108}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{9504C534-D8EA-440A-AE66-BCEB93CE05BF}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{1FEA7469-93EB-4542-A66F-AD4D62F8F4B3}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{517007C9-31C5-49CD-B375-D58BB54B908C}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{37BEED51-00E3-4577-8C3B-490B43E6AFF0}"/>
-    <hyperlink ref="B156" r:id="rId155" xr:uid="{85171380-51CF-4043-9D2D-847E5C8B8BBB}"/>
-    <hyperlink ref="B157" r:id="rId156" xr:uid="{4F4068A2-771C-4155-8BA9-F5D02CEA3FE8}"/>
-    <hyperlink ref="B158" r:id="rId157" xr:uid="{922B48EF-6E45-4C06-9D43-D51E3CFF189F}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{7DC721A3-686E-4C6C-A182-6E6F710F92C4}"/>
-    <hyperlink ref="B160" r:id="rId159" xr:uid="{E431DA56-8883-4A80-BB51-7F9EC214BAF1}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{BB14D767-0328-44A9-8B4A-035D4317F873}"/>
-    <hyperlink ref="B162" r:id="rId161" xr:uid="{D598ECB2-7669-467C-88CA-301AC3AD9CC0}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{06083619-8597-49DC-91EB-6FFEA9EAE091}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{93602CDE-758A-48B1-AD22-C37BABACF4DA}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{F4DB99C5-08C4-4DBF-8225-28411A90D047}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{8CCB44E9-D0CB-41B6-A4A9-CDE4E5F74C07}"/>
-    <hyperlink ref="B167" r:id="rId166" xr:uid="{C4936335-0EF0-41D8-85C7-6DC8D762ED96}"/>
-    <hyperlink ref="B168" r:id="rId167" xr:uid="{DACE946E-2F35-4D81-87D9-FAE04ECD5AFC}"/>
-    <hyperlink ref="B169" r:id="rId168" xr:uid="{F78BDC22-11CB-4F13-B703-9A9C55B90303}"/>
-    <hyperlink ref="B170" r:id="rId169" xr:uid="{DFB1E2E9-3F7E-49C9-AAC6-1D65167F883B}"/>
-    <hyperlink ref="B171" r:id="rId170" xr:uid="{1498B466-8D4B-4546-9DBE-58F0FD416CA3}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{8C652336-21A0-4BD3-88FC-2C972C23B470}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{E5C6D93B-34AB-4653-B93F-677C600F92EB}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{3FAE0DC0-EB7C-48BF-AE20-7B3634A40A97}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{B4E7E1E8-6640-410A-8A20-14E8EE84B31A}"/>
-    <hyperlink ref="B176" r:id="rId175" xr:uid="{8633F57B-F6EB-4074-BD48-5C51634D9098}"/>
-    <hyperlink ref="B177" r:id="rId176" xr:uid="{2B8A4C4C-D50E-4B04-9228-41C3A7C900C2}"/>
-    <hyperlink ref="B178" r:id="rId177" xr:uid="{2FA1E151-B1BD-4CD8-8F76-A06A7FACE509}"/>
-    <hyperlink ref="B179" r:id="rId178" xr:uid="{8B569B9D-EE4C-45C5-8039-9E009A1B5494}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{8C29AC73-0C66-43BA-AE51-41730EDAC82D}"/>
-    <hyperlink ref="B181" r:id="rId180" xr:uid="{60384CBE-0CFB-416B-9492-ACDD2877F032}"/>
-    <hyperlink ref="B182" r:id="rId181" xr:uid="{AD41DA24-9617-48EC-A53C-06EF0B764D40}"/>
-    <hyperlink ref="B183" r:id="rId182" xr:uid="{49E94A6A-8645-47C4-A92D-D754EE17315A}"/>
-    <hyperlink ref="B184" r:id="rId183" xr:uid="{41956BE2-9623-44F3-BF09-73C27289E224}"/>
-    <hyperlink ref="B185" r:id="rId184" xr:uid="{8781A043-7A80-47D6-A1B4-1CA323BE32A2}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{E544FCB1-B054-4EE3-8B45-FFC0061016E0}"/>
-    <hyperlink ref="B187" r:id="rId186" xr:uid="{A80D1682-DEDC-4654-8FF2-9A62C9147875}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{AC0FB378-2130-4844-9335-C9928BFAD85E}"/>
-    <hyperlink ref="B189" r:id="rId188" xr:uid="{EFEBBE9E-7BA1-43F7-9CED-407A51A00ECB}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{DA60262F-F0BE-40F5-9FA2-7C4990B4DB2A}"/>
-    <hyperlink ref="B191" r:id="rId190" xr:uid="{0EDC0799-7114-4A38-A9CF-F8ABEA9431CF}"/>
-    <hyperlink ref="B192" r:id="rId191" xr:uid="{A7AA9B77-1B7C-4182-97F5-59B9216CDDCE}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{4E15A4AE-B87D-4274-82F0-936F5D28FDC9}"/>
-    <hyperlink ref="B194" r:id="rId193" xr:uid="{104E932D-2575-4F75-BB9A-6A21FFDEC4FC}"/>
-    <hyperlink ref="B195" r:id="rId194" xr:uid="{EB3BBFA4-9C69-4E5B-BC34-8E54791E020F}"/>
-    <hyperlink ref="B196" r:id="rId195" xr:uid="{98E44264-77E8-419D-9657-C650B404E9D0}"/>
-    <hyperlink ref="B197" r:id="rId196" xr:uid="{055AE178-5D39-477D-8EFB-7B9A2DFE4927}"/>
-    <hyperlink ref="B198" r:id="rId197" xr:uid="{94F9CC30-2A57-4E81-ACCD-65460AA5AE43}"/>
-    <hyperlink ref="B199" r:id="rId198" xr:uid="{CD7F13AB-B8EB-4EAE-B421-6D47643D1EF8}"/>
-    <hyperlink ref="B200" r:id="rId199" xr:uid="{C588072F-95F6-4418-8E23-1C37E5228104}"/>
-    <hyperlink ref="B201" r:id="rId200" xr:uid="{D240DFEC-D695-4FF5-B58E-0B724F97EEDF}"/>
-    <hyperlink ref="B202" r:id="rId201" xr:uid="{C7D97CB6-0BC6-4229-A541-4568C967152A}"/>
-    <hyperlink ref="B203" r:id="rId202" xr:uid="{2D298ADE-FF78-401A-AD09-149D40448E2E}"/>
-    <hyperlink ref="B204" r:id="rId203" xr:uid="{C6054387-8A86-4555-BD8B-1DA133269A3B}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{00E50088-ACF1-4A5F-80CC-D63BF3D59BA9}"/>
-    <hyperlink ref="B206" r:id="rId205" xr:uid="{40EF4CD5-D6CB-4A8A-A36A-80811155B738}"/>
-    <hyperlink ref="B207" r:id="rId206" xr:uid="{2963769D-47DA-4EBE-946F-EFC7A70C3092}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{6B2C8222-892D-41B6-9B58-F0C1A91AEE1D}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{BCB90814-8FC3-4057-BEB3-AC413F4A202F}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{7C6C537A-79DE-4076-8AA9-AE0FA7F8021E}"/>
-    <hyperlink ref="B211" r:id="rId210" xr:uid="{DBECA6B1-CD3A-4D15-B16F-739FB708B767}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{CE0CEE4C-7C60-4CED-AACA-1D9DA66C2AFA}"/>
-    <hyperlink ref="B213" r:id="rId212" xr:uid="{CF9FCB93-E7E9-45C7-BD63-1C4EFC00680C}"/>
-    <hyperlink ref="B214" r:id="rId213" xr:uid="{5EEFA6F0-D052-4849-8EA8-6757B8F67FA9}"/>
-    <hyperlink ref="B215" r:id="rId214" xr:uid="{66B1DA54-66C0-4A4D-AC7C-8D76B7DA8467}"/>
-    <hyperlink ref="B216" r:id="rId215" xr:uid="{E834726D-3AAB-4EF4-B6CE-E03D8DBC322F}"/>
-    <hyperlink ref="B217" r:id="rId216" xr:uid="{62666276-EE54-4BD0-92A4-BEF5C5750D63}"/>
-    <hyperlink ref="B218" r:id="rId217" xr:uid="{FA29263D-E927-45CF-BD6C-275B8D90EEB9}"/>
-    <hyperlink ref="B219" r:id="rId218" xr:uid="{E9F78C43-6357-4D35-AE29-7FCBADB1630F}"/>
-    <hyperlink ref="B220" r:id="rId219" xr:uid="{FC475F33-2A72-440D-AFA1-75315C587092}"/>
-    <hyperlink ref="B221" r:id="rId220" xr:uid="{42552A0C-0ACE-41AE-90F5-DB9C0C90C50A}"/>
-    <hyperlink ref="B222" r:id="rId221" xr:uid="{97A0F301-FDBB-489F-AF78-40B2F3C0D7F0}"/>
-    <hyperlink ref="B223" r:id="rId222" xr:uid="{84575BE0-0CAA-4F90-A3E5-0F58D1F4E51D}"/>
-    <hyperlink ref="B224" r:id="rId223" xr:uid="{98731AD5-CB34-448B-96D6-F93E18758C79}"/>
-    <hyperlink ref="B225" r:id="rId224" xr:uid="{BD150985-4340-4BCE-8794-DFCDEEC44277}"/>
-    <hyperlink ref="B226" r:id="rId225" xr:uid="{09B72247-5226-48D7-8416-58146961E92B}"/>
-    <hyperlink ref="B227" r:id="rId226" xr:uid="{5B16E28A-D578-4FB3-A48C-669979285B63}"/>
-    <hyperlink ref="B228" r:id="rId227" xr:uid="{CE7C718F-647A-490D-8EDB-D083ED4763ED}"/>
-    <hyperlink ref="B229" r:id="rId228" xr:uid="{17BD2E33-0734-43D9-9FA2-0669339AEB2F}"/>
-    <hyperlink ref="B230" r:id="rId229" xr:uid="{2BDD70FE-CB4B-49E7-B085-CD921CE11CB4}"/>
-    <hyperlink ref="B231" r:id="rId230" xr:uid="{2A5E6183-7B1D-4B2B-A8B8-3777B8923551}"/>
-    <hyperlink ref="B232" r:id="rId231" xr:uid="{A7C342AF-0DAF-4750-B690-5D0805E603E1}"/>
-    <hyperlink ref="B233" r:id="rId232" xr:uid="{8B7E44BC-6410-4F91-B3CC-0788A722ED0B}"/>
-    <hyperlink ref="B234" r:id="rId233" xr:uid="{8C2E0B1E-B000-4D48-934E-CE523334FEFD}"/>
-    <hyperlink ref="B235" r:id="rId234" xr:uid="{B6FFDE62-5623-4245-8E7C-B7ED6AE1EFA2}"/>
-    <hyperlink ref="B236" r:id="rId235" xr:uid="{6059BC3D-776F-43BE-9AC0-9FE8E32A958E}"/>
-    <hyperlink ref="B237" r:id="rId236" xr:uid="{58C25A1B-7BCA-44DB-97E6-78274396790F}"/>
-    <hyperlink ref="B238" r:id="rId237" xr:uid="{94C3E192-898F-4011-896A-156175DC5F3C}"/>
-    <hyperlink ref="B239" r:id="rId238" xr:uid="{203CBD3A-BF69-4FB7-9230-5886CD06C0EC}"/>
-    <hyperlink ref="B240" r:id="rId239" xr:uid="{82B23088-3165-4577-9E2F-84C5CF627C06}"/>
-    <hyperlink ref="B242" r:id="rId240" xr:uid="{CDA60409-48DA-4FC8-ADAD-B23056F40A32}"/>
-    <hyperlink ref="B241" r:id="rId241" xr:uid="{94987D32-BF7D-4160-A6A9-B1359829EB0C}"/>
-    <hyperlink ref="B243" r:id="rId242" xr:uid="{D7A265E9-C00B-43A2-8837-554736C9FE1E}"/>
-    <hyperlink ref="B244" r:id="rId243" xr:uid="{C0676E1B-7803-4533-909E-0B85DA27E6BC}"/>
-    <hyperlink ref="B245" r:id="rId244" xr:uid="{7A88E17A-E677-4FC7-948D-6BB138165977}"/>
-    <hyperlink ref="B246" r:id="rId245" xr:uid="{C20A97E9-C9AA-4EA2-9B7A-F631D55232B0}"/>
-    <hyperlink ref="B247" r:id="rId246" xr:uid="{3EE123AF-D401-4A57-B693-13D30E9C80E4}"/>
-    <hyperlink ref="B248" r:id="rId247" xr:uid="{39DCBB12-9CB9-4E4B-B5DC-247B91A24AAE}"/>
-    <hyperlink ref="B249" r:id="rId248" xr:uid="{27832E5A-CC79-4061-A854-9F409654CFF1}"/>
-    <hyperlink ref="B250" r:id="rId249" xr:uid="{F1E9BC53-8F7D-47E0-8CB9-B58725D9E11F}"/>
-    <hyperlink ref="B251" r:id="rId250" xr:uid="{E36308F6-A6DC-481A-B26A-B92F7A3389BB}"/>
-    <hyperlink ref="B252" r:id="rId251" xr:uid="{FCEAF064-A511-4FD7-A49D-94DA4BC5E8E5}"/>
-    <hyperlink ref="B253" r:id="rId252" xr:uid="{8A703826-7B94-4F38-9014-71556164D799}"/>
-    <hyperlink ref="B254" r:id="rId253" xr:uid="{4D843AFE-F249-4622-8EAD-3A40C9930D2D}"/>
-    <hyperlink ref="B255" r:id="rId254" xr:uid="{0071D149-048D-4554-AF8B-808C1848647A}"/>
-    <hyperlink ref="B256" r:id="rId255" xr:uid="{D54E2C08-4C88-4976-B1EE-378FBA29D20E}"/>
-    <hyperlink ref="B257" r:id="rId256" xr:uid="{39B392BB-D876-4775-AC0A-366078D0B0E8}"/>
-    <hyperlink ref="B258" r:id="rId257" xr:uid="{3A96AD68-FB80-4B4B-9E4A-F6A8C12FAA04}"/>
-    <hyperlink ref="B259" r:id="rId258" xr:uid="{4FD85283-64FE-46A7-B80E-2B4DFBB37C5A}"/>
-    <hyperlink ref="B260" r:id="rId259" xr:uid="{99DB8E88-9EE5-4DBB-8A18-70B35ED78A83}"/>
-    <hyperlink ref="B261" r:id="rId260" xr:uid="{59111CF2-B0C3-45A6-9311-20AD6FB34573}"/>
-    <hyperlink ref="B262" r:id="rId261" xr:uid="{9E1FB92C-3208-47EC-88D3-3DBBAA706632}"/>
-    <hyperlink ref="B263" r:id="rId262" xr:uid="{738C0E90-E9AF-41E7-8809-14C26CAD0949}"/>
-    <hyperlink ref="B264" r:id="rId263" xr:uid="{307D855D-C8E1-40B6-A7E0-5F1DD53D6427}"/>
-    <hyperlink ref="B265" r:id="rId264" xr:uid="{0EA7FB0B-849F-453B-A1BB-849F746382EB}"/>
-    <hyperlink ref="B266" r:id="rId265" xr:uid="{16D85D66-0758-4E42-A672-B9ACFDED89CB}"/>
-    <hyperlink ref="B267" r:id="rId266" xr:uid="{8340ADF8-CFE3-4498-A629-DB85962F5019}"/>
-    <hyperlink ref="B268" r:id="rId267" xr:uid="{0C73DD89-AF02-45D7-A191-C645E7104C12}"/>
-    <hyperlink ref="B269" r:id="rId268" xr:uid="{170F09A1-56A6-424D-8FD0-2ADCC4C5B7EA}"/>
-    <hyperlink ref="B270" r:id="rId269" xr:uid="{9FB7B4A0-45A5-4766-A5AC-0AA2478C5F50}"/>
-    <hyperlink ref="B271" r:id="rId270" xr:uid="{DB2D3C03-D14D-4583-A977-0D3FFB451A0A}"/>
-    <hyperlink ref="B272" r:id="rId271" xr:uid="{AAB0CC38-8E8E-4EC0-A065-890F7744980A}"/>
-    <hyperlink ref="B273" r:id="rId272" xr:uid="{5963839A-E3A0-4C07-B21E-436549BBC94B}"/>
-    <hyperlink ref="B274" r:id="rId273" xr:uid="{0C7CF9F1-F190-4ACE-9AAF-75DB68B6641B}"/>
-    <hyperlink ref="B275" r:id="rId274" xr:uid="{ADE81755-C7C8-499D-B450-661EFABF011F}"/>
-    <hyperlink ref="B276" r:id="rId275" xr:uid="{EAA9C559-28E4-4869-B95D-F8979D39F911}"/>
-    <hyperlink ref="B277" r:id="rId276" xr:uid="{E4FABA35-4F10-4F84-8EAA-D95B3D331615}"/>
-    <hyperlink ref="B278" r:id="rId277" xr:uid="{9A4C6C43-F042-4B92-BA2E-44D71C3D13DC}"/>
-    <hyperlink ref="B279" r:id="rId278" xr:uid="{267DB1D5-E9A9-4B00-8530-26A7586A10E2}"/>
-    <hyperlink ref="B280" r:id="rId279" xr:uid="{997AC998-31B9-4A24-8BF7-28568E81B777}"/>
-    <hyperlink ref="B281" r:id="rId280" xr:uid="{F8E2BA8E-851A-4555-9E0B-FAC447994C7F}"/>
-    <hyperlink ref="B282" r:id="rId281" xr:uid="{319D54FF-C3F0-4B1E-BC48-4103F9940A36}"/>
-    <hyperlink ref="B283" r:id="rId282" xr:uid="{98F4D1ED-A584-4D48-AAE4-10410C481F96}"/>
-    <hyperlink ref="B284" r:id="rId283" xr:uid="{77A5BFEA-9A25-4CF0-B6C6-67E5718C9ACD}"/>
-    <hyperlink ref="B285" r:id="rId284" xr:uid="{985945F7-F2F5-459F-980E-8EC3A517776A}"/>
-    <hyperlink ref="B286" r:id="rId285" xr:uid="{487B5FB0-7231-4006-8AB7-AFF7D09EEB38}"/>
-    <hyperlink ref="B287" r:id="rId286" xr:uid="{AB5EE091-AF2F-4F7C-B7B5-FBBC20D524B9}"/>
-    <hyperlink ref="B288" r:id="rId287" xr:uid="{A6FA3C3E-A49B-44D8-9A14-E61BE6605562}"/>
-    <hyperlink ref="B289" r:id="rId288" xr:uid="{9B67DBBC-AE26-4D8B-82BE-1934ECA6F277}"/>
-    <hyperlink ref="B290" r:id="rId289" xr:uid="{6A2E3AEA-CD8E-467B-B2C6-B01DEC30EBC3}"/>
-    <hyperlink ref="B291" r:id="rId290" xr:uid="{CC393D98-6E62-492F-88F2-8DA0CB5FC9DC}"/>
-    <hyperlink ref="B292" r:id="rId291" xr:uid="{64B0B63B-3BC9-4573-9F19-C00F515C5954}"/>
-    <hyperlink ref="B293" r:id="rId292" xr:uid="{B233D19A-8687-47AA-881D-516D1F41BE2F}"/>
-    <hyperlink ref="B294" r:id="rId293" xr:uid="{60B0D35B-333E-48D1-84AF-6E0C03D38ACD}"/>
-    <hyperlink ref="B295" r:id="rId294" xr:uid="{1AA4395E-C3C3-4656-85E6-336C5C5F14A3}"/>
-    <hyperlink ref="B296" r:id="rId295" xr:uid="{555797F5-A4FF-40B0-896E-220950B4D2B3}"/>
-    <hyperlink ref="B297" r:id="rId296" xr:uid="{7A0958D8-32F7-4F54-ACA1-BF09C1772CCD}"/>
-    <hyperlink ref="B298" r:id="rId297" xr:uid="{CD02342E-CA50-460A-BD44-D332EA03A4C5}"/>
-    <hyperlink ref="B299" r:id="rId298" xr:uid="{083547F5-5C71-4B82-8453-BA436A320907}"/>
-    <hyperlink ref="B300" r:id="rId299" xr:uid="{0BA67E72-A055-4A42-9156-9C1C98FC8358}"/>
-    <hyperlink ref="B301" r:id="rId300" xr:uid="{B3C701BA-4432-44F7-9A12-4EA0FC4C3C34}"/>
-    <hyperlink ref="B302" r:id="rId301" xr:uid="{33D562D1-3AF0-47DE-B9FE-1F0C8E561CB7}"/>
-    <hyperlink ref="B303" r:id="rId302" xr:uid="{C83E89E1-E6BD-4B15-8DF0-0042B6077083}"/>
-    <hyperlink ref="B304" r:id="rId303" xr:uid="{7ECA0699-33FB-4214-9DF1-0F5699FD923A}"/>
-    <hyperlink ref="B305" r:id="rId304" xr:uid="{D71DC15F-66CC-4CA2-A3F7-7343715A4F91}"/>
-    <hyperlink ref="B306" r:id="rId305" xr:uid="{C215EF61-B4E1-46E6-8942-591F50851CDB}"/>
-    <hyperlink ref="B307" r:id="rId306" xr:uid="{8A8E3C26-E6FB-48AD-9CB6-4ED236FEC173}"/>
-    <hyperlink ref="B308" r:id="rId307" xr:uid="{ABA14867-7AF5-48F2-A5BD-190E7E285FC0}"/>
-    <hyperlink ref="B309" r:id="rId308" xr:uid="{C31B786A-1A10-41DA-B925-5F7ED82A7652}"/>
-    <hyperlink ref="B310" r:id="rId309" xr:uid="{B4F425C1-34F7-4B27-9304-9F98D1DDB0AE}"/>
-    <hyperlink ref="B311" r:id="rId310" xr:uid="{8BFF9E71-2534-4D88-968B-460CB8C2D437}"/>
-    <hyperlink ref="B312" r:id="rId311" xr:uid="{BDEFB924-00EC-475E-B278-6305655E8553}"/>
-    <hyperlink ref="B313" r:id="rId312" xr:uid="{1E995E3E-248D-4F4E-B68C-9A53214716D2}"/>
-    <hyperlink ref="B314" r:id="rId313" xr:uid="{B96DF21E-E618-45C1-BF8B-B137E5D73DE4}"/>
-    <hyperlink ref="B315" r:id="rId314" xr:uid="{E3B0A8E4-895F-488B-80F9-006E32D657BC}"/>
-    <hyperlink ref="B316" r:id="rId315" xr:uid="{6425A67F-76DE-4F97-92A6-6414EA3D4221}"/>
-    <hyperlink ref="B317" r:id="rId316" xr:uid="{7E943AA2-2CA2-429C-A817-99796C1E3FD7}"/>
-    <hyperlink ref="B318" r:id="rId317" xr:uid="{2B0D8F99-418A-4A9F-98C2-3308454842FD}"/>
-    <hyperlink ref="B319" r:id="rId318" xr:uid="{931BE943-0871-476D-9934-DA66E9BAE321}"/>
-    <hyperlink ref="B320" r:id="rId319" xr:uid="{867DD167-82DD-4D10-8631-BDBE490F0B8A}"/>
-    <hyperlink ref="B321" r:id="rId320" xr:uid="{26054C3D-4A7D-4A95-9934-BC856438B61F}"/>
-    <hyperlink ref="B322" r:id="rId321" xr:uid="{CCDD907D-F0CE-4A12-BD13-F4063AFBABBB}"/>
-    <hyperlink ref="B323" r:id="rId322" xr:uid="{D970D71B-FBC7-4E11-9923-DBD774ED5C52}"/>
-    <hyperlink ref="B324" r:id="rId323" xr:uid="{5CB51236-FF0F-4980-975F-2F8EF4F3DB19}"/>
-    <hyperlink ref="B325" r:id="rId324" xr:uid="{CE37A41D-152C-40DB-AB6D-D772995843CD}"/>
-    <hyperlink ref="B326" r:id="rId325" xr:uid="{803337BD-52F0-4C24-BDC4-A05FC978DA77}"/>
-    <hyperlink ref="B327" r:id="rId326" xr:uid="{85EE8EA5-7F00-45D7-9FCA-1707968B741B}"/>
-    <hyperlink ref="B328" r:id="rId327" xr:uid="{98479074-511E-44D6-A1BE-868DFD794EF1}"/>
-    <hyperlink ref="B329" r:id="rId328" xr:uid="{49C0B79A-4FF0-4DEE-803F-8E36E1A598E6}"/>
-    <hyperlink ref="B330" r:id="rId329" xr:uid="{A65EB8BC-31E9-4837-A674-D98EFF96F7A1}"/>
-    <hyperlink ref="B331" r:id="rId330" xr:uid="{BA48218D-6F68-44EF-B784-EE157B446D5F}"/>
-    <hyperlink ref="B332" r:id="rId331" xr:uid="{34B17F83-4CD0-483B-B8C1-15E20305BB14}"/>
-    <hyperlink ref="B333" r:id="rId332" xr:uid="{9D6E2FA3-58FB-41DE-8F12-C53423056489}"/>
-    <hyperlink ref="B334" r:id="rId333" xr:uid="{3E01601F-6EB5-44CE-B2D2-3DEB6C3C805C}"/>
-    <hyperlink ref="B336" r:id="rId334" xr:uid="{AD5341A1-A37C-4D6A-81FB-DD5C78D6332A}"/>
-    <hyperlink ref="B337" r:id="rId335" xr:uid="{4DF3FF8D-BE52-4575-BBD1-1700BC15E641}"/>
-    <hyperlink ref="B338" r:id="rId336" xr:uid="{93C95F46-CD92-4C10-8319-018AE678FC53}"/>
-    <hyperlink ref="B339" r:id="rId337" xr:uid="{52A31311-9CA9-4C83-A1D3-3188244A5964}"/>
-    <hyperlink ref="B340" r:id="rId338" xr:uid="{74720AC1-A749-4C89-B682-5ABCC5A49BFF}"/>
-    <hyperlink ref="B346" r:id="rId339" xr:uid="{EC002083-DDCF-4894-B1E4-FA4AFEFEE2B7}"/>
-    <hyperlink ref="B347" r:id="rId340" xr:uid="{292C1B38-9074-4EF8-8A3C-8DF591BCC669}"/>
-    <hyperlink ref="B349" r:id="rId341" xr:uid="{DB2389EB-BC86-4998-A6DC-53256C530F16}"/>
-    <hyperlink ref="B350" r:id="rId342" xr:uid="{B1EBF4BF-4827-4AA3-ABE0-0F6FC2F84099}"/>
-    <hyperlink ref="B353" r:id="rId343" xr:uid="{F4424D26-6C2B-4456-BEAF-189BB55AA987}"/>
-    <hyperlink ref="B354" r:id="rId344" xr:uid="{8DEC45D3-2A5F-49D4-9CB2-BAEEE8C8CF51}"/>
-    <hyperlink ref="B355" r:id="rId345" xr:uid="{E8C9E8A6-DA32-43CB-AC44-8EA5D3753EF9}"/>
-    <hyperlink ref="B356" r:id="rId346" xr:uid="{2E68BE7A-B71A-4E86-9072-6A94B430AAA6}"/>
-    <hyperlink ref="B357" r:id="rId347" xr:uid="{AA603EA0-6586-4534-B9E1-F5E6D04CD63F}"/>
-    <hyperlink ref="B358" r:id="rId348" xr:uid="{B4AA92A6-2EC0-4FE8-BFE2-7D90345310EB}"/>
-    <hyperlink ref="B359" r:id="rId349" xr:uid="{DBC4AC7D-2101-4975-9DE0-CAC57F92EDB1}"/>
-    <hyperlink ref="B360" r:id="rId350" xr:uid="{B7A00D5F-FF62-4818-984A-0BD89E0CE2E0}"/>
-    <hyperlink ref="B362" r:id="rId351" xr:uid="{3169E252-E258-4415-BD38-9FF4DBDA90F5}"/>
-    <hyperlink ref="B364" r:id="rId352" xr:uid="{C25187C2-88AF-4459-9C64-24E87FC60311}"/>
-    <hyperlink ref="B365" r:id="rId353" xr:uid="{7C4DD8C4-659D-41E4-9E24-010F64E0A4B5}"/>
-    <hyperlink ref="B367" r:id="rId354" xr:uid="{FEC34AB8-DF70-4C8F-AA2F-F1E28A222D22}"/>
-    <hyperlink ref="B370" r:id="rId355" xr:uid="{1D979448-9120-4DA5-AF28-1896C205AF3D}"/>
-    <hyperlink ref="B371" r:id="rId356" xr:uid="{F6A45C56-C612-48F7-A53B-062E2E7692E8}"/>
-    <hyperlink ref="B373" r:id="rId357" xr:uid="{B9BC2732-2904-4FF3-A00B-DCAC68589643}"/>
-    <hyperlink ref="B374" r:id="rId358" xr:uid="{420B702F-7C21-4D7F-8F01-74B454737723}"/>
-    <hyperlink ref="B375" r:id="rId359" xr:uid="{6E02C77B-DEA7-4DFC-A3D1-A882D4546954}"/>
-    <hyperlink ref="B376" r:id="rId360" xr:uid="{CF337910-3EDB-452D-B702-ABC870EF6DB2}"/>
-    <hyperlink ref="B377" r:id="rId361" xr:uid="{57D33C54-59E8-493D-9121-3D36F04439B9}"/>
-    <hyperlink ref="B378" r:id="rId362" xr:uid="{74FAA79D-31E0-47D3-810E-8FEF037109A1}"/>
-    <hyperlink ref="B379" r:id="rId363" xr:uid="{1B7C8D56-2C9C-442F-800B-9550F08E3C45}"/>
-    <hyperlink ref="B380" r:id="rId364" xr:uid="{23C08182-C86C-46D5-AD71-B12010C85456}"/>
-    <hyperlink ref="B381" r:id="rId365" xr:uid="{45AA02EE-7854-4CC0-A9FA-1B4CE9501EE8}"/>
-    <hyperlink ref="B382" r:id="rId366" xr:uid="{1BB98DF9-509B-406B-A696-A952D8B42788}"/>
-    <hyperlink ref="B383" r:id="rId367" display="https://moltenframework.com/v0.7.3/index.html" xr:uid="{38D8AA54-958B-4494-9F85-60D4977B2F3F}"/>
-    <hyperlink ref="B384" r:id="rId368" xr:uid="{C695C283-843D-459F-83BD-0F49F7733E44}"/>
-    <hyperlink ref="B385" r:id="rId369" xr:uid="{884959BA-6372-4AF1-9DB3-6B044E92C713}"/>
-    <hyperlink ref="B386" r:id="rId370" xr:uid="{27F23BD4-271A-47D4-9D97-ED411CB4011E}"/>
-    <hyperlink ref="B387" r:id="rId371" xr:uid="{9D30C79C-06DA-446E-B907-D1CA0ECA142C}"/>
-    <hyperlink ref="B388" r:id="rId372" xr:uid="{C21D5AF2-2D63-4D59-89E4-950BCF688639}"/>
-    <hyperlink ref="B389" r:id="rId373" xr:uid="{822563E8-C70F-4952-8C14-F87278EB7F9B}"/>
-    <hyperlink ref="B390" r:id="rId374" xr:uid="{D6E46189-30D2-4718-9F05-9498B092B778}"/>
-    <hyperlink ref="B391" r:id="rId375" xr:uid="{8D12D9F3-98F4-4294-A173-4FCD94E9B7F8}"/>
-    <hyperlink ref="B392" r:id="rId376" xr:uid="{C3C6EB86-A240-4B9C-884D-BCF95572AF5F}"/>
-    <hyperlink ref="B393" r:id="rId377" xr:uid="{0DD9E945-C4A2-41D0-9DE5-64D2B9C1E1A7}"/>
-    <hyperlink ref="B394" r:id="rId378" xr:uid="{B9E345C0-0F4A-422E-81FE-446B49A576DF}"/>
-    <hyperlink ref="B395" r:id="rId379" xr:uid="{DD7492E3-6C8A-4E1A-9207-B3AB6C96ACD2}"/>
-    <hyperlink ref="B396" r:id="rId380" xr:uid="{2A212452-E6C8-4333-B67C-A3FA1C7C2149}"/>
-    <hyperlink ref="B397" r:id="rId381" xr:uid="{049B86FA-F6C9-4414-91D1-1266C78662C0}"/>
-    <hyperlink ref="B398" r:id="rId382" xr:uid="{537727F3-456B-4BD1-AF81-91889C787A88}"/>
-    <hyperlink ref="B399" r:id="rId383" xr:uid="{0966C000-5DF6-4A2D-A293-8450F1AB2C77}"/>
-    <hyperlink ref="B400" r:id="rId384" xr:uid="{DFE00CFB-F237-4386-A48F-C403FF7FD18D}"/>
-    <hyperlink ref="B401" r:id="rId385" xr:uid="{4B12D1DE-FD1D-46B3-B002-D8605F966142}"/>
-    <hyperlink ref="B402" r:id="rId386" xr:uid="{77E677A0-8AE1-43F6-A43D-80E00ED2A218}"/>
-    <hyperlink ref="B403" r:id="rId387" xr:uid="{8940C883-E082-4764-A899-C2341FB0B386}"/>
-    <hyperlink ref="B404" r:id="rId388" xr:uid="{30DE91DF-F311-4717-9A25-E5631A4E9D85}"/>
-    <hyperlink ref="B405" r:id="rId389" xr:uid="{9B7E0574-C36A-46DF-8CDC-AA550F6FB605}"/>
-    <hyperlink ref="B406" r:id="rId390" xr:uid="{4D75571F-27C5-4D55-9BD1-D21BE9E38100}"/>
-    <hyperlink ref="B407" r:id="rId391" xr:uid="{2832F2D5-B800-4BF9-BA5D-3E6C8F3E74AB}"/>
-    <hyperlink ref="B408" r:id="rId392" xr:uid="{7DF71674-35CE-48D4-9A1A-84E387D173F7}"/>
-    <hyperlink ref="B409" r:id="rId393" xr:uid="{CD4FEA4F-A773-4B23-A5D5-9099FAA40D41}"/>
-    <hyperlink ref="B410" r:id="rId394" xr:uid="{8DE67CA6-6B72-4758-8DB7-01C7329F15E4}"/>
-    <hyperlink ref="B411" r:id="rId395" xr:uid="{3E9A7DD1-7B5A-4A0B-867E-25C5BE5CB1C6}"/>
-    <hyperlink ref="B412" r:id="rId396" xr:uid="{6D385F86-BFB5-458F-9DBA-0A24425840F0}"/>
-    <hyperlink ref="B413" r:id="rId397" xr:uid="{D7F6B007-3293-48A6-95BA-DC695A94CB85}"/>
-    <hyperlink ref="B414" r:id="rId398" xr:uid="{A8EE0686-6E12-43D2-BD50-4E80823335FA}"/>
-    <hyperlink ref="B415" r:id="rId399" xr:uid="{593B4FC7-593E-4B8B-A033-5A36F5E58EDA}"/>
-    <hyperlink ref="B416" r:id="rId400" xr:uid="{95844C46-553B-40B9-B84D-AB66ED46AC06}"/>
-    <hyperlink ref="B417" r:id="rId401" xr:uid="{76DE0673-F633-4DCA-916D-5BC11903E9F3}"/>
-    <hyperlink ref="B418" r:id="rId402" xr:uid="{CBB78E66-7443-4AA9-AB67-B5A9FF3A92C8}"/>
-    <hyperlink ref="B419" r:id="rId403" xr:uid="{33C3C938-EAD0-4765-99BC-6D780667BD56}"/>
-    <hyperlink ref="B420" r:id="rId404" xr:uid="{436F026B-8C60-4070-9915-897C451BD42D}"/>
-    <hyperlink ref="B421" r:id="rId405" xr:uid="{AF2B9460-DCBE-49DA-8ACC-A88A66C886AA}"/>
-    <hyperlink ref="B422" r:id="rId406" xr:uid="{88738A79-D0AA-44B0-BC2F-65F4A075E758}"/>
-    <hyperlink ref="B423" r:id="rId407" xr:uid="{59F7B163-AD16-45DD-96B7-B24524AED5A5}"/>
-    <hyperlink ref="B424" r:id="rId408" xr:uid="{380BDEAF-CC60-4CD4-9C95-C89B5F4A247D}"/>
-    <hyperlink ref="B425" r:id="rId409" xr:uid="{C424885A-C3F2-4167-98E9-8783F8F3B9F2}"/>
-    <hyperlink ref="B430" r:id="rId410" xr:uid="{7745FB24-7515-4126-944B-4E0FFBA78B52}"/>
-    <hyperlink ref="B431" r:id="rId411" xr:uid="{4B86B4A7-F7AE-4D43-9BDE-B1C26088DFE0}"/>
-    <hyperlink ref="B432" r:id="rId412" xr:uid="{ACEAC9C5-364E-4D9B-A3FC-0B6FF3FFC76D}"/>
-    <hyperlink ref="B433" r:id="rId413" xr:uid="{A8F2EAFA-060F-4A9B-B2A4-B535BC606D37}"/>
-    <hyperlink ref="B434" r:id="rId414" xr:uid="{3D2D69AA-7B17-4F01-BEA3-3E3D60F62F85}"/>
-    <hyperlink ref="B435" r:id="rId415" xr:uid="{1863B192-3514-41C7-A947-FFAFC45CE4DE}"/>
-    <hyperlink ref="B436" r:id="rId416" xr:uid="{41C10A50-956B-410F-AB0F-9ABAF0EED3B3}"/>
-    <hyperlink ref="B437" r:id="rId417" display="https://medium.com/@ti_ka/many-to-many-relationship-done-right-in-the-entity-framework-multi-clients-users-130ac185f667?source=email-7cc346612e6c-1548436383656-digest.weekly------0-59------------------7d2cad43_c61a_4b93_9e41_3c22f26b12c1-16&amp;sectionName=recommended" xr:uid="{DC3C8F87-D276-4081-B529-53743353C07D}"/>
-    <hyperlink ref="B438" r:id="rId418" xr:uid="{8F5B611D-386B-4AF6-9FE9-778F755264E4}"/>
-    <hyperlink ref="B439" r:id="rId419" xr:uid="{7DE156BF-48AD-4B35-B6C0-DDEA0FDFCB62}"/>
-    <hyperlink ref="B440" r:id="rId420" xr:uid="{7761DA0E-7A43-4B7F-BF1A-7755A1973726}"/>
-    <hyperlink ref="B441" r:id="rId421" xr:uid="{B041D8E3-8602-4FE6-8DF4-36547F762C06}"/>
-    <hyperlink ref="B442" r:id="rId422" display="https://medium.com/@SumanthShankar/on-demand-login-with-keycloak-angular-4-5-ngrx-backend-api-bookmark-able-links-ecb065dc7993?source=email-7cc346612e6c-1547226434760-digest.weekly------2-59------------------419c41e6_0862_425d_bb9e_2cdfecd3ce4e-16&amp;sectionName=recommended" xr:uid="{BF4EB656-4595-449C-85B1-B7CB932FECB3}"/>
-    <hyperlink ref="B443" r:id="rId423" xr:uid="{76E0A9F1-7B2E-40B0-8644-9E705ABBCC26}"/>
-    <hyperlink ref="B444" r:id="rId424" xr:uid="{F0B1535E-2C9E-4AA5-9614-234AF8FE5C9F}"/>
-    <hyperlink ref="B445" r:id="rId425" xr:uid="{29D87392-55F1-4938-BEB4-B1B5EE76974B}"/>
-    <hyperlink ref="B446" r:id="rId426" xr:uid="{17D88302-BE4A-4780-99CC-5E6D4974ED1C}"/>
-    <hyperlink ref="B447" r:id="rId427" xr:uid="{4BA8CB6B-45BB-4C89-BFAA-D90033C1F274}"/>
-    <hyperlink ref="B448" r:id="rId428" xr:uid="{D951A83F-B285-4D0B-BB6F-60D40005DF93}"/>
-    <hyperlink ref="B449" r:id="rId429" xr:uid="{2BDF11A4-557F-4EC2-B7E9-DB523B523612}"/>
-    <hyperlink ref="B450" r:id="rId430" xr:uid="{59C5A7C0-5432-4B7A-9C0F-7F8AC6944355}"/>
-    <hyperlink ref="B451" r:id="rId431" xr:uid="{7CEE1032-0BD8-44A6-8462-38C1B18AA735}"/>
-    <hyperlink ref="B452" r:id="rId432" xr:uid="{90F04463-8097-460F-AB87-16E71542A243}"/>
-    <hyperlink ref="B453" r:id="rId433" xr:uid="{110C3BCF-3B94-4C95-933A-2D4F9953AC5A}"/>
-    <hyperlink ref="B455" r:id="rId434" xr:uid="{F0FCBC13-6881-45CF-A088-C71840CA3D29}"/>
-    <hyperlink ref="B456" r:id="rId435" xr:uid="{0A3BADBE-D264-4621-A39E-DF22C675C5D7}"/>
-    <hyperlink ref="B457" r:id="rId436" xr:uid="{75F3EDF0-CC78-42F1-89C0-7A3C07BB11ED}"/>
-    <hyperlink ref="B458" r:id="rId437" xr:uid="{3B33FD13-10AB-4C46-A43D-2CF73C33B665}"/>
-    <hyperlink ref="B459" r:id="rId438" xr:uid="{EC1F105C-CA97-4C6B-AAC4-BF793AB47969}"/>
-    <hyperlink ref="B460" r:id="rId439" xr:uid="{6D5436BA-584D-4AE3-9A18-6F733607B3BD}"/>
-    <hyperlink ref="B461" r:id="rId440" xr:uid="{A9DA86E8-207A-418F-BA78-7128F2B096DF}"/>
-    <hyperlink ref="B463" r:id="rId441" xr:uid="{852E3633-8C2C-4C6A-9D0E-28BCF3A4D4B3}"/>
-    <hyperlink ref="B464" r:id="rId442" xr:uid="{4AB3EB34-25E7-4FC5-8311-6C94DA5DF15D}"/>
-    <hyperlink ref="B465" r:id="rId443" xr:uid="{1BDA9B7F-7C05-4E9E-84F5-F2EBBC1675D4}"/>
-    <hyperlink ref="B466" r:id="rId444" xr:uid="{170F466D-A44A-4B33-9777-49C0DF7BE968}"/>
-    <hyperlink ref="B467" r:id="rId445" xr:uid="{37F3BCEA-2558-45AD-A744-07B220ABA4E1}"/>
-    <hyperlink ref="B468" r:id="rId446" xr:uid="{6D7B0189-00B4-4C1E-A6EE-743B2611A170}"/>
-    <hyperlink ref="B469" r:id="rId447" xr:uid="{8047C511-5EA7-4893-A6A1-AC52AE2B81BC}"/>
-    <hyperlink ref="B470" r:id="rId448" xr:uid="{E679AB4F-F8E0-4375-BECC-7AFD1F43C35E}"/>
-    <hyperlink ref="B471" r:id="rId449" xr:uid="{D4785CCF-53FC-4A18-A867-1CDC37C1E212}"/>
-    <hyperlink ref="B472" r:id="rId450" xr:uid="{5196BCD4-64EB-412B-96AC-B0DCD9A1FEEE}"/>
-    <hyperlink ref="B473" r:id="rId451" xr:uid="{7F0C84D2-1A92-443D-9162-0BFB5030F2CE}"/>
-    <hyperlink ref="B474" r:id="rId452" xr:uid="{A35AC7C8-44D9-4243-9827-79B54544220B}"/>
-    <hyperlink ref="B475" r:id="rId453" xr:uid="{28C2EE4B-67A6-483E-84F8-13558D4887FC}"/>
-    <hyperlink ref="B476" r:id="rId454" xr:uid="{FC58CDAC-F04B-4655-90E5-BC4C04C8A08A}"/>
-    <hyperlink ref="B477" r:id="rId455" xr:uid="{44B4A6C1-DC97-4C3A-8B61-B22A652BA659}"/>
-    <hyperlink ref="B478" r:id="rId456" xr:uid="{F89FD92F-3F48-40A2-A81A-797EAD74F0D3}"/>
-    <hyperlink ref="B479" r:id="rId457" xr:uid="{8C07D00D-9F9A-40CE-91E2-BED714D9CB2D}"/>
-    <hyperlink ref="B480" r:id="rId458" xr:uid="{261F3435-43F6-4FE6-BE6D-5E8AA2B235A2}"/>
-    <hyperlink ref="B481" r:id="rId459" xr:uid="{6C4FDFB7-92B8-40B6-BA8E-850405CB101F}"/>
-    <hyperlink ref="B482" r:id="rId460" xr:uid="{6547F381-0827-4335-B4DF-4633A877F19D}"/>
-    <hyperlink ref="B483" r:id="rId461" xr:uid="{7FA3CBC1-5984-4384-901A-4171C8D93666}"/>
-    <hyperlink ref="B484" r:id="rId462" xr:uid="{C1A53BBA-887A-4F2A-BDB0-5115A62B9C5D}"/>
-    <hyperlink ref="B485" r:id="rId463" xr:uid="{D204CDAF-5B43-497F-B644-EAC6456BB5D3}"/>
-    <hyperlink ref="B486" r:id="rId464" xr:uid="{D49CCF4B-D7D2-40D2-8576-7FE52991701A}"/>
-    <hyperlink ref="B487" r:id="rId465" xr:uid="{B6396319-DE32-47A4-BD9C-52EFA159BE75}"/>
-    <hyperlink ref="B489" r:id="rId466" xr:uid="{8E0F52D1-BB0C-42F4-8711-39798AE5083A}"/>
-    <hyperlink ref="B490" r:id="rId467" xr:uid="{8CDB8188-90DC-479D-A18F-41780B9F953F}"/>
-    <hyperlink ref="B491" r:id="rId468" xr:uid="{DD4DD8F3-7847-4CC7-A40E-E6DC7E10BF36}"/>
-    <hyperlink ref="B492" r:id="rId469" xr:uid="{64F58D60-C63A-4B95-9AED-7EADD16D5680}"/>
-    <hyperlink ref="B493" r:id="rId470" xr:uid="{5237304C-8908-4892-AB42-FEB5A319C262}"/>
-    <hyperlink ref="B494" r:id="rId471" xr:uid="{6333EE7A-BAED-4553-938F-3423F27DC4A2}"/>
-    <hyperlink ref="B495" r:id="rId472" xr:uid="{F3330ED1-52FF-4865-9651-0B35DACE6AEA}"/>
-    <hyperlink ref="B496" r:id="rId473" xr:uid="{62008B0C-EFB7-4CAA-A184-1868784DA32D}"/>
-    <hyperlink ref="B497" r:id="rId474" xr:uid="{E41CC639-0364-4FFB-8FF0-1BFF8FAD1B49}"/>
-    <hyperlink ref="B499" r:id="rId475" xr:uid="{82DCA852-0C0A-48FF-B69A-8F414FC317C6}"/>
-    <hyperlink ref="B500" r:id="rId476" xr:uid="{4AA01093-8E23-4E79-AE39-C0BFF5BAA7C6}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0E502E81-41C7-4EF4-842E-04A6B6BB53F0}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{3D168EE5-4A7C-4718-8A66-7C5136A14D0B}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{3464537B-250D-46FA-8ABE-D7DB4EA60431}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{DA2DA1F3-BCDA-40B6-8A52-C210436EC201}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{E609EAB0-DF1C-4C61-BE91-F3B67F8A0BFF}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{7E6A93D1-A686-4CA7-8826-1A3D718A68C2}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{1B576608-3854-49DC-B534-5F3E5BE4BC58}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{1451179C-1209-4083-8857-09ACDAB01DDB}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{B86E3301-C5CB-434B-BD36-A3B2E5CE8F98}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{23C7ED80-BD5A-4CEA-A0A9-E22CD0C009A0}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{D95CADFD-922F-4944-97F5-3023404A05B5}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{4AA83A02-36D5-441A-8B9E-EBDB772763A0}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{F52D3E28-B3BE-47C4-B825-3F91F98157E3}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{22818A29-8EF3-44C9-92B7-DCC25298EC4A}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{81E21E5A-4CD8-45AD-B415-4B128F28F04F}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{5EAE9FE8-6D87-4F18-B1C6-F52F025C7A1C}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{DDA4BCBD-7DD1-4D0C-BAFD-1483EFFCAC0B}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{57B0FB96-DA75-40FA-A392-B38E46FBDEB4}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{493F51AE-AACA-4F7C-B759-44F61C8F6661}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{B3729BA2-C3EE-4625-B391-0D6D438470CF}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{8299BB2E-FFEB-40EB-A55F-CF048D976AD9}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{065A180A-1CE6-4377-BBE2-BFA2BB145043}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{22DEB710-A6B7-45F9-87A4-1C94B5A7FB14}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{0972B30B-A16A-4763-A631-AB46A805E050}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{6A6270FF-B420-42BF-86FF-2CCBF52313C4}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{5AADD106-2495-405C-890A-EF2CF77BDD8A}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{8A6690D0-AD2C-470A-B53D-F8B14C60BF2C}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{00713A24-BB2F-46DE-BCF5-DC7449FB5DA1}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{E7870A63-57D6-47DF-8144-E2D4088B6635}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{FA85815E-7699-4B4A-80D7-D8FD95CF0D96}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{76CBD2A6-2E08-41F2-8699-B548FB795869}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{291793D4-AA54-45C3-93AC-60748DC7827D}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{EFE451B3-FB3C-4C2C-975E-6D397A7BEDC1}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{1B694E13-922D-403D-953B-5B209487EFE2}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{43E2B0AB-6FB1-4D22-90CC-18D96EB2B01D}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{53BBA24B-FD42-4B8C-AF4B-E5C4D3B50B01}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{86CED2C2-73F1-4852-BE80-01A40E811E5F}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{170D37E3-8EEE-4E98-A4BF-4D96E618077D}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{100A422A-A50A-4A7A-A44B-1310786AECF3}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{BF9AF71E-BA91-4B79-BEE3-BCB7E7D0D799}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{6F293589-A1C7-4900-873A-F46FE6BCD49A}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{FBC97A3F-2F29-4B71-914A-7FC41720DD96}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{D59774DC-C48D-4E5D-9B23-BB7AC282FE64}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{ACCED5EC-6156-4C1C-9A65-1151FFACE678}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{C49B2495-A12E-4EA5-9468-4A1D4A2B459F}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{19FC9A65-B540-4BCB-858D-E1D5D9B767A2}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{4EF42D90-2F8F-4492-8D2C-2CF7D7624D67}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{FA87D1D8-9CA3-47D9-AC0B-5C9106F01A85}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{97EEB8A1-6FB5-437D-971C-DD188EF12888}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{E0635FEE-BCB8-4C45-BE89-CC1B28837545}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{A0DC6BEA-DFD2-4BBE-8E91-37E62971937C}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{2D0C652D-9B6B-4EA0-9928-13E3B61B33A8}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{C777B01C-828C-49E6-A561-6A4D15996973}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{07E221AF-9F61-483D-B926-3D01B5D379B6}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{8EC218DF-F184-4045-AE72-B6E59DACBE8E}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{36855E9A-83C1-497D-A3EB-4B12A794BAC5}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{70F8597B-0C7E-4B3D-8C88-BFA36E91FF6D}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{4D1AA0BA-D045-483C-85B4-A767489866E9}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{1684928F-75BC-4462-B461-8CCC989F301E}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{AECE934C-13C0-4266-9CE6-4C29B88E1794}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{C8D0143F-BADB-40D0-8F97-CC19A7604257}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{CE94DB55-D948-440A-AC19-D0498E4A6157}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{BD1361B2-E3D6-485F-AC1D-7EAE6C261E0D}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{48BA6071-F606-42BB-BF6F-34B44B47E730}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{C112E01F-3064-4207-A8BC-F522564330AA}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{15C3F25B-0ACB-441C-B5B8-B9D210360AE1}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{173044C0-54B0-4968-8E4A-6D9310D07D4B}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{1975D670-52A0-4AED-8B17-99DD09FA8C45}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{4AE44868-6648-4228-996E-1CAB7B9E62A1}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{01F96DE0-A55C-4FFF-B4FB-C113565743E2}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{A9A6AF14-FF12-49BE-A564-E6B4995B42D9}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{B86ADB73-2292-4E95-B123-2E8FB607AAFE}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{BEC5AD99-A2DA-4905-82C6-A919AD95CBB5}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{83418216-360A-4F9D-AC55-1E74DC70224A}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{B804A1BA-3703-463B-8730-8E665B09BE0E}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{C081B78D-0EC7-4492-9184-272E8F8CEFB1}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{BAA2AFC2-CB8F-4282-A878-87723D54AC16}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{DFA8E622-3EFF-440E-ABA2-F75CFAC3AB0C}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{824B2593-AB57-4568-9401-73B96563C711}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{78D77AC0-3F60-48F2-9C47-51220BB01F00}"/>
+    <hyperlink ref="A81" r:id="rId81" xr:uid="{2F3DEDE0-54CC-4F38-B67B-98BE88F4B6B1}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{07EDEA3E-C1D3-4097-8F5C-900107B6B3FD}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{A10A7843-73C3-4905-BA80-148E2241F9CA}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{EB32B79A-38A3-42A6-8AF4-F08FCB6C6AEC}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{DAF83BFF-E3F0-458C-8BB3-2EC27CB292F7}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{07433079-F927-4920-9934-21493A523CD3}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{D9C4F7EE-7BF2-490E-8EEB-C135A80FFF1D}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{EDB141C0-26B7-440A-BF1C-A678C9EC70DC}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{55606D5D-70A8-4886-A4E4-314AA0EEA52F}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{1AEA9E6D-6D41-4EC1-BCCB-226CD7B37181}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{5911C9CB-3767-43C1-AE8B-191B73E1D753}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{A3E65886-4845-44CC-A622-919C7ACE5AE3}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{F2F04050-41FD-4871-AB3F-AF782B5DA5FA}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{182FC24C-C499-4F72-AEC5-BC40CF2B53F1}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{8582D5FF-2AB9-4E3B-8110-ECA399CBED3C}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{33679B53-229E-4F45-AC58-902FCA17877C}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{12B8F057-1C93-4B86-91EC-A95E33A7CF9A}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{EF231955-98CC-43D4-A0B9-0D53E5CA3522}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{3C10CE1A-9C0A-47EB-8E67-E48EBFE79BCA}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{041EC4CC-638E-4C4D-B17F-9F83A3541CC3}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{DB90EC8F-5019-4DF2-8F9E-BFBA87C32711}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{D6DF0832-AF3C-40C4-BD3B-0AAFBD6324F6}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{F3CA4A6A-CE89-47F9-8016-F427F4191163}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{4A56F788-3C78-4C65-A553-105128693BD1}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{7FE1226A-85C2-48DC-A390-BDDCFB13F9A2}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{CA2327E7-5E1E-4D17-BE04-D360E950F55D}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{C9A33B18-45DE-4189-95CC-1DC57F65E5BE}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{A7D0A15D-FE74-43DE-BE09-7BAAE3E82504}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{4CE75BD6-B468-447B-8A4D-3B44F6954E9F}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{604A5CC3-6F7F-4DA1-B900-726731801C47}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{6AD405FB-ADB1-463B-B90B-A809C808F088}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{9B45E2AF-F25A-49D8-B8B2-E6DCCF606628}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{FD07CD83-1D18-4345-90D2-FC6E5B66C5D2}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{A4A23144-0484-4B86-A8A0-3061A27506EC}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{E06ED9D4-1FF1-48FB-957E-84EFF2C42BCB}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{4C44CA95-FD87-4756-9541-29311FEA57C5}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{931BE274-213F-4A70-8DE0-BF97FE2F60DC}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{59B8641A-BFD6-4239-B7EC-F5238A842343}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{DDD413D2-FB16-4E3E-A443-4723E3E21CB1}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{C0977BD5-EA83-43F7-944A-B38EBB458F2B}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{60C62F2A-7C87-49C5-8D18-567A5D253E09}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{E371FC6D-FFFA-4AC4-A6EC-068CD8A3401E}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{E9CD3572-73AA-4223-9923-D82D4D4E5F02}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{A13840D9-367F-4744-9F58-2B2A5B0AF703}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{E745D6B3-807A-44E3-B01A-558766C02FC3}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{7357E884-8EDB-4005-B37B-FBFBA324581E}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{4290BCBC-C7BC-47D2-9035-5FB11F2749DD}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{446E7437-A746-40E0-8BAC-48130D16874A}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{A200FA58-7EF2-4950-A423-30BB9F84C7F8}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{C4C1B1DF-1F39-49E3-BDBF-F3F7CAA647B3}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{F06C786E-FD93-4ED9-8A2E-A90D778D860B}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{B2B05976-3DFB-4BE6-9B1B-6646B30A4F03}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{CAFACF57-3E22-40B2-892F-29E2C9153485}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{3A2871FE-6AC4-400A-A487-29A5FC9EBE5A}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{DD4CAC81-EA42-4A1E-9854-EB526A0B8967}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{1687AD66-42A1-4513-8A6F-C7144E981CB5}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{AB248323-E88C-4ECF-8D94-36EAF9451E0D}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{B1193285-2E29-434D-89E2-7DDD190EA109}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{0FCAE0B3-E500-423C-B3C2-B2C4B9710BE6}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{FD90ED76-5F0D-4D36-8A0D-D91CFEC2AB62}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{4FEB72E4-C71C-4C92-91A9-B3BF7870EE66}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{42C29ADA-C4E8-4E2A-BD31-4AA734620098}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{5ABACCC2-BF2D-4484-9E50-033B62A9993F}"/>
+    <hyperlink ref="A144" r:id="rId144" location="1daa23e69e47" xr:uid="{CE9FD6DD-16FE-49E1-BEE1-391922E5A8BB}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{E1395EEC-448A-4380-AE51-1E35D3DEB72E}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{C6BB1613-C0DB-4328-882C-58AD02B1DD00}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{1DF5AB00-1032-42FB-A73F-A3E27090EABF}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{EB8C3196-4639-432A-A2D2-1FDFEFBC1C02}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{5F7C266B-86E7-43DE-9263-4BCFA602221D}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{DB9799E1-342E-4B87-B6C2-40761ADEE108}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{9504C534-D8EA-440A-AE66-BCEB93CE05BF}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{1FEA7469-93EB-4542-A66F-AD4D62F8F4B3}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{517007C9-31C5-49CD-B375-D58BB54B908C}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{37BEED51-00E3-4577-8C3B-490B43E6AFF0}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{85171380-51CF-4043-9D2D-847E5C8B8BBB}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{4F4068A2-771C-4155-8BA9-F5D02CEA3FE8}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{922B48EF-6E45-4C06-9D43-D51E3CFF189F}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{7DC721A3-686E-4C6C-A182-6E6F710F92C4}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{E431DA56-8883-4A80-BB51-7F9EC214BAF1}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{BB14D767-0328-44A9-8B4A-035D4317F873}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{D598ECB2-7669-467C-88CA-301AC3AD9CC0}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{06083619-8597-49DC-91EB-6FFEA9EAE091}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{93602CDE-758A-48B1-AD22-C37BABACF4DA}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{F4DB99C5-08C4-4DBF-8225-28411A90D047}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{8CCB44E9-D0CB-41B6-A4A9-CDE4E5F74C07}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{C4936335-0EF0-41D8-85C7-6DC8D762ED96}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{DACE946E-2F35-4D81-87D9-FAE04ECD5AFC}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{F78BDC22-11CB-4F13-B703-9A9C55B90303}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{DFB1E2E9-3F7E-49C9-AAC6-1D65167F883B}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{1498B466-8D4B-4546-9DBE-58F0FD416CA3}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{8C652336-21A0-4BD3-88FC-2C972C23B470}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{E5C6D93B-34AB-4653-B93F-677C600F92EB}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{3FAE0DC0-EB7C-48BF-AE20-7B3634A40A97}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{B4E7E1E8-6640-410A-8A20-14E8EE84B31A}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{8633F57B-F6EB-4074-BD48-5C51634D9098}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{2B8A4C4C-D50E-4B04-9228-41C3A7C900C2}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{2FA1E151-B1BD-4CD8-8F76-A06A7FACE509}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{8B569B9D-EE4C-45C5-8039-9E009A1B5494}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{8C29AC73-0C66-43BA-AE51-41730EDAC82D}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{60384CBE-0CFB-416B-9492-ACDD2877F032}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{AD41DA24-9617-48EC-A53C-06EF0B764D40}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{49E94A6A-8645-47C4-A92D-D754EE17315A}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{41956BE2-9623-44F3-BF09-73C27289E224}"/>
+    <hyperlink ref="A184" r:id="rId184" xr:uid="{8781A043-7A80-47D6-A1B4-1CA323BE32A2}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{E544FCB1-B054-4EE3-8B45-FFC0061016E0}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{A80D1682-DEDC-4654-8FF2-9A62C9147875}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{AC0FB378-2130-4844-9335-C9928BFAD85E}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{EFEBBE9E-7BA1-43F7-9CED-407A51A00ECB}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{DA60262F-F0BE-40F5-9FA2-7C4990B4DB2A}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{0EDC0799-7114-4A38-A9CF-F8ABEA9431CF}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{A7AA9B77-1B7C-4182-97F5-59B9216CDDCE}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{4E15A4AE-B87D-4274-82F0-936F5D28FDC9}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{104E932D-2575-4F75-BB9A-6A21FFDEC4FC}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{EB3BBFA4-9C69-4E5B-BC34-8E54791E020F}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{98E44264-77E8-419D-9657-C650B404E9D0}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{055AE178-5D39-477D-8EFB-7B9A2DFE4927}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{94F9CC30-2A57-4E81-ACCD-65460AA5AE43}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{CD7F13AB-B8EB-4EAE-B421-6D47643D1EF8}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{C588072F-95F6-4418-8E23-1C37E5228104}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{D240DFEC-D695-4FF5-B58E-0B724F97EEDF}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{C7D97CB6-0BC6-4229-A541-4568C967152A}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{2D298ADE-FF78-401A-AD09-149D40448E2E}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{C6054387-8A86-4555-BD8B-1DA133269A3B}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{00E50088-ACF1-4A5F-80CC-D63BF3D59BA9}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{40EF4CD5-D6CB-4A8A-A36A-80811155B738}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{2963769D-47DA-4EBE-946F-EFC7A70C3092}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{6B2C8222-892D-41B6-9B58-F0C1A91AEE1D}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{BCB90814-8FC3-4057-BEB3-AC413F4A202F}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{7C6C537A-79DE-4076-8AA9-AE0FA7F8021E}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{DBECA6B1-CD3A-4D15-B16F-739FB708B767}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{CE0CEE4C-7C60-4CED-AACA-1D9DA66C2AFA}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{CF9FCB93-E7E9-45C7-BD63-1C4EFC00680C}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{5EEFA6F0-D052-4849-8EA8-6757B8F67FA9}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{66B1DA54-66C0-4A4D-AC7C-8D76B7DA8467}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{E834726D-3AAB-4EF4-B6CE-E03D8DBC322F}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{62666276-EE54-4BD0-92A4-BEF5C5750D63}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{FA29263D-E927-45CF-BD6C-275B8D90EEB9}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{E9F78C43-6357-4D35-AE29-7FCBADB1630F}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{FC475F33-2A72-440D-AFA1-75315C587092}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{42552A0C-0ACE-41AE-90F5-DB9C0C90C50A}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{97A0F301-FDBB-489F-AF78-40B2F3C0D7F0}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{84575BE0-0CAA-4F90-A3E5-0F58D1F4E51D}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{98731AD5-CB34-448B-96D6-F93E18758C79}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{BD150985-4340-4BCE-8794-DFCDEEC44277}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{09B72247-5226-48D7-8416-58146961E92B}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{5B16E28A-D578-4FB3-A48C-669979285B63}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{CE7C718F-647A-490D-8EDB-D083ED4763ED}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{17BD2E33-0734-43D9-9FA2-0669339AEB2F}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{2BDD70FE-CB4B-49E7-B085-CD921CE11CB4}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{2A5E6183-7B1D-4B2B-A8B8-3777B8923551}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{A7C342AF-0DAF-4750-B690-5D0805E603E1}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{8B7E44BC-6410-4F91-B3CC-0788A722ED0B}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{8C2E0B1E-B000-4D48-934E-CE523334FEFD}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{B6FFDE62-5623-4245-8E7C-B7ED6AE1EFA2}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{6059BC3D-776F-43BE-9AC0-9FE8E32A958E}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{58C25A1B-7BCA-44DB-97E6-78274396790F}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{94C3E192-898F-4011-896A-156175DC5F3C}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{203CBD3A-BF69-4FB7-9230-5886CD06C0EC}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{82B23088-3165-4577-9E2F-84C5CF627C06}"/>
+    <hyperlink ref="A241" r:id="rId240" xr:uid="{CDA60409-48DA-4FC8-ADAD-B23056F40A32}"/>
+    <hyperlink ref="A240" r:id="rId241" xr:uid="{94987D32-BF7D-4160-A6A9-B1359829EB0C}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{D7A265E9-C00B-43A2-8837-554736C9FE1E}"/>
+    <hyperlink ref="A243" r:id="rId243" xr:uid="{C0676E1B-7803-4533-909E-0B85DA27E6BC}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{7A88E17A-E677-4FC7-948D-6BB138165977}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{C20A97E9-C9AA-4EA2-9B7A-F631D55232B0}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{3EE123AF-D401-4A57-B693-13D30E9C80E4}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{39DCBB12-9CB9-4E4B-B5DC-247B91A24AAE}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{27832E5A-CC79-4061-A854-9F409654CFF1}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{F1E9BC53-8F7D-47E0-8CB9-B58725D9E11F}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{E36308F6-A6DC-481A-B26A-B92F7A3389BB}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{FCEAF064-A511-4FD7-A49D-94DA4BC5E8E5}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{8A703826-7B94-4F38-9014-71556164D799}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{4D843AFE-F249-4622-8EAD-3A40C9930D2D}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{0071D149-048D-4554-AF8B-808C1848647A}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{D54E2C08-4C88-4976-B1EE-378FBA29D20E}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{39B392BB-D876-4775-AC0A-366078D0B0E8}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{3A96AD68-FB80-4B4B-9E4A-F6A8C12FAA04}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{4FD85283-64FE-46A7-B80E-2B4DFBB37C5A}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{99DB8E88-9EE5-4DBB-8A18-70B35ED78A83}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{59111CF2-B0C3-45A6-9311-20AD6FB34573}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{9E1FB92C-3208-47EC-88D3-3DBBAA706632}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{738C0E90-E9AF-41E7-8809-14C26CAD0949}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{307D855D-C8E1-40B6-A7E0-5F1DD53D6427}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{0EA7FB0B-849F-453B-A1BB-849F746382EB}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{16D85D66-0758-4E42-A672-B9ACFDED89CB}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{8340ADF8-CFE3-4498-A629-DB85962F5019}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{0C73DD89-AF02-45D7-A191-C645E7104C12}"/>
+    <hyperlink ref="A268" r:id="rId268" xr:uid="{170F09A1-56A6-424D-8FD0-2ADCC4C5B7EA}"/>
+    <hyperlink ref="A269" r:id="rId269" xr:uid="{9FB7B4A0-45A5-4766-A5AC-0AA2478C5F50}"/>
+    <hyperlink ref="A270" r:id="rId270" xr:uid="{DB2D3C03-D14D-4583-A977-0D3FFB451A0A}"/>
+    <hyperlink ref="A271" r:id="rId271" xr:uid="{AAB0CC38-8E8E-4EC0-A065-890F7744980A}"/>
+    <hyperlink ref="A272" r:id="rId272" xr:uid="{5963839A-E3A0-4C07-B21E-436549BBC94B}"/>
+    <hyperlink ref="A273" r:id="rId273" xr:uid="{0C7CF9F1-F190-4ACE-9AAF-75DB68B6641B}"/>
+    <hyperlink ref="A274" r:id="rId274" xr:uid="{ADE81755-C7C8-499D-B450-661EFABF011F}"/>
+    <hyperlink ref="A275" r:id="rId275" xr:uid="{EAA9C559-28E4-4869-B95D-F8979D39F911}"/>
+    <hyperlink ref="A276" r:id="rId276" xr:uid="{E4FABA35-4F10-4F84-8EAA-D95B3D331615}"/>
+    <hyperlink ref="A277" r:id="rId277" xr:uid="{9A4C6C43-F042-4B92-BA2E-44D71C3D13DC}"/>
+    <hyperlink ref="A278" r:id="rId278" xr:uid="{267DB1D5-E9A9-4B00-8530-26A7586A10E2}"/>
+    <hyperlink ref="A279" r:id="rId279" xr:uid="{997AC998-31B9-4A24-8BF7-28568E81B777}"/>
+    <hyperlink ref="A280" r:id="rId280" xr:uid="{F8E2BA8E-851A-4555-9E0B-FAC447994C7F}"/>
+    <hyperlink ref="A281" r:id="rId281" xr:uid="{319D54FF-C3F0-4B1E-BC48-4103F9940A36}"/>
+    <hyperlink ref="A282" r:id="rId282" xr:uid="{98F4D1ED-A584-4D48-AAE4-10410C481F96}"/>
+    <hyperlink ref="A283" r:id="rId283" xr:uid="{77A5BFEA-9A25-4CF0-B6C6-67E5718C9ACD}"/>
+    <hyperlink ref="A284" r:id="rId284" xr:uid="{985945F7-F2F5-459F-980E-8EC3A517776A}"/>
+    <hyperlink ref="A285" r:id="rId285" xr:uid="{487B5FB0-7231-4006-8AB7-AFF7D09EEB38}"/>
+    <hyperlink ref="A286" r:id="rId286" xr:uid="{AB5EE091-AF2F-4F7C-B7B5-FBBC20D524B9}"/>
+    <hyperlink ref="A287" r:id="rId287" xr:uid="{A6FA3C3E-A49B-44D8-9A14-E61BE6605562}"/>
+    <hyperlink ref="A288" r:id="rId288" xr:uid="{9B67DBBC-AE26-4D8B-82BE-1934ECA6F277}"/>
+    <hyperlink ref="A289" r:id="rId289" xr:uid="{6A2E3AEA-CD8E-467B-B2C6-B01DEC30EBC3}"/>
+    <hyperlink ref="A290" r:id="rId290" xr:uid="{CC393D98-6E62-492F-88F2-8DA0CB5FC9DC}"/>
+    <hyperlink ref="A291" r:id="rId291" xr:uid="{64B0B63B-3BC9-4573-9F19-C00F515C5954}"/>
+    <hyperlink ref="A292" r:id="rId292" xr:uid="{B233D19A-8687-47AA-881D-516D1F41BE2F}"/>
+    <hyperlink ref="A293" r:id="rId293" xr:uid="{60B0D35B-333E-48D1-84AF-6E0C03D38ACD}"/>
+    <hyperlink ref="A294" r:id="rId294" xr:uid="{1AA4395E-C3C3-4656-85E6-336C5C5F14A3}"/>
+    <hyperlink ref="A295" r:id="rId295" xr:uid="{555797F5-A4FF-40B0-896E-220950B4D2B3}"/>
+    <hyperlink ref="A296" r:id="rId296" xr:uid="{7A0958D8-32F7-4F54-ACA1-BF09C1772CCD}"/>
+    <hyperlink ref="A297" r:id="rId297" xr:uid="{CD02342E-CA50-460A-BD44-D332EA03A4C5}"/>
+    <hyperlink ref="A298" r:id="rId298" xr:uid="{083547F5-5C71-4B82-8453-BA436A320907}"/>
+    <hyperlink ref="A299" r:id="rId299" xr:uid="{0BA67E72-A055-4A42-9156-9C1C98FC8358}"/>
+    <hyperlink ref="A300" r:id="rId300" xr:uid="{B3C701BA-4432-44F7-9A12-4EA0FC4C3C34}"/>
+    <hyperlink ref="A301" r:id="rId301" xr:uid="{33D562D1-3AF0-47DE-B9FE-1F0C8E561CB7}"/>
+    <hyperlink ref="A302" r:id="rId302" xr:uid="{C83E89E1-E6BD-4B15-8DF0-0042B6077083}"/>
+    <hyperlink ref="A303" r:id="rId303" xr:uid="{7ECA0699-33FB-4214-9DF1-0F5699FD923A}"/>
+    <hyperlink ref="A304" r:id="rId304" xr:uid="{D71DC15F-66CC-4CA2-A3F7-7343715A4F91}"/>
+    <hyperlink ref="A305" r:id="rId305" xr:uid="{C215EF61-B4E1-46E6-8942-591F50851CDB}"/>
+    <hyperlink ref="A306" r:id="rId306" xr:uid="{8A8E3C26-E6FB-48AD-9CB6-4ED236FEC173}"/>
+    <hyperlink ref="A307" r:id="rId307" xr:uid="{ABA14867-7AF5-48F2-A5BD-190E7E285FC0}"/>
+    <hyperlink ref="A308" r:id="rId308" xr:uid="{C31B786A-1A10-41DA-B925-5F7ED82A7652}"/>
+    <hyperlink ref="A309" r:id="rId309" xr:uid="{B4F425C1-34F7-4B27-9304-9F98D1DDB0AE}"/>
+    <hyperlink ref="A310" r:id="rId310" xr:uid="{8BFF9E71-2534-4D88-968B-460CB8C2D437}"/>
+    <hyperlink ref="A311" r:id="rId311" xr:uid="{BDEFB924-00EC-475E-B278-6305655E8553}"/>
+    <hyperlink ref="A312" r:id="rId312" xr:uid="{1E995E3E-248D-4F4E-B68C-9A53214716D2}"/>
+    <hyperlink ref="A313" r:id="rId313" xr:uid="{B96DF21E-E618-45C1-BF8B-B137E5D73DE4}"/>
+    <hyperlink ref="A314" r:id="rId314" xr:uid="{E3B0A8E4-895F-488B-80F9-006E32D657BC}"/>
+    <hyperlink ref="A315" r:id="rId315" xr:uid="{6425A67F-76DE-4F97-92A6-6414EA3D4221}"/>
+    <hyperlink ref="A316" r:id="rId316" xr:uid="{7E943AA2-2CA2-429C-A817-99796C1E3FD7}"/>
+    <hyperlink ref="A317" r:id="rId317" xr:uid="{2B0D8F99-418A-4A9F-98C2-3308454842FD}"/>
+    <hyperlink ref="A318" r:id="rId318" xr:uid="{931BE943-0871-476D-9934-DA66E9BAE321}"/>
+    <hyperlink ref="A319" r:id="rId319" xr:uid="{867DD167-82DD-4D10-8631-BDBE490F0B8A}"/>
+    <hyperlink ref="A320" r:id="rId320" xr:uid="{26054C3D-4A7D-4A95-9934-BC856438B61F}"/>
+    <hyperlink ref="A321" r:id="rId321" xr:uid="{CCDD907D-F0CE-4A12-BD13-F4063AFBABBB}"/>
+    <hyperlink ref="A322" r:id="rId322" xr:uid="{D970D71B-FBC7-4E11-9923-DBD774ED5C52}"/>
+    <hyperlink ref="A323" r:id="rId323" xr:uid="{5CB51236-FF0F-4980-975F-2F8EF4F3DB19}"/>
+    <hyperlink ref="A324" r:id="rId324" xr:uid="{CE37A41D-152C-40DB-AB6D-D772995843CD}"/>
+    <hyperlink ref="A325" r:id="rId325" xr:uid="{803337BD-52F0-4C24-BDC4-A05FC978DA77}"/>
+    <hyperlink ref="A326" r:id="rId326" xr:uid="{85EE8EA5-7F00-45D7-9FCA-1707968B741B}"/>
+    <hyperlink ref="A327" r:id="rId327" xr:uid="{98479074-511E-44D6-A1BE-868DFD794EF1}"/>
+    <hyperlink ref="A328" r:id="rId328" xr:uid="{49C0B79A-4FF0-4DEE-803F-8E36E1A598E6}"/>
+    <hyperlink ref="A329" r:id="rId329" xr:uid="{A65EB8BC-31E9-4837-A674-D98EFF96F7A1}"/>
+    <hyperlink ref="A330" r:id="rId330" xr:uid="{BA48218D-6F68-44EF-B784-EE157B446D5F}"/>
+    <hyperlink ref="A331" r:id="rId331" xr:uid="{34B17F83-4CD0-483B-B8C1-15E20305BB14}"/>
+    <hyperlink ref="A332" r:id="rId332" xr:uid="{9D6E2FA3-58FB-41DE-8F12-C53423056489}"/>
+    <hyperlink ref="A333" r:id="rId333" xr:uid="{3E01601F-6EB5-44CE-B2D2-3DEB6C3C805C}"/>
+    <hyperlink ref="A335" r:id="rId334" xr:uid="{AD5341A1-A37C-4D6A-81FB-DD5C78D6332A}"/>
+    <hyperlink ref="A336" r:id="rId335" xr:uid="{4DF3FF8D-BE52-4575-BBD1-1700BC15E641}"/>
+    <hyperlink ref="A337" r:id="rId336" xr:uid="{93C95F46-CD92-4C10-8319-018AE678FC53}"/>
+    <hyperlink ref="A338" r:id="rId337" xr:uid="{52A31311-9CA9-4C83-A1D3-3188244A5964}"/>
+    <hyperlink ref="A339" r:id="rId338" xr:uid="{74720AC1-A749-4C89-B682-5ABCC5A49BFF}"/>
+    <hyperlink ref="A345" r:id="rId339" xr:uid="{EC002083-DDCF-4894-B1E4-FA4AFEFEE2B7}"/>
+    <hyperlink ref="A346" r:id="rId340" xr:uid="{292C1B38-9074-4EF8-8A3C-8DF591BCC669}"/>
+    <hyperlink ref="A348" r:id="rId341" xr:uid="{DB2389EB-BC86-4998-A6DC-53256C530F16}"/>
+    <hyperlink ref="A349" r:id="rId342" xr:uid="{B1EBF4BF-4827-4AA3-ABE0-0F6FC2F84099}"/>
+    <hyperlink ref="A352" r:id="rId343" xr:uid="{F4424D26-6C2B-4456-BEAF-189BB55AA987}"/>
+    <hyperlink ref="A353" r:id="rId344" xr:uid="{8DEC45D3-2A5F-49D4-9CB2-BAEEE8C8CF51}"/>
+    <hyperlink ref="A354" r:id="rId345" xr:uid="{E8C9E8A6-DA32-43CB-AC44-8EA5D3753EF9}"/>
+    <hyperlink ref="A355" r:id="rId346" xr:uid="{2E68BE7A-B71A-4E86-9072-6A94B430AAA6}"/>
+    <hyperlink ref="A356" r:id="rId347" xr:uid="{AA603EA0-6586-4534-B9E1-F5E6D04CD63F}"/>
+    <hyperlink ref="A357" r:id="rId348" xr:uid="{B4AA92A6-2EC0-4FE8-BFE2-7D90345310EB}"/>
+    <hyperlink ref="A358" r:id="rId349" xr:uid="{DBC4AC7D-2101-4975-9DE0-CAC57F92EDB1}"/>
+    <hyperlink ref="A359" r:id="rId350" xr:uid="{B7A00D5F-FF62-4818-984A-0BD89E0CE2E0}"/>
+    <hyperlink ref="A361" r:id="rId351" xr:uid="{3169E252-E258-4415-BD38-9FF4DBDA90F5}"/>
+    <hyperlink ref="A363" r:id="rId352" xr:uid="{C25187C2-88AF-4459-9C64-24E87FC60311}"/>
+    <hyperlink ref="A364" r:id="rId353" xr:uid="{7C4DD8C4-659D-41E4-9E24-010F64E0A4B5}"/>
+    <hyperlink ref="A366" r:id="rId354" xr:uid="{FEC34AB8-DF70-4C8F-AA2F-F1E28A222D22}"/>
+    <hyperlink ref="A369" r:id="rId355" xr:uid="{1D979448-9120-4DA5-AF28-1896C205AF3D}"/>
+    <hyperlink ref="A370" r:id="rId356" xr:uid="{F6A45C56-C612-48F7-A53B-062E2E7692E8}"/>
+    <hyperlink ref="A372" r:id="rId357" xr:uid="{B9BC2732-2904-4FF3-A00B-DCAC68589643}"/>
+    <hyperlink ref="A373" r:id="rId358" xr:uid="{420B702F-7C21-4D7F-8F01-74B454737723}"/>
+    <hyperlink ref="A374" r:id="rId359" xr:uid="{6E02C77B-DEA7-4DFC-A3D1-A882D4546954}"/>
+    <hyperlink ref="A375" r:id="rId360" xr:uid="{CF337910-3EDB-452D-B702-ABC870EF6DB2}"/>
+    <hyperlink ref="A376" r:id="rId361" xr:uid="{57D33C54-59E8-493D-9121-3D36F04439B9}"/>
+    <hyperlink ref="A377" r:id="rId362" xr:uid="{74FAA79D-31E0-47D3-810E-8FEF037109A1}"/>
+    <hyperlink ref="A378" r:id="rId363" xr:uid="{1B7C8D56-2C9C-442F-800B-9550F08E3C45}"/>
+    <hyperlink ref="A379" r:id="rId364" xr:uid="{23C08182-C86C-46D5-AD71-B12010C85456}"/>
+    <hyperlink ref="A380" r:id="rId365" xr:uid="{45AA02EE-7854-4CC0-A9FA-1B4CE9501EE8}"/>
+    <hyperlink ref="A381" r:id="rId366" xr:uid="{1BB98DF9-509B-406B-A696-A952D8B42788}"/>
+    <hyperlink ref="A382" r:id="rId367" display="https://moltenframework.com/v0.7.3/index.html" xr:uid="{38D8AA54-958B-4494-9F85-60D4977B2F3F}"/>
+    <hyperlink ref="A383" r:id="rId368" xr:uid="{C695C283-843D-459F-83BD-0F49F7733E44}"/>
+    <hyperlink ref="A384" r:id="rId369" xr:uid="{884959BA-6372-4AF1-9DB3-6B044E92C713}"/>
+    <hyperlink ref="A385" r:id="rId370" xr:uid="{27F23BD4-271A-47D4-9D97-ED411CB4011E}"/>
+    <hyperlink ref="A386" r:id="rId371" xr:uid="{9D30C79C-06DA-446E-B907-D1CA0ECA142C}"/>
+    <hyperlink ref="A387" r:id="rId372" xr:uid="{C21D5AF2-2D63-4D59-89E4-950BCF688639}"/>
+    <hyperlink ref="A388" r:id="rId373" xr:uid="{822563E8-C70F-4952-8C14-F87278EB7F9B}"/>
+    <hyperlink ref="A389" r:id="rId374" xr:uid="{D6E46189-30D2-4718-9F05-9498B092B778}"/>
+    <hyperlink ref="A390" r:id="rId375" xr:uid="{8D12D9F3-98F4-4294-A173-4FCD94E9B7F8}"/>
+    <hyperlink ref="A391" r:id="rId376" xr:uid="{C3C6EB86-A240-4B9C-884D-BCF95572AF5F}"/>
+    <hyperlink ref="A392" r:id="rId377" xr:uid="{0DD9E945-C4A2-41D0-9DE5-64D2B9C1E1A7}"/>
+    <hyperlink ref="A393" r:id="rId378" xr:uid="{B9E345C0-0F4A-422E-81FE-446B49A576DF}"/>
+    <hyperlink ref="A394" r:id="rId379" xr:uid="{DD7492E3-6C8A-4E1A-9207-B3AB6C96ACD2}"/>
+    <hyperlink ref="A395" r:id="rId380" xr:uid="{2A212452-E6C8-4333-B67C-A3FA1C7C2149}"/>
+    <hyperlink ref="A396" r:id="rId381" xr:uid="{049B86FA-F6C9-4414-91D1-1266C78662C0}"/>
+    <hyperlink ref="A397" r:id="rId382" xr:uid="{537727F3-456B-4BD1-AF81-91889C787A88}"/>
+    <hyperlink ref="A398" r:id="rId383" xr:uid="{0966C000-5DF6-4A2D-A293-8450F1AB2C77}"/>
+    <hyperlink ref="A399" r:id="rId384" xr:uid="{DFE00CFB-F237-4386-A48F-C403FF7FD18D}"/>
+    <hyperlink ref="A400" r:id="rId385" xr:uid="{4B12D1DE-FD1D-46B3-B002-D8605F966142}"/>
+    <hyperlink ref="A401" r:id="rId386" xr:uid="{77E677A0-8AE1-43F6-A43D-80E00ED2A218}"/>
+    <hyperlink ref="A402" r:id="rId387" xr:uid="{8940C883-E082-4764-A899-C2341FB0B386}"/>
+    <hyperlink ref="A403" r:id="rId388" xr:uid="{30DE91DF-F311-4717-9A25-E5631A4E9D85}"/>
+    <hyperlink ref="A404" r:id="rId389" xr:uid="{9B7E0574-C36A-46DF-8CDC-AA550F6FB605}"/>
+    <hyperlink ref="A405" r:id="rId390" xr:uid="{4D75571F-27C5-4D55-9BD1-D21BE9E38100}"/>
+    <hyperlink ref="A406" r:id="rId391" xr:uid="{2832F2D5-B800-4BF9-BA5D-3E6C8F3E74AB}"/>
+    <hyperlink ref="A407" r:id="rId392" xr:uid="{7DF71674-35CE-48D4-9A1A-84E387D173F7}"/>
+    <hyperlink ref="A408" r:id="rId393" xr:uid="{CD4FEA4F-A773-4B23-A5D5-9099FAA40D41}"/>
+    <hyperlink ref="A409" r:id="rId394" xr:uid="{8DE67CA6-6B72-4758-8DB7-01C7329F15E4}"/>
+    <hyperlink ref="A410" r:id="rId395" xr:uid="{3E9A7DD1-7B5A-4A0B-867E-25C5BE5CB1C6}"/>
+    <hyperlink ref="A411" r:id="rId396" xr:uid="{6D385F86-BFB5-458F-9DBA-0A24425840F0}"/>
+    <hyperlink ref="A412" r:id="rId397" xr:uid="{D7F6B007-3293-48A6-95BA-DC695A94CB85}"/>
+    <hyperlink ref="A413" r:id="rId398" xr:uid="{A8EE0686-6E12-43D2-BD50-4E80823335FA}"/>
+    <hyperlink ref="A414" r:id="rId399" xr:uid="{593B4FC7-593E-4B8B-A033-5A36F5E58EDA}"/>
+    <hyperlink ref="A415" r:id="rId400" xr:uid="{95844C46-553B-40B9-B84D-AB66ED46AC06}"/>
+    <hyperlink ref="A416" r:id="rId401" xr:uid="{76DE0673-F633-4DCA-916D-5BC11903E9F3}"/>
+    <hyperlink ref="A417" r:id="rId402" xr:uid="{CBB78E66-7443-4AA9-AB67-B5A9FF3A92C8}"/>
+    <hyperlink ref="A418" r:id="rId403" xr:uid="{33C3C938-EAD0-4765-99BC-6D780667BD56}"/>
+    <hyperlink ref="A419" r:id="rId404" xr:uid="{436F026B-8C60-4070-9915-897C451BD42D}"/>
+    <hyperlink ref="A420" r:id="rId405" xr:uid="{AF2B9460-DCBE-49DA-8ACC-A88A66C886AA}"/>
+    <hyperlink ref="A421" r:id="rId406" xr:uid="{88738A79-D0AA-44B0-BC2F-65F4A075E758}"/>
+    <hyperlink ref="A422" r:id="rId407" xr:uid="{59F7B163-AD16-45DD-96B7-B24524AED5A5}"/>
+    <hyperlink ref="A423" r:id="rId408" xr:uid="{380BDEAF-CC60-4CD4-9C95-C89B5F4A247D}"/>
+    <hyperlink ref="A424" r:id="rId409" xr:uid="{C424885A-C3F2-4167-98E9-8783F8F3B9F2}"/>
+    <hyperlink ref="A429" r:id="rId410" xr:uid="{7745FB24-7515-4126-944B-4E0FFBA78B52}"/>
+    <hyperlink ref="A430" r:id="rId411" xr:uid="{4B86B4A7-F7AE-4D43-9BDE-B1C26088DFE0}"/>
+    <hyperlink ref="A431" r:id="rId412" xr:uid="{ACEAC9C5-364E-4D9B-A3FC-0B6FF3FFC76D}"/>
+    <hyperlink ref="A432" r:id="rId413" xr:uid="{A8F2EAFA-060F-4A9B-B2A4-B535BC606D37}"/>
+    <hyperlink ref="A433" r:id="rId414" xr:uid="{3D2D69AA-7B17-4F01-BEA3-3E3D60F62F85}"/>
+    <hyperlink ref="A434" r:id="rId415" xr:uid="{1863B192-3514-41C7-A947-FFAFC45CE4DE}"/>
+    <hyperlink ref="A435" r:id="rId416" xr:uid="{41C10A50-956B-410F-AB0F-9ABAF0EED3B3}"/>
+    <hyperlink ref="A436" r:id="rId417" display="https://medium.com/@ti_ka/many-to-many-relationship-done-right-in-the-entity-framework-multi-clients-users-130ac185f667?source=email-7cc346612e6c-1548436383656-digest.weekly------0-59------------------7d2cad43_c61a_4b93_9e41_3c22f26b12c1-16&amp;sectionName=recommended" xr:uid="{DC3C8F87-D276-4081-B529-53743353C07D}"/>
+    <hyperlink ref="A437" r:id="rId418" xr:uid="{8F5B611D-386B-4AF6-9FE9-778F755264E4}"/>
+    <hyperlink ref="A438" r:id="rId419" xr:uid="{7DE156BF-48AD-4B35-B6C0-DDEA0FDFCB62}"/>
+    <hyperlink ref="A439" r:id="rId420" xr:uid="{7761DA0E-7A43-4B7F-BF1A-7755A1973726}"/>
+    <hyperlink ref="A440" r:id="rId421" xr:uid="{B041D8E3-8602-4FE6-8DF4-36547F762C06}"/>
+    <hyperlink ref="A441" r:id="rId422" display="https://medium.com/@SumanthShankar/on-demand-login-with-keycloak-angular-4-5-ngrx-backend-api-bookmark-able-links-ecb065dc7993?source=email-7cc346612e6c-1547226434760-digest.weekly------2-59------------------419c41e6_0862_425d_bb9e_2cdfecd3ce4e-16&amp;sectionName=recommended" xr:uid="{BF4EB656-4595-449C-85B1-B7CB932FECB3}"/>
+    <hyperlink ref="A442" r:id="rId423" xr:uid="{76E0A9F1-7B2E-40B0-8644-9E705ABBCC26}"/>
+    <hyperlink ref="A443" r:id="rId424" xr:uid="{F0B1535E-2C9E-4AA5-9614-234AF8FE5C9F}"/>
+    <hyperlink ref="A444" r:id="rId425" xr:uid="{29D87392-55F1-4938-BEB4-B1B5EE76974B}"/>
+    <hyperlink ref="A445" r:id="rId426" xr:uid="{17D88302-BE4A-4780-99CC-5E6D4974ED1C}"/>
+    <hyperlink ref="A446" r:id="rId427" xr:uid="{4BA8CB6B-45BB-4C89-BFAA-D90033C1F274}"/>
+    <hyperlink ref="A447" r:id="rId428" xr:uid="{D951A83F-B285-4D0B-BB6F-60D40005DF93}"/>
+    <hyperlink ref="A448" r:id="rId429" xr:uid="{2BDF11A4-557F-4EC2-B7E9-DB523B523612}"/>
+    <hyperlink ref="A449" r:id="rId430" xr:uid="{59C5A7C0-5432-4B7A-9C0F-7F8AC6944355}"/>
+    <hyperlink ref="A450" r:id="rId431" xr:uid="{7CEE1032-0BD8-44A6-8462-38C1B18AA735}"/>
+    <hyperlink ref="A451" r:id="rId432" xr:uid="{90F04463-8097-460F-AB87-16E71542A243}"/>
+    <hyperlink ref="A452" r:id="rId433" xr:uid="{110C3BCF-3B94-4C95-933A-2D4F9953AC5A}"/>
+    <hyperlink ref="A454" r:id="rId434" xr:uid="{F0FCBC13-6881-45CF-A088-C71840CA3D29}"/>
+    <hyperlink ref="A455" r:id="rId435" xr:uid="{0A3BADBE-D264-4621-A39E-DF22C675C5D7}"/>
+    <hyperlink ref="A456" r:id="rId436" xr:uid="{75F3EDF0-CC78-42F1-89C0-7A3C07BB11ED}"/>
+    <hyperlink ref="A457" r:id="rId437" xr:uid="{3B33FD13-10AB-4C46-A43D-2CF73C33B665}"/>
+    <hyperlink ref="A458" r:id="rId438" xr:uid="{EC1F105C-CA97-4C6B-AAC4-BF793AB47969}"/>
+    <hyperlink ref="A459" r:id="rId439" xr:uid="{6D5436BA-584D-4AE3-9A18-6F733607B3BD}"/>
+    <hyperlink ref="A460" r:id="rId440" xr:uid="{A9DA86E8-207A-418F-BA78-7128F2B096DF}"/>
+    <hyperlink ref="A462" r:id="rId441" xr:uid="{852E3633-8C2C-4C6A-9D0E-28BCF3A4D4B3}"/>
+    <hyperlink ref="A463" r:id="rId442" xr:uid="{4AB3EB34-25E7-4FC5-8311-6C94DA5DF15D}"/>
+    <hyperlink ref="A464" r:id="rId443" xr:uid="{1BDA9B7F-7C05-4E9E-84F5-F2EBBC1675D4}"/>
+    <hyperlink ref="A465" r:id="rId444" xr:uid="{170F466D-A44A-4B33-9777-49C0DF7BE968}"/>
+    <hyperlink ref="A466" r:id="rId445" xr:uid="{37F3BCEA-2558-45AD-A744-07B220ABA4E1}"/>
+    <hyperlink ref="A467" r:id="rId446" xr:uid="{6D7B0189-00B4-4C1E-A6EE-743B2611A170}"/>
+    <hyperlink ref="A468" r:id="rId447" xr:uid="{8047C511-5EA7-4893-A6A1-AC52AE2B81BC}"/>
+    <hyperlink ref="A469" r:id="rId448" xr:uid="{E679AB4F-F8E0-4375-BECC-7AFD1F43C35E}"/>
+    <hyperlink ref="A470" r:id="rId449" xr:uid="{D4785CCF-53FC-4A18-A867-1CDC37C1E212}"/>
+    <hyperlink ref="A471" r:id="rId450" xr:uid="{5196BCD4-64EB-412B-96AC-B0DCD9A1FEEE}"/>
+    <hyperlink ref="A472" r:id="rId451" xr:uid="{7F0C84D2-1A92-443D-9162-0BFB5030F2CE}"/>
+    <hyperlink ref="A473" r:id="rId452" xr:uid="{A35AC7C8-44D9-4243-9827-79B54544220B}"/>
+    <hyperlink ref="A474" r:id="rId453" xr:uid="{28C2EE4B-67A6-483E-84F8-13558D4887FC}"/>
+    <hyperlink ref="A475" r:id="rId454" xr:uid="{FC58CDAC-F04B-4655-90E5-BC4C04C8A08A}"/>
+    <hyperlink ref="A476" r:id="rId455" xr:uid="{44B4A6C1-DC97-4C3A-8B61-B22A652BA659}"/>
+    <hyperlink ref="A477" r:id="rId456" xr:uid="{F89FD92F-3F48-40A2-A81A-797EAD74F0D3}"/>
+    <hyperlink ref="A478" r:id="rId457" xr:uid="{8C07D00D-9F9A-40CE-91E2-BED714D9CB2D}"/>
+    <hyperlink ref="A479" r:id="rId458" xr:uid="{261F3435-43F6-4FE6-BE6D-5E8AA2B235A2}"/>
+    <hyperlink ref="A480" r:id="rId459" xr:uid="{6C4FDFB7-92B8-40B6-BA8E-850405CB101F}"/>
+    <hyperlink ref="A481" r:id="rId460" xr:uid="{6547F381-0827-4335-B4DF-4633A877F19D}"/>
+    <hyperlink ref="A482" r:id="rId461" xr:uid="{7FA3CBC1-5984-4384-901A-4171C8D93666}"/>
+    <hyperlink ref="A483" r:id="rId462" xr:uid="{C1A53BBA-887A-4F2A-BDB0-5115A62B9C5D}"/>
+    <hyperlink ref="A484" r:id="rId463" xr:uid="{D204CDAF-5B43-497F-B644-EAC6456BB5D3}"/>
+    <hyperlink ref="A485" r:id="rId464" xr:uid="{D49CCF4B-D7D2-40D2-8576-7FE52991701A}"/>
+    <hyperlink ref="A486" r:id="rId465" xr:uid="{B6396319-DE32-47A4-BD9C-52EFA159BE75}"/>
+    <hyperlink ref="A488" r:id="rId466" xr:uid="{8E0F52D1-BB0C-42F4-8711-39798AE5083A}"/>
+    <hyperlink ref="A489" r:id="rId467" xr:uid="{8CDB8188-90DC-479D-A18F-41780B9F953F}"/>
+    <hyperlink ref="A490" r:id="rId468" xr:uid="{DD4DD8F3-7847-4CC7-A40E-E6DC7E10BF36}"/>
+    <hyperlink ref="A491" r:id="rId469" xr:uid="{64F58D60-C63A-4B95-9AED-7EADD16D5680}"/>
+    <hyperlink ref="A492" r:id="rId470" xr:uid="{5237304C-8908-4892-AB42-FEB5A319C262}"/>
+    <hyperlink ref="A493" r:id="rId471" xr:uid="{6333EE7A-BAED-4553-938F-3423F27DC4A2}"/>
+    <hyperlink ref="A494" r:id="rId472" xr:uid="{F3330ED1-52FF-4865-9651-0B35DACE6AEA}"/>
+    <hyperlink ref="A495" r:id="rId473" xr:uid="{62008B0C-EFB7-4CAA-A184-1868784DA32D}"/>
+    <hyperlink ref="A496" r:id="rId474" xr:uid="{E41CC639-0364-4FFB-8FF0-1BFF8FAD1B49}"/>
+    <hyperlink ref="A498" r:id="rId475" xr:uid="{82DCA852-0C0A-48FF-B69A-8F414FC317C6}"/>
+    <hyperlink ref="A499" r:id="rId476" xr:uid="{4AA01093-8E23-4E79-AE39-C0BFF5BAA7C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6410,3010 +6400,3004 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
+      <c r="B32" t="s">
         <v>534</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1" t="s">
+      <c r="B57" t="s">
         <v>560</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="1" t="s">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="1" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="1" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="1" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="1" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="1" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="1" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="1" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="1" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="1" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="1" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="1" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="1" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="1" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="1" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="1" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="1" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="1" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="1" t="s">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="1" t="s">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="1" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="1" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="1" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="1" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="1" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="1" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="1" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="1" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="1" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="1" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="1" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="1" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="1" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="1" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="1" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="1" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="1" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="1" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="1" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="1" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="1" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="1" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="1" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="1" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="1" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="1" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="1" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="1" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="1" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="1" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="1" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="1" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="1" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="1" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="1" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="1" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="1" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="1" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="1" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="1" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="1" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="1" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="1" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="1" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="1" t="s">
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="1" t="s">
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="1" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="1" t="s">
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="1" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="1" t="s">
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="1" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="1" t="s">
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="1" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="1" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="1" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="1" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="1" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="1" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="1" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="1" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="1" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="1" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="1" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="1" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="1" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="1" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="1" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="1" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="1" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="1" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="1" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="1" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="1" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="1" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="1" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="1" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="1" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="1" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="1" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="1" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="1" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="1" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="1" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="1" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="1" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="1" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="1" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="1" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="1" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="1" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="1" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="1" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="1" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="1" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="1" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="1" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="1" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="1" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="1" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="1" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="1" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="1" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="1" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="1" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="1" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="1" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="1" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="1" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="1" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="1" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="1" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="1" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="1" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="1" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="1" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="1" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="1" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="1" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="1" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="1" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="1" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="1" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="1" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="1" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="1" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="1" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" s="1" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="1" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
-      <c r="B253" s="1" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="1" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="1" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
-      <c r="B256" s="1" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="1" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
-      <c r="B258" s="1" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
-      <c r="B259" s="1" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
-      <c r="B260" s="1" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
-      <c r="B261" s="1" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
-      <c r="B262" s="1" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="1" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
-      <c r="B264" s="1" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
-      <c r="B265" s="1" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
-      <c r="B266" s="1" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
-      <c r="B267" s="1" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
-      <c r="B268" s="1" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="1" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
-      <c r="B270" s="1" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="1" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="1" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="1" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="1" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="276" spans="2:2">
-      <c r="B276" s="1" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="277" spans="2:2">
-      <c r="B277" s="1" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
-      <c r="B278" s="1" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="1" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="1" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
-      <c r="B281" s="1" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
-      <c r="B282" s="1" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
-      <c r="B283" s="1" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
-      <c r="B284" s="1" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="1" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
-      <c r="B286" s="1" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="1" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
-      <c r="B288" s="1" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="1" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="1" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="291" spans="2:2">
-      <c r="B291" s="1" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="292" spans="2:2">
-      <c r="B292" s="1" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="1" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="294" spans="2:2">
-      <c r="B294" s="1" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="295" spans="2:2">
-      <c r="B295" s="1" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="1" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
-      <c r="B297" s="1" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="1" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="1" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="1" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="301" spans="2:2">
-      <c r="B301" s="1" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="1" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="303" spans="2:2">
-      <c r="B303" s="1" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
-      <c r="B304" s="1" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="1" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="1" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
-      <c r="B307" s="1" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
-      <c r="B308" s="1" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="1" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
-      <c r="B310" s="1" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="1" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" s="1" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="313" spans="2:2">
-      <c r="B313" s="1" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="314" spans="2:2">
-      <c r="B314" s="1" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="1" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
-      <c r="B316" s="1" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
-      <c r="B317" s="1" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="1" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="1" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
-      <c r="B320" s="1" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="1" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="1" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="323" spans="2:2">
-      <c r="B323" s="1" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="324" spans="2:2">
-      <c r="B324" s="1" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="325" spans="2:2">
-      <c r="B325" s="1" t="s">
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="326" spans="2:2">
-      <c r="B326" s="1" t="s">
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="327" spans="2:2">
-      <c r="B327" s="1" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
-      <c r="B328" s="1" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="329" spans="2:2">
-      <c r="B329" s="1" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="330" spans="2:2">
-      <c r="B330" s="1" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="331" spans="2:2">
-      <c r="B331" s="1" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="1" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
-      <c r="B333" s="1" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
-      <c r="B334" s="1" t="s">
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="1" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="1" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
-      <c r="B337" s="1" t="s">
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
-      <c r="B338" s="1" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="1" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
-      <c r="B340" s="1" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
-      <c r="B341" s="1" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
-      <c r="B342" s="1" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
-      <c r="B343" s="1" t="s">
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
-      <c r="B344" s="1" t="s">
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="345" spans="2:2">
-      <c r="B345" s="1" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
-      <c r="B346" s="1" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
-      <c r="B347" s="1" t="s">
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
-      <c r="B348" s="1" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
-      <c r="B349" s="1" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
-      <c r="B350" s="1" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
-      <c r="B351" s="1" t="s">
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="1" t="s">
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="1" t="s">
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="354" spans="2:2">
-      <c r="B354" s="1" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="1" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
-      <c r="B356" s="1" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
-      <c r="B357" s="1" t="s">
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="1" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="1" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
-      <c r="B360" s="1" t="s">
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="1" t="s">
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="1" t="s">
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="1" t="s">
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="1" t="s">
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="1" t="s">
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="1" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="1" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="1" t="s">
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="1" t="s">
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="1" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="1" t="s">
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
-      <c r="B372" s="1" t="s">
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
-      <c r="B373" s="1" t="s">
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
-      <c r="B374" s="1" t="s">
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="1" t="s">
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="376" spans="2:2">
-      <c r="B376" s="1" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="1" t="s">
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="1" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
-      <c r="B379" s="1" t="s">
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="1" t="s">
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
-      <c r="B381" s="1" t="s">
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
-      <c r="B382" s="1" t="s">
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
-      <c r="B383" s="1" t="s">
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="384" spans="2:2">
-      <c r="B384" s="1" t="s">
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="1" t="s">
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="1" t="s">
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
-      <c r="B387" s="1" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="1" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
-      <c r="B389" s="1" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="1" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
-      <c r="B391" s="1" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
-      <c r="B392" s="1" t="s">
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
-      <c r="B393" s="1" t="s">
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
-      <c r="B394" s="1" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
-      <c r="B395" s="1" t="s">
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" s="1" t="s">
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
-      <c r="B397" s="1" t="s">
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
-      <c r="B398" s="1" t="s">
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="1" t="s">
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="400" spans="2:2">
-      <c r="B400" s="1" t="s">
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="401" spans="2:2">
-      <c r="B401" s="1" t="s">
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
-      <c r="B402" s="1" t="s">
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="1" t="s">
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="404" spans="2:2">
-      <c r="B404" s="1" t="s">
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="405" spans="2:2">
-      <c r="B405" s="1" t="s">
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
-      <c r="B406" t="s">
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
-      <c r="B407" t="s">
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
-      <c r="B408" t="s">
+    <row r="408" spans="1:1">
+      <c r="A408" s="5" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
-      <c r="B409" s="6" t="s">
+    <row r="409" spans="1:1">
+      <c r="A409" s="5" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
-      <c r="B410" s="6" t="s">
+    <row r="410" spans="1:1">
+      <c r="A410" s="5" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="411" spans="2:2">
-      <c r="B411" s="6" t="s">
+    <row r="411" spans="1:1">
+      <c r="A411" s="5" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
-      <c r="B412" s="6" t="s">
+    <row r="412" spans="1:1">
+      <c r="A412" s="5" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
-      <c r="B413" s="6" t="s">
+    <row r="413" spans="1:1">
+      <c r="A413" s="5" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
-      <c r="B414" s="6" t="s">
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="415" spans="2:2">
-      <c r="B415" t="s">
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="416" spans="2:2">
-      <c r="B416" t="s">
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="417" spans="2:2">
-      <c r="B417" s="1" t="s">
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="418" spans="2:2">
-      <c r="B418" s="1" t="s">
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="419" spans="2:2">
-      <c r="B419" s="1" t="s">
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="420" spans="2:2">
-      <c r="B420" t="s">
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="1" t="s">
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="1" t="s">
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="1" t="s">
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="424" spans="2:2">
-      <c r="B424" s="1" t="s">
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="425" spans="2:2">
-      <c r="B425" s="1" t="s">
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="426" spans="2:2">
-      <c r="B426" s="1" t="s">
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="427" spans="2:2">
-      <c r="B427" s="1" t="s">
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="428" spans="2:2">
-      <c r="B428" s="1" t="s">
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="429" spans="2:2">
-      <c r="B429" s="1" t="s">
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="430" spans="2:2">
-      <c r="B430" s="1" t="s">
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="431" spans="2:2">
-      <c r="B431" t="s">
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="432" spans="2:2">
-      <c r="B432" s="1" t="s">
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="433" spans="2:2">
-      <c r="B433" s="1" t="s">
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="434" spans="2:2">
-      <c r="B434" s="1" t="s">
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="435" spans="2:2">
-      <c r="B435" t="s">
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="436" spans="2:2">
-      <c r="B436" t="s">
+    <row r="436" spans="1:1">
+      <c r="A436" s="1" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="437" spans="2:2">
-      <c r="B437" s="1" t="s">
+    <row r="437" spans="1:1">
+      <c r="A437" s="1" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="438" spans="2:2">
-      <c r="B438" s="1" t="s">
+    <row r="438" spans="1:1">
+      <c r="A438" s="1" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="439" spans="2:2">
-      <c r="B439" s="1" t="s">
+    <row r="439" spans="1:1">
+      <c r="A439" s="1" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="440" spans="2:2">
-      <c r="B440" s="1" t="s">
+    <row r="440" spans="1:1">
+      <c r="A440" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="441" spans="2:2">
-      <c r="B441" s="1" t="s">
+    <row r="441" spans="1:1">
+      <c r="A441" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="442" spans="2:2">
-      <c r="B442" s="1" t="s">
+    <row r="442" spans="1:1">
+      <c r="A442" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="443" spans="2:2">
-      <c r="B443" s="1" t="s">
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="444" spans="2:2">
-      <c r="B444" s="1" t="s">
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="445" spans="2:2">
-      <c r="B445" s="1" t="s">
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="446" spans="2:2">
-      <c r="B446" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="447" spans="2:2">
-      <c r="B447" s="1" t="s">
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="448" spans="2:2">
-      <c r="B448" s="1" t="s">
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="449" spans="2:2">
-      <c r="B449" s="1" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="450" spans="2:2">
-      <c r="B450" s="1" t="s">
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="451" spans="2:2">
-      <c r="B451" s="1" t="s">
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="452" spans="2:2">
-      <c r="B452" s="1" t="s">
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="453" spans="2:2">
-      <c r="B453" s="1" t="s">
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="454" spans="2:2">
-      <c r="B454" s="1" t="s">
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="1" t="s">
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="1" t="s">
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="457" spans="2:2">
-      <c r="B457" s="1" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="458" spans="2:2">
-      <c r="B458" s="1" t="s">
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="459" spans="2:2">
-      <c r="B459" s="1" t="s">
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="1" t="s">
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="1" t="s">
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="462" spans="2:2">
-      <c r="B462" s="1" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="463" spans="2:2">
-      <c r="B463" s="1" t="s">
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="464" spans="2:2">
-      <c r="B464" s="1" t="s">
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="465" spans="2:2">
-      <c r="B465" s="1" t="s">
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="466" spans="2:2">
-      <c r="B466" s="1" t="s">
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="467" spans="2:2">
-      <c r="B467" s="1" t="s">
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="468" spans="2:2">
-      <c r="B468" s="1" t="s">
+    <row r="468" spans="1:1">
+      <c r="A468" s="1" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="469" spans="2:2">
-      <c r="B469" s="1" t="s">
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="470" spans="2:2">
-      <c r="B470" s="1" t="s">
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="471" spans="2:2">
-      <c r="B471" s="1" t="s">
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="472" spans="2:2">
-      <c r="B472" s="1" t="s">
+    <row r="472" spans="1:1">
+      <c r="A472" s="1" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="1" t="s">
+    <row r="473" spans="1:1">
+      <c r="A473" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="474" spans="2:2">
-      <c r="B474" s="1" t="s">
+    <row r="474" spans="1:1">
+      <c r="A474" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="475" spans="2:2">
-      <c r="B475" s="1" t="s">
+    <row r="475" spans="1:1">
+      <c r="A475" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="476" spans="2:2">
-      <c r="B476" s="1" t="s">
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="477" spans="2:2">
-      <c r="B477" s="1" t="s">
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="478" spans="2:2">
-      <c r="B478" s="1" t="s">
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="479" spans="2:2">
-      <c r="B479" s="1" t="s">
+    <row r="479" spans="1:1">
+      <c r="A479" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="480" spans="2:2">
-      <c r="B480" s="1" t="s">
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="481" spans="2:2">
-      <c r="B481" t="s">
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="482" spans="2:2">
-      <c r="B482" s="1" t="s">
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="483" spans="2:2">
-      <c r="B483" s="1" t="s">
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="484" spans="2:2">
-      <c r="B484" s="1" t="s">
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="485" spans="2:2">
-      <c r="B485" s="1" t="s">
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="486" spans="2:2">
-      <c r="B486" s="1" t="s">
+    <row r="486" spans="1:1">
+      <c r="A486" s="1" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="487" spans="2:2">
-      <c r="B487" s="1" t="s">
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="488" spans="2:2">
-      <c r="B488" s="1" t="s">
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="489" spans="2:2">
-      <c r="B489" s="1" t="s">
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="490" spans="2:2">
-      <c r="B490" s="1" t="s">
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="491" spans="2:2">
-      <c r="B491" s="1" t="s">
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="492" spans="2:2">
-      <c r="B492" s="1" t="s">
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="493" spans="2:2">
-      <c r="B493" s="1" t="s">
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="494" spans="2:2">
-      <c r="B494" s="1" t="s">
+    <row r="494" spans="1:1">
+      <c r="A494" s="1" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="495" spans="2:2">
-      <c r="B495" s="1" t="s">
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="496" spans="2:2">
-      <c r="B496" s="1" t="s">
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="497" spans="2:2">
-      <c r="B497" s="1" t="s">
+    <row r="497" spans="1:1">
+      <c r="A497" s="1" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="498" spans="2:2">
-      <c r="B498" s="1" t="s">
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="499" spans="2:2">
-      <c r="B499" s="1" t="s">
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="500" spans="2:2">
-      <c r="B500" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7376A2EB-66B4-48CD-8E53-E999770A827C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C4407D4C-0F27-4118-8909-4BE79BDF2EA0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{2941DC72-53F1-444C-B3FC-8B3E11D34BC8}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{AF5E7B64-6422-4B6B-97CA-EF8F3D403617}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2AF6D2C1-CB83-4501-92E3-04652BC81B67}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{90FD85A8-42B3-4F39-932E-B5D1BC5165EC}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{87887752-404E-4DC7-937A-71B3207BDF26}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DDAB4135-7CB0-469B-A04D-18406C50329D}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{5A042A86-CD20-417B-BA22-8B8BDDCA1C6D}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{14AA78CF-C76D-458D-A151-476E2C684B32}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{FAC9CC24-F34C-44C3-A75C-DCF377E0F826}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{1216E97E-3535-4472-A62D-591090D7BA12}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{23827BD8-3E31-43B8-9162-BCEA63667A74}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{79428F7B-EEE4-4761-8C18-38E6BFCC3A0C}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{BAF198D5-721A-4BD6-BAA5-5CB8C1C47957}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{D4453F95-ED02-4A91-840B-0BE44D5D92CD}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{747FC262-CBD8-4DDC-A809-AF4B5F6D7119}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{832FF61F-BEDA-4761-B40A-42037C40E6DE}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{2A9F5AF2-327A-4587-BC2E-B6DCAC0E180D}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{CA90FA90-6556-4267-87B0-E94F911AFB6F}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{6304E59B-9412-42AA-8580-EE35722A275C}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{5B55A573-4A70-4480-A953-17C5E398D4D4}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{DB157B82-417D-41B8-AF36-1EE5031309FC}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{A13333EC-27E6-4F40-9292-B7336D6DEAF4}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{0EE1E9C1-5EB1-43A2-ACF8-3220D42C9086}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{E8FD135E-DBE5-4D3D-8C8D-4454916C6A4A}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{1A8CEC8B-B914-4EB0-92F5-8AAF23A8983C}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{56C54584-E151-4A19-843F-FC6C4E95D127}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{41712437-0C0F-4274-92A9-4BFA0F4495B5}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{11E4CCFD-AF69-46B8-8F95-B95FAD03BE65}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{A7FDD61C-D368-4843-A693-4C98DF343DA7}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{F1E2715D-4BF1-4BA0-AE23-3EFBA7AE70F8}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{1529630B-A5A2-40C1-9185-DFE4B76E83BF}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{0C37F6D8-1809-4742-9508-20C546703F7E}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{74BCDF05-3169-4494-8661-B93D494FB944}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{8AF9A7F2-8F36-4D0B-BB02-0D22FF558C82}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{1E13BAC5-FCB4-4473-96AE-7F3A604876AE}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{2713D594-C776-4F09-ADA5-F46BE6DCF20D}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{CC4095A2-3155-411F-8897-2A01A7A885A1}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{EAB20860-97CA-493C-9837-8ADB1D39F311}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{4CD30629-1272-4B84-B13C-B30C62848B3B}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{66FC4979-1FC3-4785-A61F-6BCFF54EF5B8}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{444A7686-D98E-4EEF-BFEB-42E8A019B89E}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{C0A13C7D-30DD-493B-8FBE-171A2F36E9C2}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{60AC728A-7FA9-44F7-A7A9-0B18B31447C6}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{65B3BBC5-1C83-4F92-A333-332C9D51034F}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{3E957652-A034-41A0-AF7F-97AF49533F00}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{CA8C0E74-EB67-433C-8FC0-FDF74DAD5A72}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{610E2D1B-5E83-4702-8134-FA14CA4808C4}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{2EA74093-1CF6-4A64-9EBD-A73159E9E7D6}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{C4A8C473-9089-41CE-8FEB-3A09E61F31EB}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{1B37BA47-3489-4BB6-8FFD-0CEFADE86172}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{05974CB3-2A47-422E-B4A4-F01524F62166}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{49BEF070-B9D9-4EA7-A585-4AF5E2D6BBFB}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{9BD0EFAF-DCEF-4C3C-8776-B685DE9833C1}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{592C669F-F127-43B3-A34B-C39FFF3EE913}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{20E842A8-50E4-4E76-A8F5-3186CE6740F3}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{41537570-C59A-42BE-8CC5-5E2F25A565B2}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{1097245D-4417-4501-8CBD-3D55D4A333F7}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{6472C6E3-B85D-400A-88A0-E8EE64ECF057}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{4FA0AEF5-439D-4ED6-9355-65B0316A5A2F}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{EBA0D4B7-0E1A-40DE-A30A-A36A04403A51}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{81237190-58BA-4575-981A-F89706C7D4F2}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{8A932321-4DAE-4A91-A918-6906CBB48D4C}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{FF8FCF24-80D3-46BA-ACD7-207490BA9641}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{70F3BD76-D874-4CD8-820F-F925F8BCF76A}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{ACA5CF5D-791B-409F-98F3-BB30DB926D0D}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{0BB237D0-E3B1-46FA-8A9A-A8A07A1E2324}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{9B416945-7EEC-41C8-A1B7-610D96530220}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{17FF8AF3-A658-4A69-849C-6222C45185D1}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{C467F2D0-9E0A-493E-9BC4-3600FD6360DE}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{4DD6680E-F607-4110-BE6D-DE78D7EF9B3C}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{6123CC2C-3F68-429C-85F6-1956F769429E}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{376318AB-8A10-4F25-91EB-206E5016D10A}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{42830F02-B915-4B37-B172-E0209B30CF15}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{A9F48E92-3964-4961-BCAD-F28BE021F032}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{59466BAA-E502-4B13-9ADD-FCF2B847AC52}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{8AB84EA6-E331-4B6A-92DE-8638380C93C9}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{806098D0-CAEF-4017-89A0-4A0B9F702038}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{A48AC545-08E3-45B8-90AB-9E726F055494}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{79FD65D4-CD23-45C2-A1DF-299D68C5465E}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{B8BA3506-53B7-439D-8B28-D66AB5DCB56B}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{D80CEC8B-BC63-4ADA-A251-355BC34B1DCC}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{FBD446C8-140C-4193-8691-A3D483448323}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{B1323110-595E-4BF7-AC2B-2284A1645B00}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{C0511607-BF64-46BC-AFEA-B2551D19D3BC}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{9FD8F54B-4E46-4BE4-A4E0-BDFD036A6D8F}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{7C7E79C5-957A-419E-A92A-F0C0ABF1C5A1}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{2C58864A-B9A7-4CB5-B5AE-954E18C52649}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{492AAE94-1214-4A86-ABA2-7AD49E5453F4}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{81A28215-C145-4816-9D4C-A911A0631E99}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{691CE667-8E03-41B3-A586-E02B2C79A566}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{D5F40876-7177-40BB-A026-EA8BDD4592AF}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{41F56939-90A9-4EFF-9631-DFF7EBB9211F}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{CFEF72EB-D74F-4B88-B43D-FA89AB375062}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{91F06DC3-CEFE-4D3F-BDBA-94B437851916}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{58645604-E120-4A91-9242-B3BA9288D297}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{46F50E00-C365-4999-8529-58CF270887F3}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{DC218DBD-2D20-4284-AE8B-5BB3C5BAADF7}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{CA30C274-8F78-4B7E-93BA-9BB3E48DD18E}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{87A0D257-382B-418D-9F84-DDEEA19B9DE8}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{E6DAB9ED-E7EB-494B-BDEE-232444C792C5}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{9C1D7115-4605-4597-8259-600E448C2993}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{2BD91E9D-BF6A-42E2-8131-B4B5641C23F4}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{4A1D4EF4-9C5A-429D-BAE2-C3009FB3FA4C}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{87392BC2-6D5A-4354-A2B0-4AB1BD7C2C42}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{AFEF4BEF-61B3-4CC8-B58A-B9E1E28E6C69}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{22651D54-2F82-4995-83DC-9CCDD1F17DD5}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{6857E9DA-F131-4114-906A-3CE67FAEC7B6}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{B1396910-5C3A-4887-8C08-81C5AB8433EA}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{10ED1E0D-6B05-4109-B602-F6EE0DFEDFC4}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{88F17B38-D171-43F5-BF15-7BD8460C22C7}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{0E3D4034-9987-49AA-96BC-1251E5F7AF5F}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{639FADBE-EA65-4E3E-9E29-3B3471823483}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{9D39B0BC-C8A4-4CFB-A321-8D5BBF96210F}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{D76F99F8-11D7-44FF-B8C5-4CA304A6D65C}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{AC87A65E-15F3-481C-903D-3F8A10F80B42}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{2367242D-538B-49B1-B0B8-C2F80C9017D3}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{D9FC64EF-A537-4096-AA97-222EF8A61F5C}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{47D6000E-8BBA-4EC7-A781-7F94E987A095}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{8739DA22-7F82-4B19-AF2A-F1E1F2FF77D0}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{AF383D70-1667-4FE8-B059-E279045F38FD}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{5481759B-BEFF-4A2E-B1C0-9737533739DC}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{DEC3C7E4-8B0C-4FB5-9BE6-5B13C78178D6}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{22B2705F-0328-4A6A-8183-598446318B1C}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{B246CCA6-2D8B-4E1B-B852-121AD13535B2}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{CE206209-B942-45EF-9AF2-4CFC2DC96A29}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{9C94E252-BA37-41A8-8CDA-80F3559F457E}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{EFB8D931-08E8-46FA-B9AF-F1DF01083ACB}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{B7CDC253-B090-4E87-9EA7-362FC06B74A6}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{D28FBC32-FA1B-473C-9BBF-10236D74C9DD}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{420D0501-68DF-475D-8E21-E49CC84D45D2}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{BEC42140-16B6-4734-B0A9-A628C4644D4A}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{E03129C8-893B-46D7-9A50-C96655515AFF}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{ABE7392B-F29D-4B8B-B57E-63E360731713}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{DC78A01B-05F6-4FB4-AA5D-864ED1476604}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{23BA00BF-4ED9-41B5-81C6-CE4D1C79AD3D}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{E97B9B4B-AE14-4510-9617-45A43330714A}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{D6E9986F-C206-4D5E-A176-81968111FDF4}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{B92DF794-A043-4D78-B332-22E0069A073F}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{6D1783CE-57D3-4E24-BC9B-A6556F35E5AB}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{6B8F2FCF-F43F-4CCB-A43B-C4D4F3E8ACD3}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{8009D58C-FCA6-4F7D-9B19-2665CF97FC14}"/>
-    <hyperlink ref="B145" r:id="rId144" xr:uid="{FCE36B8E-6077-40DF-B9C2-1AB79CA28F21}"/>
-    <hyperlink ref="B146" r:id="rId145" xr:uid="{AF8DE24D-434B-45FB-ABC9-25EE744057AC}"/>
-    <hyperlink ref="B147" r:id="rId146" xr:uid="{202AA7D8-A0E8-41B9-841E-B464C7BACC3A}"/>
-    <hyperlink ref="B148" r:id="rId147" xr:uid="{DA5FB802-65B1-41D3-B399-9271439B6D71}"/>
-    <hyperlink ref="B149" r:id="rId148" xr:uid="{B743ACC6-36E1-49F8-97A7-2FCDECDAB3D0}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{2164270D-54E5-4218-95F8-596770F24C69}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{DCD2C84E-3DA3-4279-940C-8ABDA56D7570}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{88B9F1C5-54B3-41C8-B7BD-4BFE456ABA47}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{755DA4BE-16A6-4A06-B7A2-48B668FB95CC}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{66535519-1046-4499-805A-E31ED484100E}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{3E145882-092C-4AB5-97C0-10A901693D82}"/>
-    <hyperlink ref="B156" r:id="rId155" xr:uid="{89A5A926-ECE1-4801-9A16-E133C4E08C88}"/>
-    <hyperlink ref="B157" r:id="rId156" xr:uid="{9E3B60BE-9AE5-46FD-AAA4-4E9C70DB859D}"/>
-    <hyperlink ref="B158" r:id="rId157" xr:uid="{9330FC43-2663-4DB2-BE3F-E5ECA1A9D26C}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{59521D35-C9C0-455B-860B-7D443A1B393E}"/>
-    <hyperlink ref="B160" r:id="rId159" xr:uid="{C79C376D-D347-49FC-88D4-E69CE5E55D41}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{0522AFAD-B4FA-4470-842E-0D92D49AA757}"/>
-    <hyperlink ref="B162" r:id="rId161" xr:uid="{55A297E2-9BB9-4C22-9179-0C5A99081B05}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{C9C521E1-2F32-4DDB-B2E5-6C53E2F1AFF5}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{375FEA59-346A-4B48-80A3-3C760E523863}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{E6DEED25-2CB0-4B66-B1A2-102B41EF844A}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{58D98EDA-8F7F-4378-B5D9-C1CFBF2361CD}"/>
-    <hyperlink ref="B167" r:id="rId166" xr:uid="{8D929CE3-5FDA-430D-AC0E-4979DE86ED2E}"/>
-    <hyperlink ref="B168" r:id="rId167" xr:uid="{63CB3EEF-C736-4B0D-8381-3786E9386C9E}"/>
-    <hyperlink ref="B169" r:id="rId168" xr:uid="{72AB24E6-0E5A-4EE1-BF16-7F1411F0F724}"/>
-    <hyperlink ref="B170" r:id="rId169" xr:uid="{DECAF86F-011F-4224-AE29-C4FFE4DE269E}"/>
-    <hyperlink ref="B171" r:id="rId170" xr:uid="{5463B484-FDA4-48CD-9BB5-CB8938C1C753}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{CF4E9950-71C9-420B-9BC7-6C35954751DE}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{B7E700FE-BD60-4966-B512-1174BF60F1ED}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{CE40C246-64D6-42EE-A465-C55E7BE4BDA1}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{5E5E1795-DB82-49B4-8835-27E89B687BFB}"/>
-    <hyperlink ref="B176" r:id="rId175" xr:uid="{377E9AB5-30D6-4213-8256-B9D7802B3B2E}"/>
-    <hyperlink ref="B177" r:id="rId176" xr:uid="{A77D0316-F36F-4856-B631-FE64453C59DE}"/>
-    <hyperlink ref="B178" r:id="rId177" xr:uid="{24724993-4D88-4152-B047-61BDCCB1B56D}"/>
-    <hyperlink ref="B179" r:id="rId178" xr:uid="{405ADB86-6293-4B2D-A6D7-5104A190190D}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{8EEDB3AD-5E72-4D85-9096-A1654227B931}"/>
-    <hyperlink ref="B181" r:id="rId180" xr:uid="{65A95792-3B2F-410A-AD8C-AB146B473752}"/>
-    <hyperlink ref="B182" r:id="rId181" xr:uid="{5264A06D-5517-42E8-BB57-5C02D7C82F57}"/>
-    <hyperlink ref="B183" r:id="rId182" xr:uid="{3DF4FE67-2F4F-4850-901A-A44CE0EA9472}"/>
-    <hyperlink ref="B184" r:id="rId183" xr:uid="{81642742-6E3F-490B-9909-EB2F7F6E7361}"/>
-    <hyperlink ref="B185" r:id="rId184" xr:uid="{32A5EF3C-F956-4DB7-88DE-596D9B59AECC}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{047E9C59-570E-4590-908F-50ADD8D643DA}"/>
-    <hyperlink ref="B187" r:id="rId186" xr:uid="{F2065B96-6B0B-406A-AF8A-04354459B906}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{B47F867D-A4D6-4519-B610-10FE353C119D}"/>
-    <hyperlink ref="B189" r:id="rId188" xr:uid="{866950CF-6697-4BCE-9C4A-13E78BE4E331}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{DBEE31D2-BB90-4628-BA5D-E465D3E3682E}"/>
-    <hyperlink ref="B191" r:id="rId190" xr:uid="{C3F58E18-5A75-4066-8310-8395AE91EC53}"/>
-    <hyperlink ref="B192" r:id="rId191" xr:uid="{AF0B9AC6-A528-4B3A-A01E-89F125779F91}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{AA078B6C-63A0-4A12-A612-52C2DF598B53}"/>
-    <hyperlink ref="B194" r:id="rId193" xr:uid="{C4256300-EB65-49B9-AD17-50F1D1A496D5}"/>
-    <hyperlink ref="B195" r:id="rId194" xr:uid="{E239D2FF-3C81-4BF0-B59F-85612F44B5FC}"/>
-    <hyperlink ref="B196" r:id="rId195" xr:uid="{AEAB54E7-86CF-4A42-AF52-90B1CF9E9BB9}"/>
-    <hyperlink ref="B197" r:id="rId196" xr:uid="{A7AD8795-AE2D-4077-A6F1-8378A33458AC}"/>
-    <hyperlink ref="B198" r:id="rId197" xr:uid="{CD244691-909F-4BB0-AD7A-B771BB2699B5}"/>
-    <hyperlink ref="B199" r:id="rId198" xr:uid="{6B48F49F-4E05-4068-8C42-60D5F7F65ACA}"/>
-    <hyperlink ref="B200" r:id="rId199" xr:uid="{EA15DEAA-A09A-4BEA-A789-103DBD16CA0D}"/>
-    <hyperlink ref="B201" r:id="rId200" xr:uid="{5CB72CDE-F770-4E0B-A33F-19A68AD7C336}"/>
-    <hyperlink ref="B202" r:id="rId201" xr:uid="{8726756E-72DF-40BA-966F-8556075842D8}"/>
-    <hyperlink ref="B203" r:id="rId202" xr:uid="{C78140EC-CB94-4FEF-9F67-5B2B8C166BE5}"/>
-    <hyperlink ref="B204" r:id="rId203" xr:uid="{A2F9FB4B-BCA2-45A3-969D-9946D6BD1797}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{30A7C1C5-3B85-49FD-9963-01D6D27585D4}"/>
-    <hyperlink ref="B206" r:id="rId205" xr:uid="{C296844A-4030-4D24-AA83-4F8DA25E98CD}"/>
-    <hyperlink ref="B207" r:id="rId206" xr:uid="{217C82F0-4F18-4058-96C1-793265011B07}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{09DD8511-58E0-4E41-8DCE-B213F5B6113C}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{B01C8ED8-AF8C-4BAC-A619-2690DEC8B83D}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{C43AE873-40C5-44B2-8FA2-87776DFA5AFA}"/>
-    <hyperlink ref="B211" r:id="rId210" xr:uid="{E4065C80-0015-43E0-9DC6-7A909FFF005A}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{37F7680C-BAC1-4A7B-BE91-D0CAABD50CDC}"/>
-    <hyperlink ref="B213" r:id="rId212" xr:uid="{61AACC55-CAE8-4CB9-B7AA-646D2EB5DF12}"/>
-    <hyperlink ref="B214" r:id="rId213" xr:uid="{84570893-4B88-4FBF-AED5-8B3EA5A57D9F}"/>
-    <hyperlink ref="B215" r:id="rId214" xr:uid="{CA8423E2-38E3-4C0F-A4D4-0BA9BF47AB6A}"/>
-    <hyperlink ref="B216" r:id="rId215" xr:uid="{9B0C1EB7-EC2D-4E10-BB82-C42D656B8953}"/>
-    <hyperlink ref="B217" r:id="rId216" xr:uid="{5F833AA0-390A-4CBC-98FC-0884ECEB33B1}"/>
-    <hyperlink ref="B218" r:id="rId217" xr:uid="{209E2ECF-4B65-4CB3-8D78-AE3D5E1CE09E}"/>
-    <hyperlink ref="B219" r:id="rId218" xr:uid="{7728D5CB-A678-4F38-8B5C-2AEECF829CA9}"/>
-    <hyperlink ref="B220" r:id="rId219" xr:uid="{542B7809-CEF0-4AE4-AB29-8E18930F517A}"/>
-    <hyperlink ref="B221" r:id="rId220" xr:uid="{D2671936-650E-4E7B-93AD-1C07F38E31EE}"/>
-    <hyperlink ref="B222" r:id="rId221" xr:uid="{53C1E824-9C1A-4F4A-8C37-1AA86E7C4D05}"/>
-    <hyperlink ref="B223" r:id="rId222" xr:uid="{9C4DE300-6D01-4CB8-9F8A-FAC12BCBC21B}"/>
-    <hyperlink ref="B224" r:id="rId223" xr:uid="{3E0E4FAE-BE5C-48B8-A5C9-0AF1BCADA00D}"/>
-    <hyperlink ref="B225" r:id="rId224" xr:uid="{E94EE9A4-4251-4370-976B-75046FEB87D4}"/>
-    <hyperlink ref="B226" r:id="rId225" xr:uid="{C75D7BA6-21EF-42C1-A3B6-CA10AA4F746A}"/>
-    <hyperlink ref="B227" r:id="rId226" xr:uid="{04E11318-2734-47C5-A17F-E73463A8C2C8}"/>
-    <hyperlink ref="B228" r:id="rId227" xr:uid="{75591682-C823-443F-8A9A-9A1107528C91}"/>
-    <hyperlink ref="B229" r:id="rId228" xr:uid="{E108D1DD-8622-4562-8871-BFD7917EA629}"/>
-    <hyperlink ref="B230" r:id="rId229" xr:uid="{5BA0221E-A64D-4739-8BB2-65431916BBEF}"/>
-    <hyperlink ref="B231" r:id="rId230" xr:uid="{9450B2AA-C8F2-4274-A650-7D13196EA49A}"/>
-    <hyperlink ref="B232" r:id="rId231" xr:uid="{35BFD02F-D5A5-429F-858F-A06AC5601E85}"/>
-    <hyperlink ref="B233" r:id="rId232" xr:uid="{4D531F47-E8F5-44FB-A5D3-EBCD50960D20}"/>
-    <hyperlink ref="B234" r:id="rId233" xr:uid="{4DAF49C7-CFEF-44ED-B3FD-BAD1ED275D72}"/>
-    <hyperlink ref="B235" r:id="rId234" xr:uid="{D777AFA5-DA41-4803-8F75-92A906E327C2}"/>
-    <hyperlink ref="B236" r:id="rId235" xr:uid="{F0813FD0-B9B9-4FA5-A462-77A02DA5A27A}"/>
-    <hyperlink ref="B237" r:id="rId236" xr:uid="{8A50B684-22F5-4D61-80C1-23D3B94D566C}"/>
-    <hyperlink ref="B238" r:id="rId237" xr:uid="{4787BB9F-9C79-45EA-B092-5BE3838435C6}"/>
-    <hyperlink ref="B239" r:id="rId238" xr:uid="{498D85DF-B1FA-4572-A37F-C4E7F37434A3}"/>
-    <hyperlink ref="B240" r:id="rId239" xr:uid="{ED623E72-8139-46DB-B75F-C898FD18A63C}"/>
-    <hyperlink ref="B241" r:id="rId240" xr:uid="{0DB4CCBF-4C45-4345-88B0-27A63C5175B1}"/>
-    <hyperlink ref="B242" r:id="rId241" xr:uid="{256E3BC0-E751-4E21-B574-1A2AACD27790}"/>
-    <hyperlink ref="B243" r:id="rId242" xr:uid="{B7978068-0835-4B87-B4B2-A7600A9B8A11}"/>
-    <hyperlink ref="B244" r:id="rId243" xr:uid="{B4B8B4A8-42F1-4906-85E6-9AE4BFFBEFDB}"/>
-    <hyperlink ref="B245" r:id="rId244" xr:uid="{E1403AC2-CAE3-4B78-8953-B593392AF582}"/>
-    <hyperlink ref="B246" r:id="rId245" xr:uid="{FA30BE21-5C60-4FF5-ACFA-0AA0B9C141D6}"/>
-    <hyperlink ref="B247" r:id="rId246" xr:uid="{C7D0C85A-4C3E-49F4-B554-AAF5DB1EC9E9}"/>
-    <hyperlink ref="B248" r:id="rId247" xr:uid="{0FF24C1D-A544-4295-B496-4116EA4E09ED}"/>
-    <hyperlink ref="B249" r:id="rId248" xr:uid="{EECD8FC8-9DE8-44CC-B004-3B5852373DF8}"/>
-    <hyperlink ref="B250" r:id="rId249" xr:uid="{F486C947-C1BD-41DF-AB08-3F150A66EB20}"/>
-    <hyperlink ref="B251" r:id="rId250" xr:uid="{2E3FC145-B09D-4A2D-8D39-481003E84CD9}"/>
-    <hyperlink ref="B252" r:id="rId251" xr:uid="{79541485-6C90-42EB-A1CB-C6ECA47C3185}"/>
-    <hyperlink ref="B253" r:id="rId252" xr:uid="{A2BEDCCC-7221-4E17-A45B-A94F50976C2B}"/>
-    <hyperlink ref="B254" r:id="rId253" xr:uid="{3D423B5F-617F-4A34-9E78-3770187ECD32}"/>
-    <hyperlink ref="B255" r:id="rId254" xr:uid="{4C2B5EA6-C299-4B9D-AE26-12B0DC52E4CD}"/>
-    <hyperlink ref="B256" r:id="rId255" xr:uid="{56DF7310-07F4-4B2D-BE4D-DDAAAC77FA4C}"/>
-    <hyperlink ref="B257" r:id="rId256" xr:uid="{0128CDAB-0FD8-437F-B871-EEB2D822E3CF}"/>
-    <hyperlink ref="B258" r:id="rId257" xr:uid="{32A84E28-8090-4393-9F5E-51D9F61E1AE4}"/>
-    <hyperlink ref="B259" r:id="rId258" xr:uid="{AF9742D8-0899-44EA-B4D0-595FF15A610C}"/>
-    <hyperlink ref="B260" r:id="rId259" xr:uid="{CD1B5448-8CDF-4BF9-B8F2-F92FB7AB1B33}"/>
-    <hyperlink ref="B261" r:id="rId260" xr:uid="{9F583BB4-87C8-49E0-85D0-1BF68EE933E9}"/>
-    <hyperlink ref="B262" r:id="rId261" xr:uid="{5161BC47-B708-4A61-8E17-4E45B9C1BA8F}"/>
-    <hyperlink ref="B263" r:id="rId262" xr:uid="{46E347ED-0F04-45E2-A263-8B9BC17F10E3}"/>
-    <hyperlink ref="B264" r:id="rId263" xr:uid="{739219BB-1EE4-4883-A3DB-74F5C07A1D72}"/>
-    <hyperlink ref="B265" r:id="rId264" xr:uid="{F1E7C739-BE96-49C2-B1C6-4B03172C3144}"/>
-    <hyperlink ref="B266" r:id="rId265" xr:uid="{666EC2A9-9818-4026-A403-3CF1084F125E}"/>
-    <hyperlink ref="B267" r:id="rId266" xr:uid="{7FF86C48-728B-49EB-B7B8-471412F89768}"/>
-    <hyperlink ref="B268" r:id="rId267" xr:uid="{A861A2A7-546A-49B9-9D10-FFC9CFD3E1E1}"/>
-    <hyperlink ref="B269" r:id="rId268" xr:uid="{C93BD355-766E-4EF6-B125-087AB2325E23}"/>
-    <hyperlink ref="B270" r:id="rId269" xr:uid="{604F11C5-80AF-4C67-A587-ECA07028468B}"/>
-    <hyperlink ref="B271" r:id="rId270" xr:uid="{1AE09F2E-683A-47BB-B33C-3E8DCE59DAEB}"/>
-    <hyperlink ref="B272" r:id="rId271" xr:uid="{141BB308-B72D-4C91-88D4-46E8A8654D2F}"/>
-    <hyperlink ref="B273" r:id="rId272" xr:uid="{7786EC0F-0F8B-4375-8EF1-0FDBAB6729F4}"/>
-    <hyperlink ref="B274" r:id="rId273" xr:uid="{7358CB5B-0CD9-46DD-A707-EF738BCF2A76}"/>
-    <hyperlink ref="B275" r:id="rId274" xr:uid="{3262BAE2-3FF9-43BA-BFAB-6664BB27E7E3}"/>
-    <hyperlink ref="B276" r:id="rId275" xr:uid="{FF3363E3-13D2-4158-A6A3-6C35EFFE4B93}"/>
-    <hyperlink ref="B277" r:id="rId276" xr:uid="{A796EAFA-088F-453B-9D16-A976D7277D94}"/>
-    <hyperlink ref="B278" r:id="rId277" xr:uid="{E3EE445A-9A75-4041-AE6D-1038B1A3C142}"/>
-    <hyperlink ref="B279" r:id="rId278" xr:uid="{FD6F4BFF-50DD-420F-B6D9-E82C765A129A}"/>
-    <hyperlink ref="B280" r:id="rId279" xr:uid="{FED54A27-C354-4CB7-A060-41727495097B}"/>
-    <hyperlink ref="B281" r:id="rId280" xr:uid="{38FD6CC5-6AF0-4516-907F-F58ED40BE64E}"/>
-    <hyperlink ref="B282" r:id="rId281" xr:uid="{CD6AC966-7785-473A-B481-4F3EA5F9E5F2}"/>
-    <hyperlink ref="B283" r:id="rId282" xr:uid="{2767B94A-ECED-4659-8DA5-69EEA8E0822C}"/>
-    <hyperlink ref="B284" r:id="rId283" xr:uid="{513BAA74-1E1C-45C1-9153-EE831165E1D7}"/>
-    <hyperlink ref="B285" r:id="rId284" xr:uid="{3F1F4D8E-A31B-4B91-97BC-C43A94716C0E}"/>
-    <hyperlink ref="B286" r:id="rId285" xr:uid="{AA8C4D30-CBD3-4538-9A3A-4129EA7D94EC}"/>
-    <hyperlink ref="B287" r:id="rId286" xr:uid="{F044FC42-AA43-4957-8B0A-00B679135953}"/>
-    <hyperlink ref="B288" r:id="rId287" xr:uid="{4D1D9349-1A08-4182-8F36-876FE5DC933F}"/>
-    <hyperlink ref="B289" r:id="rId288" xr:uid="{CEBFD171-17A8-48EE-8A71-0A789318450E}"/>
-    <hyperlink ref="B290" r:id="rId289" xr:uid="{83F49E05-AFC2-48A2-BF62-1062E7BD0C6E}"/>
-    <hyperlink ref="B291" r:id="rId290" xr:uid="{6C052AC5-A84F-4E79-BFC4-750C2CAF4F49}"/>
-    <hyperlink ref="B292" r:id="rId291" xr:uid="{18D4B4D6-3C4B-4D8E-B9BE-C885DA7F7DAE}"/>
-    <hyperlink ref="B293" r:id="rId292" xr:uid="{C904A856-67B3-4E9A-B838-06BE3EF0589B}"/>
-    <hyperlink ref="B294" r:id="rId293" xr:uid="{386263B6-15D8-4A9B-8CC2-80303B498627}"/>
-    <hyperlink ref="B295" r:id="rId294" xr:uid="{C5B41C08-C968-4079-9E4C-6A80A32D54B7}"/>
-    <hyperlink ref="B296" r:id="rId295" xr:uid="{4C1C98B9-5DFF-49AE-B2C5-CB9A33F85A2B}"/>
-    <hyperlink ref="B297" r:id="rId296" xr:uid="{04FE6EBF-13E0-4D47-9C4A-1ACF2CD7453C}"/>
-    <hyperlink ref="B298" r:id="rId297" xr:uid="{A2EA5CD3-1382-421A-870D-D925AD2521DE}"/>
-    <hyperlink ref="B299" r:id="rId298" xr:uid="{091F143C-EF43-4686-A051-C890F14D7E7B}"/>
-    <hyperlink ref="B300" r:id="rId299" xr:uid="{3BB09BFB-A8FA-4A98-948E-D098703BB895}"/>
-    <hyperlink ref="B301" r:id="rId300" xr:uid="{CE9A8548-5CC1-4C70-BCFA-188AB443730B}"/>
-    <hyperlink ref="B302" r:id="rId301" xr:uid="{A4180CE8-EA91-4B47-8683-FCE9FC6D2E54}"/>
-    <hyperlink ref="B303" r:id="rId302" xr:uid="{D8CD166D-DA27-412C-88AF-F46412543337}"/>
-    <hyperlink ref="B304" r:id="rId303" xr:uid="{45C4463B-B473-485A-A836-1E493486FC49}"/>
-    <hyperlink ref="B305" r:id="rId304" xr:uid="{775D357B-8DE0-4168-8A63-360CABA5304B}"/>
-    <hyperlink ref="B306" r:id="rId305" xr:uid="{8D4BFF5F-D17E-44D5-AEFE-08107CD022BE}"/>
-    <hyperlink ref="B307" r:id="rId306" xr:uid="{0A259A5F-E7E2-4F5D-9184-024B227B6828}"/>
-    <hyperlink ref="B308" r:id="rId307" xr:uid="{BBF72E57-9785-4248-8599-2B425E18DDD2}"/>
-    <hyperlink ref="B309" r:id="rId308" xr:uid="{29CF2EE9-7FEB-4916-B8F8-ECE45DB2D1F3}"/>
-    <hyperlink ref="B310" r:id="rId309" xr:uid="{A073D7D2-05C7-4538-AC36-CD8B6FE802F8}"/>
-    <hyperlink ref="B311" r:id="rId310" xr:uid="{3B54CC39-A085-4297-8E0A-D364133CD49A}"/>
-    <hyperlink ref="B312" r:id="rId311" xr:uid="{EBDCF052-2C49-4A82-A4CE-29FD0AA9E889}"/>
-    <hyperlink ref="B313" r:id="rId312" xr:uid="{F2238622-217E-4720-8BDD-51B90AA901CB}"/>
-    <hyperlink ref="B314" r:id="rId313" xr:uid="{01A70079-3E1C-4CC2-BAA2-22522C8B09AF}"/>
-    <hyperlink ref="B315" r:id="rId314" xr:uid="{F51D0D69-49B4-49DD-8A09-7F26B2C0BE17}"/>
-    <hyperlink ref="B316" r:id="rId315" xr:uid="{04CE286A-4F2C-4864-A855-15ECA0EDF7D7}"/>
-    <hyperlink ref="B317" r:id="rId316" xr:uid="{ABA19813-9838-4F1C-A7AA-576C30769B51}"/>
-    <hyperlink ref="B318" r:id="rId317" xr:uid="{E987A2A2-6119-4659-BA24-58B8E54AA402}"/>
-    <hyperlink ref="B319" r:id="rId318" xr:uid="{C14894F2-77D8-4AD2-9330-FB20C13F5D3A}"/>
-    <hyperlink ref="B320" r:id="rId319" xr:uid="{80078424-C2D9-47B1-A3F7-236E3E8CCA64}"/>
-    <hyperlink ref="B321" r:id="rId320" xr:uid="{419B40DD-AC0D-41BD-ADDA-66AF71AC7074}"/>
-    <hyperlink ref="B322" r:id="rId321" xr:uid="{8FED9452-2CC0-4870-94E6-7653E0D49E8C}"/>
-    <hyperlink ref="B323" r:id="rId322" xr:uid="{8BF7FC44-6ABB-4A53-817D-23ABDF9CBF91}"/>
-    <hyperlink ref="B324" r:id="rId323" xr:uid="{ADC4B130-BF0C-42F1-AB80-A505FE99FB65}"/>
-    <hyperlink ref="B325" r:id="rId324" xr:uid="{5ED66968-C057-4471-849E-4996B9656B6C}"/>
-    <hyperlink ref="B326" r:id="rId325" xr:uid="{8736559F-C700-4938-98C1-D3770110E816}"/>
-    <hyperlink ref="B327" r:id="rId326" xr:uid="{F4B8CC41-AC4A-4C01-B413-3FB8C0162E35}"/>
-    <hyperlink ref="B328" r:id="rId327" xr:uid="{8F206EE2-7A97-4E8D-B16D-06288DDCF531}"/>
-    <hyperlink ref="B329" r:id="rId328" xr:uid="{098B3426-C534-448F-8C7A-878787B8775D}"/>
-    <hyperlink ref="B330" r:id="rId329" xr:uid="{3CEA407A-00C9-42E1-B6AA-806F5D000BC1}"/>
-    <hyperlink ref="B331" r:id="rId330" xr:uid="{6A48535C-D9EE-4DAA-BC6E-B45697538E85}"/>
-    <hyperlink ref="B332" r:id="rId331" xr:uid="{902D1A37-BE5D-4D4C-86EF-E49B87F1D687}"/>
-    <hyperlink ref="B333" r:id="rId332" xr:uid="{B18F228B-EC96-4428-B2DF-A71C20FF5FEB}"/>
-    <hyperlink ref="B334" r:id="rId333" xr:uid="{B6BD79D5-3503-464E-8C13-F093894A9652}"/>
-    <hyperlink ref="B335" r:id="rId334" xr:uid="{A349AC2C-C829-4367-A740-6F48F2951B37}"/>
-    <hyperlink ref="B336" r:id="rId335" xr:uid="{9834D38C-CD75-4BC4-9A5F-BF147969E3F3}"/>
-    <hyperlink ref="B337" r:id="rId336" xr:uid="{3D8D6E6C-3511-45D9-AF8A-94A9B0D9BF12}"/>
-    <hyperlink ref="B338" r:id="rId337" xr:uid="{9125C539-65D3-4416-9CDC-D7E344331038}"/>
-    <hyperlink ref="B339" r:id="rId338" xr:uid="{D62BE232-F9F4-4BC6-82D5-E602330DE8C7}"/>
-    <hyperlink ref="B340" r:id="rId339" xr:uid="{0B0F4A1D-D2BB-4BCF-94D4-F3F8D5ED3E1B}"/>
-    <hyperlink ref="B341" r:id="rId340" xr:uid="{C2FFCB33-9529-42AD-AC48-871BD5A26406}"/>
-    <hyperlink ref="B342" r:id="rId341" xr:uid="{4CBDD384-DAEE-452C-8075-4911969C24D7}"/>
-    <hyperlink ref="B343" r:id="rId342" xr:uid="{63C9C3EB-9CBB-43F2-9EEB-E6ED0C768616}"/>
-    <hyperlink ref="B344" r:id="rId343" xr:uid="{9C1BFFC0-E4B9-421D-A198-786B6407D102}"/>
-    <hyperlink ref="B345" r:id="rId344" xr:uid="{3FE2B348-0FC8-4C3D-9985-6F7BC1A7F489}"/>
-    <hyperlink ref="B346" r:id="rId345" xr:uid="{6C71C8E3-733B-493D-AB2C-2D0763739C06}"/>
-    <hyperlink ref="B347" r:id="rId346" xr:uid="{AFA30AC2-0B28-4C3B-B21D-B72FECFB303D}"/>
-    <hyperlink ref="B348" r:id="rId347" xr:uid="{3F6469E4-638E-4AA7-888E-DD7B3ED464EA}"/>
-    <hyperlink ref="B349" r:id="rId348" xr:uid="{03FDFF7E-B4FA-4800-8F4F-2F3E67A4F3CF}"/>
-    <hyperlink ref="B350" r:id="rId349" xr:uid="{291A7CA3-DFDB-4496-A20F-7A3F055D3FC7}"/>
-    <hyperlink ref="B351" r:id="rId350" xr:uid="{28B327AC-3B78-4EC2-8ADD-9F1CD8D12D2B}"/>
-    <hyperlink ref="B352" r:id="rId351" xr:uid="{CCBD9DC0-A5BA-4028-89F8-A17DFF4C69E7}"/>
-    <hyperlink ref="B353" r:id="rId352" xr:uid="{E5EDCA69-AF66-4035-87DF-7A244DCDDBFD}"/>
-    <hyperlink ref="B354" r:id="rId353" xr:uid="{C02C846B-6423-4863-B02D-608108E1986E}"/>
-    <hyperlink ref="B355" r:id="rId354" xr:uid="{EE36258E-CE4F-4BBB-BC30-792E4DE8ED47}"/>
-    <hyperlink ref="B356" r:id="rId355" xr:uid="{3869AAE8-A4AC-4893-BE5C-0D363A51992A}"/>
-    <hyperlink ref="B357" r:id="rId356" xr:uid="{65F592F2-DA92-4655-A463-39F7A931BF7D}"/>
-    <hyperlink ref="B358" r:id="rId357" xr:uid="{43A9494C-1B93-441D-9299-417FF54F525F}"/>
-    <hyperlink ref="B359" r:id="rId358" xr:uid="{25D70EAE-E83F-44CA-BE45-ACBFA47E9668}"/>
-    <hyperlink ref="B360" r:id="rId359" xr:uid="{194A0136-2F3E-4E8F-888D-D755189193F2}"/>
-    <hyperlink ref="B361" r:id="rId360" xr:uid="{0C9F681D-CEE6-4B63-8144-AC3BA7E720A0}"/>
-    <hyperlink ref="B362" r:id="rId361" xr:uid="{730BC683-7F3D-419B-B9D0-4E2B8489D44D}"/>
-    <hyperlink ref="B363" r:id="rId362" xr:uid="{4978F14B-08A1-46C8-BC27-6BCAEC66F37C}"/>
-    <hyperlink ref="B364" r:id="rId363" xr:uid="{B258938B-5BC4-4A64-B226-2459DD8349B4}"/>
-    <hyperlink ref="B365" r:id="rId364" xr:uid="{450DC582-8D1D-4E2F-A643-31C5C7650BC3}"/>
-    <hyperlink ref="B366" r:id="rId365" xr:uid="{7FB83F64-1167-413D-949F-7DBE3B55B726}"/>
-    <hyperlink ref="B367" r:id="rId366" xr:uid="{A906C300-5D98-4B22-ACAE-063BBE71AAD6}"/>
-    <hyperlink ref="B368" r:id="rId367" xr:uid="{64492352-FDBE-4DB5-BA13-333014618BB7}"/>
-    <hyperlink ref="B369" r:id="rId368" xr:uid="{CE6031C5-EE6F-467B-B717-41183955E075}"/>
-    <hyperlink ref="B370" r:id="rId369" xr:uid="{CEF5BB32-F217-4113-BF91-E3A92C2AAE85}"/>
-    <hyperlink ref="B371" r:id="rId370" xr:uid="{E43DA129-2823-4A10-8397-D07D989E0F6D}"/>
-    <hyperlink ref="B372" r:id="rId371" xr:uid="{29CBB210-5E57-47AE-9B25-9F1B4920B552}"/>
-    <hyperlink ref="B373" r:id="rId372" xr:uid="{5EF9649B-8847-4029-90DB-3540B6BBDCE7}"/>
-    <hyperlink ref="B374" r:id="rId373" xr:uid="{A158E29B-EF35-4DF5-9D1B-D951E4FC27EE}"/>
-    <hyperlink ref="B375" r:id="rId374" xr:uid="{BFD005D9-4691-4375-8465-5FA89961B6C6}"/>
-    <hyperlink ref="B376" r:id="rId375" xr:uid="{02BFECCA-4BB7-4F60-BCFF-E06824C6B74D}"/>
-    <hyperlink ref="B377" r:id="rId376" xr:uid="{E33A5ECB-E1BD-43F1-8940-A51E02A79D30}"/>
-    <hyperlink ref="B378" r:id="rId377" xr:uid="{E8C69297-C2DB-41EA-BA71-C206C3D55A78}"/>
-    <hyperlink ref="B379" r:id="rId378" xr:uid="{71112CBB-FCE0-4F75-BB4E-3CE88D4F2007}"/>
-    <hyperlink ref="B380" r:id="rId379" xr:uid="{6419B0F2-168E-45CB-BE67-1AC2C30750CF}"/>
-    <hyperlink ref="B381" r:id="rId380" xr:uid="{B96D6EA8-E43A-449C-8B37-B2E2C757E1AD}"/>
-    <hyperlink ref="B382" r:id="rId381" xr:uid="{EFE30B70-6AF3-4D2F-B3D7-479F66433C11}"/>
-    <hyperlink ref="B383" r:id="rId382" xr:uid="{7902BB11-B225-4F3E-8DD8-4C421AFF23CC}"/>
-    <hyperlink ref="B384" r:id="rId383" xr:uid="{09B7D6D3-0F73-4B33-8483-49793B9E1FB2}"/>
-    <hyperlink ref="B385" r:id="rId384" xr:uid="{26FEE24B-D39F-4E4E-A132-B072C423AD0A}"/>
-    <hyperlink ref="B386" r:id="rId385" xr:uid="{B5B729EA-FF4A-4F38-852C-BA4549B1B45E}"/>
-    <hyperlink ref="B387" r:id="rId386" xr:uid="{AD041F6B-E467-4C95-B4FC-DCCB0A660054}"/>
-    <hyperlink ref="B388" r:id="rId387" xr:uid="{71BA8913-395A-4B08-BE53-A7923CB685B7}"/>
-    <hyperlink ref="B389" r:id="rId388" xr:uid="{08B78DD4-001A-4F4F-BAF4-F6C83EEA22BC}"/>
-    <hyperlink ref="B390" r:id="rId389" xr:uid="{013C8AFB-F07B-45B1-9956-71854902522E}"/>
-    <hyperlink ref="B391" r:id="rId390" xr:uid="{890844BE-1F8D-4C9C-A22E-772458FCA04A}"/>
-    <hyperlink ref="B392" r:id="rId391" xr:uid="{84490B49-9234-4C73-A9FF-B87AF5FD89AB}"/>
-    <hyperlink ref="B394" r:id="rId392" xr:uid="{AB25FB6B-1D8B-473F-9AB1-0F662F64F0FA}"/>
-    <hyperlink ref="B395" r:id="rId393" xr:uid="{28950698-5C0F-4CC2-B60E-EA72929B0BCB}"/>
-    <hyperlink ref="B396" r:id="rId394" xr:uid="{A2E4E94F-2460-43DC-A427-26AA8A16AE2E}"/>
-    <hyperlink ref="B397" r:id="rId395" xr:uid="{F27003BD-AE5A-4113-BCE1-A8B55CC219EC}"/>
-    <hyperlink ref="B398" r:id="rId396" xr:uid="{D4060D1C-7301-4610-8220-0D3D2E07CA5B}"/>
-    <hyperlink ref="B399" r:id="rId397" xr:uid="{1FA01D84-F25B-48E7-999C-B09FD2B02CEC}"/>
-    <hyperlink ref="B400" r:id="rId398" xr:uid="{A0230C20-4478-4A04-B86E-78D286C5696A}"/>
-    <hyperlink ref="B401" r:id="rId399" xr:uid="{4AED1FA4-ACFB-4A40-BAA0-E7D61A85ECB0}"/>
-    <hyperlink ref="B402" r:id="rId400" xr:uid="{41CFC7FE-104F-4991-B30F-3AA9E5B08604}"/>
-    <hyperlink ref="B403" r:id="rId401" xr:uid="{73A6D288-8DA9-4E64-901E-3244E770EC43}"/>
-    <hyperlink ref="B404" r:id="rId402" xr:uid="{C6BBF6FF-B6D2-4FFD-9ACF-CD48E6A388C3}"/>
-    <hyperlink ref="B405" r:id="rId403" xr:uid="{2FDB5721-433A-4072-9621-719A37B4D648}"/>
-    <hyperlink ref="B417" r:id="rId404" xr:uid="{353FFA3B-1430-4984-9121-1F98CAF37889}"/>
-    <hyperlink ref="B418" r:id="rId405" xr:uid="{05D4AB6B-E95D-47F3-80B5-F613560909E0}"/>
-    <hyperlink ref="B419" r:id="rId406" xr:uid="{55D1337D-F3F8-4858-99B2-F88500269C47}"/>
-    <hyperlink ref="B421" r:id="rId407" xr:uid="{54F0F55C-285B-4E99-80B3-94F05683A245}"/>
-    <hyperlink ref="B422" r:id="rId408" xr:uid="{B3C46894-303B-4584-8847-B04C94B27E26}"/>
-    <hyperlink ref="B423" r:id="rId409" xr:uid="{04C57F76-2D62-42CF-81FF-93D4802811C6}"/>
-    <hyperlink ref="B424" r:id="rId410" xr:uid="{3D548AFC-62B5-4233-BA6C-2F73F47C1881}"/>
-    <hyperlink ref="B425" r:id="rId411" xr:uid="{4250EB83-3797-46F6-9680-343738A4CE51}"/>
-    <hyperlink ref="B426" r:id="rId412" xr:uid="{15CD4F98-699C-48B3-B6FB-32B762AE2699}"/>
-    <hyperlink ref="B427" r:id="rId413" xr:uid="{48B4B8A5-EF2D-431C-9EBE-55837153B0B9}"/>
-    <hyperlink ref="B428" r:id="rId414" xr:uid="{2625D7E4-C0AD-4149-9FF7-FD29B827C528}"/>
-    <hyperlink ref="B429" r:id="rId415" xr:uid="{AE939726-06C6-4FB4-8094-8E88EF12DAB2}"/>
-    <hyperlink ref="B430" r:id="rId416" xr:uid="{673AE7D5-87B3-4083-8A21-21B29FB7ECF9}"/>
-    <hyperlink ref="B432" r:id="rId417" xr:uid="{E0855901-B3D2-4D1A-9892-09491DEC4E3C}"/>
-    <hyperlink ref="B433" r:id="rId418" xr:uid="{0B68D01E-AFDE-4952-BD7D-DC76BFE6DF9C}"/>
-    <hyperlink ref="B434" r:id="rId419" xr:uid="{3E95A796-685C-4492-95A9-25B0347ACE67}"/>
-    <hyperlink ref="B437" r:id="rId420" xr:uid="{0578DFE7-5B0B-4063-84E5-14BDDB5E6390}"/>
-    <hyperlink ref="B438" r:id="rId421" xr:uid="{791A492F-795D-4B40-930B-D19F2627AE59}"/>
-    <hyperlink ref="B439" r:id="rId422" xr:uid="{E7A19C07-F63D-48CA-8534-7E37827C2F8B}"/>
-    <hyperlink ref="B440" r:id="rId423" xr:uid="{7C852999-52FD-47CF-A2C4-65C83770F520}"/>
-    <hyperlink ref="B441" r:id="rId424" xr:uid="{FEDF8117-DCD7-4A28-9E7C-F0EE9E886EC3}"/>
-    <hyperlink ref="B442" r:id="rId425" xr:uid="{E71D2DD4-02E4-4EAA-B664-EBC1C3E02D3A}"/>
-    <hyperlink ref="B443" r:id="rId426" xr:uid="{9DE922EB-89F3-45F1-B049-4CE2A49ECD85}"/>
-    <hyperlink ref="B444" r:id="rId427" xr:uid="{63B31189-F761-49D5-84C6-BBAD863E8150}"/>
-    <hyperlink ref="B445" r:id="rId428" xr:uid="{B2AB402E-88C7-4A5A-899E-FBCEF5335128}"/>
-    <hyperlink ref="B446" r:id="rId429" xr:uid="{F746E8B6-0AE9-43D8-828C-113CB87618B3}"/>
-    <hyperlink ref="B447" r:id="rId430" xr:uid="{279E2F92-FEFA-4610-AB12-7C4A963E587E}"/>
-    <hyperlink ref="B448" r:id="rId431" xr:uid="{14DAD465-EE1A-420D-963D-33074304A1B8}"/>
-    <hyperlink ref="B449" r:id="rId432" xr:uid="{70EC26C0-BA12-4DE8-8653-62ECB318ACEE}"/>
-    <hyperlink ref="B450" r:id="rId433" xr:uid="{0C5E0043-0E1A-45E8-B5D4-8147939B7ADB}"/>
-    <hyperlink ref="B451" r:id="rId434" xr:uid="{6A8E4D61-BAF2-4699-B53E-2E7548877319}"/>
-    <hyperlink ref="B452" r:id="rId435" xr:uid="{021E20DA-18A3-4A26-A752-E004088DA180}"/>
-    <hyperlink ref="B453" r:id="rId436" xr:uid="{D123830B-45ED-4F58-917E-730C3F5E08F5}"/>
-    <hyperlink ref="B454" r:id="rId437" xr:uid="{31D922C0-3E67-4137-B51F-5F7554846A24}"/>
-    <hyperlink ref="B455" r:id="rId438" xr:uid="{AADEA829-F3F4-4278-B8EE-613EA001C85B}"/>
-    <hyperlink ref="B456" r:id="rId439" xr:uid="{82AB2FBB-D92D-4618-8B6B-5095A4A8F6FA}"/>
-    <hyperlink ref="B457" r:id="rId440" xr:uid="{3A2E9097-1671-404A-86A2-FC63F498277C}"/>
-    <hyperlink ref="B458" r:id="rId441" xr:uid="{F1CC6F9C-3A96-4560-BDE4-EEDBD9C22E8F}"/>
-    <hyperlink ref="B459" r:id="rId442" xr:uid="{D090F360-488B-45DB-AE8F-089568941E32}"/>
-    <hyperlink ref="B460" r:id="rId443" xr:uid="{307F9C32-8529-47DD-B7C2-B7DC2A7D2252}"/>
-    <hyperlink ref="B461" r:id="rId444" xr:uid="{66252AA4-018E-47B8-AF9B-0B90976FE110}"/>
-    <hyperlink ref="B462" r:id="rId445" xr:uid="{9C650C0B-13AD-45B9-9C0A-FECBC6AD52E8}"/>
-    <hyperlink ref="B463" r:id="rId446" xr:uid="{A17B1C6A-1231-4408-9592-FCA99CADC85E}"/>
-    <hyperlink ref="B464" r:id="rId447" xr:uid="{DBC938F0-954C-4167-9133-A8F2A19DC955}"/>
-    <hyperlink ref="B465" r:id="rId448" xr:uid="{9B66E790-AF56-4BE2-9B51-54E331339B4C}"/>
-    <hyperlink ref="B466" r:id="rId449" xr:uid="{06D0C538-ABF8-4608-AB4A-B4383C54EBB4}"/>
-    <hyperlink ref="B467" r:id="rId450" xr:uid="{96B86536-1B07-44D0-9146-9184651C2BC8}"/>
-    <hyperlink ref="B468" r:id="rId451" xr:uid="{3FD14F0A-B9E2-4606-9C6A-42A9266923AD}"/>
-    <hyperlink ref="B469" r:id="rId452" xr:uid="{EF195CB2-6BE1-4F29-925F-24803A13666E}"/>
-    <hyperlink ref="B470" r:id="rId453" xr:uid="{D7BACE0E-DA96-49FD-B80E-8F4009F7512E}"/>
-    <hyperlink ref="B471" r:id="rId454" xr:uid="{B765198E-E065-4FDE-8C6C-27FEAC6ECD41}"/>
-    <hyperlink ref="B472" r:id="rId455" xr:uid="{F519CBB0-5D2A-4F37-95D0-0EA32335DDFD}"/>
-    <hyperlink ref="B473" r:id="rId456" xr:uid="{F53FB423-F75D-46BA-8BEA-7293124438C4}"/>
-    <hyperlink ref="B474" r:id="rId457" xr:uid="{820C93E1-8959-4163-B20F-662BFC9026A4}"/>
-    <hyperlink ref="B475" r:id="rId458" xr:uid="{917EA9B9-1071-451A-988D-D378A7438140}"/>
-    <hyperlink ref="B476" r:id="rId459" xr:uid="{8F7BF906-22CE-4541-A565-C5BBA0EFC15C}"/>
-    <hyperlink ref="B477" r:id="rId460" xr:uid="{8313D76D-24B9-4CCC-BD38-B33ED2C2D078}"/>
-    <hyperlink ref="B478" r:id="rId461" xr:uid="{2BF72637-B97E-4DC0-9708-8FC7D01A90D6}"/>
-    <hyperlink ref="B479" r:id="rId462" xr:uid="{4F895B9B-8FBA-43AE-A87D-DD3BDF6C272E}"/>
-    <hyperlink ref="B480" r:id="rId463" xr:uid="{F454A690-895F-42FE-930A-364EDE699345}"/>
-    <hyperlink ref="B482" r:id="rId464" xr:uid="{77EF28A0-9925-4C6B-87BC-25979DA180C1}"/>
-    <hyperlink ref="B483" r:id="rId465" xr:uid="{3F7EB356-CBC5-4A3C-BEB7-F1D9CB94F97B}"/>
-    <hyperlink ref="B484" r:id="rId466" xr:uid="{72C70DEA-C669-468F-953C-2ADE538F7C29}"/>
-    <hyperlink ref="B485" r:id="rId467" xr:uid="{314C727B-401C-4841-86C7-C9C7EA172AAD}"/>
-    <hyperlink ref="B486" r:id="rId468" xr:uid="{3A9D6B5A-6066-4367-9202-C8B423BC5AC9}"/>
-    <hyperlink ref="B487" r:id="rId469" xr:uid="{21BF1B1D-0DA6-413B-9CC0-7C780A3518F8}"/>
-    <hyperlink ref="B488" r:id="rId470" xr:uid="{23E8C97C-E88A-4E81-BEAF-2159BA594E42}"/>
-    <hyperlink ref="B489" r:id="rId471" xr:uid="{34898C38-AEA1-4EDE-8E5B-091A10A2A068}"/>
-    <hyperlink ref="B490" r:id="rId472" xr:uid="{4BFF6507-453A-4544-B268-F759D3FB91B2}"/>
-    <hyperlink ref="B491" r:id="rId473" xr:uid="{D31FC931-E5BA-4318-BF0A-828D1BB1C7F5}"/>
-    <hyperlink ref="B492" r:id="rId474" xr:uid="{8A3F2800-768E-43AB-A2A7-C002F05E6C51}"/>
-    <hyperlink ref="B493" r:id="rId475" xr:uid="{D60789C4-0C5F-40F3-A321-062F5CF3E1D5}"/>
-    <hyperlink ref="B494" r:id="rId476" xr:uid="{0D61781C-E342-427D-9925-57F34DF176F1}"/>
-    <hyperlink ref="B495" r:id="rId477" xr:uid="{371CBFC5-8CC9-4008-837E-33D4EBFE29F7}"/>
-    <hyperlink ref="B496" r:id="rId478" xr:uid="{923C5063-C325-4F18-B86C-FEBA6F46B333}"/>
-    <hyperlink ref="B497" r:id="rId479" xr:uid="{DB327924-DF14-4B9D-B089-BD5055A29424}"/>
-    <hyperlink ref="B498" r:id="rId480" xr:uid="{0C0CFFBA-D56B-42A8-8FFB-406A170DCEF6}"/>
-    <hyperlink ref="B499" r:id="rId481" xr:uid="{9F984B81-91C7-45F7-8E4F-1B313D0F8B52}"/>
-    <hyperlink ref="B500" r:id="rId482" xr:uid="{1A5ABEA5-1377-49BA-BCDA-BCADE764E4D2}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{7376A2EB-66B4-48CD-8E53-E999770A827C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C4407D4C-0F27-4118-8909-4BE79BDF2EA0}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{2941DC72-53F1-444C-B3FC-8B3E11D34BC8}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{AF5E7B64-6422-4B6B-97CA-EF8F3D403617}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{2AF6D2C1-CB83-4501-92E3-04652BC81B67}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{90FD85A8-42B3-4F39-932E-B5D1BC5165EC}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{87887752-404E-4DC7-937A-71B3207BDF26}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{DDAB4135-7CB0-469B-A04D-18406C50329D}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{5A042A86-CD20-417B-BA22-8B8BDDCA1C6D}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{14AA78CF-C76D-458D-A151-476E2C684B32}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{FAC9CC24-F34C-44C3-A75C-DCF377E0F826}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{1216E97E-3535-4472-A62D-591090D7BA12}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{23827BD8-3E31-43B8-9162-BCEA63667A74}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{79428F7B-EEE4-4761-8C18-38E6BFCC3A0C}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{BAF198D5-721A-4BD6-BAA5-5CB8C1C47957}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{D4453F95-ED02-4A91-840B-0BE44D5D92CD}"/>
+    <hyperlink ref="A17" r:id="rId17" xr:uid="{747FC262-CBD8-4DDC-A809-AF4B5F6D7119}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{832FF61F-BEDA-4761-B40A-42037C40E6DE}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{2A9F5AF2-327A-4587-BC2E-B6DCAC0E180D}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{CA90FA90-6556-4267-87B0-E94F911AFB6F}"/>
+    <hyperlink ref="A21" r:id="rId21" xr:uid="{6304E59B-9412-42AA-8580-EE35722A275C}"/>
+    <hyperlink ref="A22" r:id="rId22" xr:uid="{5B55A573-4A70-4480-A953-17C5E398D4D4}"/>
+    <hyperlink ref="A23" r:id="rId23" xr:uid="{DB157B82-417D-41B8-AF36-1EE5031309FC}"/>
+    <hyperlink ref="A24" r:id="rId24" xr:uid="{A13333EC-27E6-4F40-9292-B7336D6DEAF4}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{0EE1E9C1-5EB1-43A2-ACF8-3220D42C9086}"/>
+    <hyperlink ref="A26" r:id="rId26" xr:uid="{E8FD135E-DBE5-4D3D-8C8D-4454916C6A4A}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{1A8CEC8B-B914-4EB0-92F5-8AAF23A8983C}"/>
+    <hyperlink ref="A28" r:id="rId28" xr:uid="{56C54584-E151-4A19-843F-FC6C4E95D127}"/>
+    <hyperlink ref="A29" r:id="rId29" xr:uid="{41712437-0C0F-4274-92A9-4BFA0F4495B5}"/>
+    <hyperlink ref="A30" r:id="rId30" xr:uid="{11E4CCFD-AF69-46B8-8F95-B95FAD03BE65}"/>
+    <hyperlink ref="A31" r:id="rId31" xr:uid="{A7FDD61C-D368-4843-A693-4C98DF343DA7}"/>
+    <hyperlink ref="A32" r:id="rId32" xr:uid="{F1E2715D-4BF1-4BA0-AE23-3EFBA7AE70F8}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{1529630B-A5A2-40C1-9185-DFE4B76E83BF}"/>
+    <hyperlink ref="A34" r:id="rId34" xr:uid="{0C37F6D8-1809-4742-9508-20C546703F7E}"/>
+    <hyperlink ref="A35" r:id="rId35" xr:uid="{74BCDF05-3169-4494-8661-B93D494FB944}"/>
+    <hyperlink ref="A36" r:id="rId36" xr:uid="{8AF9A7F2-8F36-4D0B-BB02-0D22FF558C82}"/>
+    <hyperlink ref="A37" r:id="rId37" xr:uid="{1E13BAC5-FCB4-4473-96AE-7F3A604876AE}"/>
+    <hyperlink ref="A38" r:id="rId38" xr:uid="{2713D594-C776-4F09-ADA5-F46BE6DCF20D}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{CC4095A2-3155-411F-8897-2A01A7A885A1}"/>
+    <hyperlink ref="A40" r:id="rId40" xr:uid="{EAB20860-97CA-493C-9837-8ADB1D39F311}"/>
+    <hyperlink ref="A41" r:id="rId41" xr:uid="{4CD30629-1272-4B84-B13C-B30C62848B3B}"/>
+    <hyperlink ref="A42" r:id="rId42" xr:uid="{66FC4979-1FC3-4785-A61F-6BCFF54EF5B8}"/>
+    <hyperlink ref="A43" r:id="rId43" xr:uid="{444A7686-D98E-4EEF-BFEB-42E8A019B89E}"/>
+    <hyperlink ref="A44" r:id="rId44" xr:uid="{C0A13C7D-30DD-493B-8FBE-171A2F36E9C2}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{60AC728A-7FA9-44F7-A7A9-0B18B31447C6}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{65B3BBC5-1C83-4F92-A333-332C9D51034F}"/>
+    <hyperlink ref="A47" r:id="rId47" xr:uid="{3E957652-A034-41A0-AF7F-97AF49533F00}"/>
+    <hyperlink ref="A48" r:id="rId48" xr:uid="{CA8C0E74-EB67-433C-8FC0-FDF74DAD5A72}"/>
+    <hyperlink ref="A49" r:id="rId49" xr:uid="{610E2D1B-5E83-4702-8134-FA14CA4808C4}"/>
+    <hyperlink ref="A50" r:id="rId50" xr:uid="{2EA74093-1CF6-4A64-9EBD-A73159E9E7D6}"/>
+    <hyperlink ref="A51" r:id="rId51" xr:uid="{C4A8C473-9089-41CE-8FEB-3A09E61F31EB}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{1B37BA47-3489-4BB6-8FFD-0CEFADE86172}"/>
+    <hyperlink ref="A53" r:id="rId53" xr:uid="{05974CB3-2A47-422E-B4A4-F01524F62166}"/>
+    <hyperlink ref="A54" r:id="rId54" xr:uid="{49BEF070-B9D9-4EA7-A585-4AF5E2D6BBFB}"/>
+    <hyperlink ref="A55" r:id="rId55" xr:uid="{9BD0EFAF-DCEF-4C3C-8776-B685DE9833C1}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{592C669F-F127-43B3-A34B-C39FFF3EE913}"/>
+    <hyperlink ref="A57" r:id="rId57" xr:uid="{20E842A8-50E4-4E76-A8F5-3186CE6740F3}"/>
+    <hyperlink ref="A58" r:id="rId58" xr:uid="{41537570-C59A-42BE-8CC5-5E2F25A565B2}"/>
+    <hyperlink ref="A59" r:id="rId59" xr:uid="{1097245D-4417-4501-8CBD-3D55D4A333F7}"/>
+    <hyperlink ref="A60" r:id="rId60" xr:uid="{6472C6E3-B85D-400A-88A0-E8EE64ECF057}"/>
+    <hyperlink ref="A61" r:id="rId61" xr:uid="{4FA0AEF5-439D-4ED6-9355-65B0316A5A2F}"/>
+    <hyperlink ref="A62" r:id="rId62" xr:uid="{EBA0D4B7-0E1A-40DE-A30A-A36A04403A51}"/>
+    <hyperlink ref="A63" r:id="rId63" xr:uid="{81237190-58BA-4575-981A-F89706C7D4F2}"/>
+    <hyperlink ref="A64" r:id="rId64" xr:uid="{8A932321-4DAE-4A91-A918-6906CBB48D4C}"/>
+    <hyperlink ref="A65" r:id="rId65" xr:uid="{FF8FCF24-80D3-46BA-ACD7-207490BA9641}"/>
+    <hyperlink ref="A66" r:id="rId66" xr:uid="{70F3BD76-D874-4CD8-820F-F925F8BCF76A}"/>
+    <hyperlink ref="A67" r:id="rId67" xr:uid="{ACA5CF5D-791B-409F-98F3-BB30DB926D0D}"/>
+    <hyperlink ref="A68" r:id="rId68" xr:uid="{0BB237D0-E3B1-46FA-8A9A-A8A07A1E2324}"/>
+    <hyperlink ref="A69" r:id="rId69" xr:uid="{9B416945-7EEC-41C8-A1B7-610D96530220}"/>
+    <hyperlink ref="A70" r:id="rId70" xr:uid="{17FF8AF3-A658-4A69-849C-6222C45185D1}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{C467F2D0-9E0A-493E-9BC4-3600FD6360DE}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{4DD6680E-F607-4110-BE6D-DE78D7EF9B3C}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{6123CC2C-3F68-429C-85F6-1956F769429E}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{376318AB-8A10-4F25-91EB-206E5016D10A}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{42830F02-B915-4B37-B172-E0209B30CF15}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{A9F48E92-3964-4961-BCAD-F28BE021F032}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{59466BAA-E502-4B13-9ADD-FCF2B847AC52}"/>
+    <hyperlink ref="A78" r:id="rId78" xr:uid="{8AB84EA6-E331-4B6A-92DE-8638380C93C9}"/>
+    <hyperlink ref="A79" r:id="rId79" xr:uid="{806098D0-CAEF-4017-89A0-4A0B9F702038}"/>
+    <hyperlink ref="A80" r:id="rId80" xr:uid="{A48AC545-08E3-45B8-90AB-9E726F055494}"/>
+    <hyperlink ref="A81" r:id="rId81" xr:uid="{79FD65D4-CD23-45C2-A1DF-299D68C5465E}"/>
+    <hyperlink ref="A82" r:id="rId82" xr:uid="{B8BA3506-53B7-439D-8B28-D66AB5DCB56B}"/>
+    <hyperlink ref="A83" r:id="rId83" xr:uid="{D80CEC8B-BC63-4ADA-A251-355BC34B1DCC}"/>
+    <hyperlink ref="A84" r:id="rId84" xr:uid="{FBD446C8-140C-4193-8691-A3D483448323}"/>
+    <hyperlink ref="A85" r:id="rId85" xr:uid="{B1323110-595E-4BF7-AC2B-2284A1645B00}"/>
+    <hyperlink ref="A86" r:id="rId86" xr:uid="{C0511607-BF64-46BC-AFEA-B2551D19D3BC}"/>
+    <hyperlink ref="A87" r:id="rId87" xr:uid="{9FD8F54B-4E46-4BE4-A4E0-BDFD036A6D8F}"/>
+    <hyperlink ref="A88" r:id="rId88" xr:uid="{7C7E79C5-957A-419E-A92A-F0C0ABF1C5A1}"/>
+    <hyperlink ref="A89" r:id="rId89" xr:uid="{2C58864A-B9A7-4CB5-B5AE-954E18C52649}"/>
+    <hyperlink ref="A90" r:id="rId90" xr:uid="{492AAE94-1214-4A86-ABA2-7AD49E5453F4}"/>
+    <hyperlink ref="A91" r:id="rId91" xr:uid="{81A28215-C145-4816-9D4C-A911A0631E99}"/>
+    <hyperlink ref="A92" r:id="rId92" xr:uid="{691CE667-8E03-41B3-A586-E02B2C79A566}"/>
+    <hyperlink ref="A93" r:id="rId93" xr:uid="{D5F40876-7177-40BB-A026-EA8BDD4592AF}"/>
+    <hyperlink ref="A94" r:id="rId94" xr:uid="{41F56939-90A9-4EFF-9631-DFF7EBB9211F}"/>
+    <hyperlink ref="A95" r:id="rId95" xr:uid="{CFEF72EB-D74F-4B88-B43D-FA89AB375062}"/>
+    <hyperlink ref="A96" r:id="rId96" xr:uid="{91F06DC3-CEFE-4D3F-BDBA-94B437851916}"/>
+    <hyperlink ref="A97" r:id="rId97" xr:uid="{58645604-E120-4A91-9242-B3BA9288D297}"/>
+    <hyperlink ref="A98" r:id="rId98" xr:uid="{46F50E00-C365-4999-8529-58CF270887F3}"/>
+    <hyperlink ref="A99" r:id="rId99" xr:uid="{DC218DBD-2D20-4284-AE8B-5BB3C5BAADF7}"/>
+    <hyperlink ref="A100" r:id="rId100" xr:uid="{CA30C274-8F78-4B7E-93BA-9BB3E48DD18E}"/>
+    <hyperlink ref="A101" r:id="rId101" xr:uid="{87A0D257-382B-418D-9F84-DDEEA19B9DE8}"/>
+    <hyperlink ref="A102" r:id="rId102" xr:uid="{E6DAB9ED-E7EB-494B-BDEE-232444C792C5}"/>
+    <hyperlink ref="A103" r:id="rId103" xr:uid="{9C1D7115-4605-4597-8259-600E448C2993}"/>
+    <hyperlink ref="A104" r:id="rId104" xr:uid="{2BD91E9D-BF6A-42E2-8131-B4B5641C23F4}"/>
+    <hyperlink ref="A105" r:id="rId105" xr:uid="{4A1D4EF4-9C5A-429D-BAE2-C3009FB3FA4C}"/>
+    <hyperlink ref="A106" r:id="rId106" xr:uid="{87392BC2-6D5A-4354-A2B0-4AB1BD7C2C42}"/>
+    <hyperlink ref="A107" r:id="rId107" xr:uid="{AFEF4BEF-61B3-4CC8-B58A-B9E1E28E6C69}"/>
+    <hyperlink ref="A108" r:id="rId108" xr:uid="{22651D54-2F82-4995-83DC-9CCDD1F17DD5}"/>
+    <hyperlink ref="A109" r:id="rId109" xr:uid="{6857E9DA-F131-4114-906A-3CE67FAEC7B6}"/>
+    <hyperlink ref="A110" r:id="rId110" xr:uid="{B1396910-5C3A-4887-8C08-81C5AB8433EA}"/>
+    <hyperlink ref="A111" r:id="rId111" xr:uid="{10ED1E0D-6B05-4109-B602-F6EE0DFEDFC4}"/>
+    <hyperlink ref="A112" r:id="rId112" xr:uid="{88F17B38-D171-43F5-BF15-7BD8460C22C7}"/>
+    <hyperlink ref="A113" r:id="rId113" xr:uid="{0E3D4034-9987-49AA-96BC-1251E5F7AF5F}"/>
+    <hyperlink ref="A114" r:id="rId114" xr:uid="{639FADBE-EA65-4E3E-9E29-3B3471823483}"/>
+    <hyperlink ref="A115" r:id="rId115" xr:uid="{9D39B0BC-C8A4-4CFB-A321-8D5BBF96210F}"/>
+    <hyperlink ref="A116" r:id="rId116" xr:uid="{D76F99F8-11D7-44FF-B8C5-4CA304A6D65C}"/>
+    <hyperlink ref="A117" r:id="rId117" xr:uid="{AC87A65E-15F3-481C-903D-3F8A10F80B42}"/>
+    <hyperlink ref="A118" r:id="rId118" xr:uid="{2367242D-538B-49B1-B0B8-C2F80C9017D3}"/>
+    <hyperlink ref="A119" r:id="rId119" xr:uid="{D9FC64EF-A537-4096-AA97-222EF8A61F5C}"/>
+    <hyperlink ref="A120" r:id="rId120" xr:uid="{47D6000E-8BBA-4EC7-A781-7F94E987A095}"/>
+    <hyperlink ref="A121" r:id="rId121" xr:uid="{8739DA22-7F82-4B19-AF2A-F1E1F2FF77D0}"/>
+    <hyperlink ref="A122" r:id="rId122" xr:uid="{AF383D70-1667-4FE8-B059-E279045F38FD}"/>
+    <hyperlink ref="A123" r:id="rId123" xr:uid="{5481759B-BEFF-4A2E-B1C0-9737533739DC}"/>
+    <hyperlink ref="A124" r:id="rId124" xr:uid="{DEC3C7E4-8B0C-4FB5-9BE6-5B13C78178D6}"/>
+    <hyperlink ref="A125" r:id="rId125" xr:uid="{22B2705F-0328-4A6A-8183-598446318B1C}"/>
+    <hyperlink ref="A126" r:id="rId126" xr:uid="{B246CCA6-2D8B-4E1B-B852-121AD13535B2}"/>
+    <hyperlink ref="A127" r:id="rId127" xr:uid="{CE206209-B942-45EF-9AF2-4CFC2DC96A29}"/>
+    <hyperlink ref="A128" r:id="rId128" xr:uid="{9C94E252-BA37-41A8-8CDA-80F3559F457E}"/>
+    <hyperlink ref="A129" r:id="rId129" xr:uid="{EFB8D931-08E8-46FA-B9AF-F1DF01083ACB}"/>
+    <hyperlink ref="A130" r:id="rId130" xr:uid="{B7CDC253-B090-4E87-9EA7-362FC06B74A6}"/>
+    <hyperlink ref="A131" r:id="rId131" xr:uid="{D28FBC32-FA1B-473C-9BBF-10236D74C9DD}"/>
+    <hyperlink ref="A132" r:id="rId132" xr:uid="{420D0501-68DF-475D-8E21-E49CC84D45D2}"/>
+    <hyperlink ref="A133" r:id="rId133" xr:uid="{BEC42140-16B6-4734-B0A9-A628C4644D4A}"/>
+    <hyperlink ref="A134" r:id="rId134" xr:uid="{E03129C8-893B-46D7-9A50-C96655515AFF}"/>
+    <hyperlink ref="A135" r:id="rId135" xr:uid="{ABE7392B-F29D-4B8B-B57E-63E360731713}"/>
+    <hyperlink ref="A136" r:id="rId136" xr:uid="{DC78A01B-05F6-4FB4-AA5D-864ED1476604}"/>
+    <hyperlink ref="A137" r:id="rId137" xr:uid="{23BA00BF-4ED9-41B5-81C6-CE4D1C79AD3D}"/>
+    <hyperlink ref="A138" r:id="rId138" xr:uid="{E97B9B4B-AE14-4510-9617-45A43330714A}"/>
+    <hyperlink ref="A139" r:id="rId139" xr:uid="{D6E9986F-C206-4D5E-A176-81968111FDF4}"/>
+    <hyperlink ref="A140" r:id="rId140" xr:uid="{B92DF794-A043-4D78-B332-22E0069A073F}"/>
+    <hyperlink ref="A141" r:id="rId141" xr:uid="{6D1783CE-57D3-4E24-BC9B-A6556F35E5AB}"/>
+    <hyperlink ref="A142" r:id="rId142" xr:uid="{6B8F2FCF-F43F-4CCB-A43B-C4D4F3E8ACD3}"/>
+    <hyperlink ref="A143" r:id="rId143" xr:uid="{8009D58C-FCA6-4F7D-9B19-2665CF97FC14}"/>
+    <hyperlink ref="A144" r:id="rId144" xr:uid="{FCE36B8E-6077-40DF-B9C2-1AB79CA28F21}"/>
+    <hyperlink ref="A145" r:id="rId145" xr:uid="{AF8DE24D-434B-45FB-ABC9-25EE744057AC}"/>
+    <hyperlink ref="A146" r:id="rId146" xr:uid="{202AA7D8-A0E8-41B9-841E-B464C7BACC3A}"/>
+    <hyperlink ref="A147" r:id="rId147" xr:uid="{DA5FB802-65B1-41D3-B399-9271439B6D71}"/>
+    <hyperlink ref="A148" r:id="rId148" xr:uid="{B743ACC6-36E1-49F8-97A7-2FCDECDAB3D0}"/>
+    <hyperlink ref="A149" r:id="rId149" xr:uid="{2164270D-54E5-4218-95F8-596770F24C69}"/>
+    <hyperlink ref="A150" r:id="rId150" xr:uid="{DCD2C84E-3DA3-4279-940C-8ABDA56D7570}"/>
+    <hyperlink ref="A151" r:id="rId151" xr:uid="{88B9F1C5-54B3-41C8-B7BD-4BFE456ABA47}"/>
+    <hyperlink ref="A152" r:id="rId152" xr:uid="{755DA4BE-16A6-4A06-B7A2-48B668FB95CC}"/>
+    <hyperlink ref="A153" r:id="rId153" xr:uid="{66535519-1046-4499-805A-E31ED484100E}"/>
+    <hyperlink ref="A154" r:id="rId154" xr:uid="{3E145882-092C-4AB5-97C0-10A901693D82}"/>
+    <hyperlink ref="A155" r:id="rId155" xr:uid="{89A5A926-ECE1-4801-9A16-E133C4E08C88}"/>
+    <hyperlink ref="A156" r:id="rId156" xr:uid="{9E3B60BE-9AE5-46FD-AAA4-4E9C70DB859D}"/>
+    <hyperlink ref="A157" r:id="rId157" xr:uid="{9330FC43-2663-4DB2-BE3F-E5ECA1A9D26C}"/>
+    <hyperlink ref="A158" r:id="rId158" xr:uid="{59521D35-C9C0-455B-860B-7D443A1B393E}"/>
+    <hyperlink ref="A159" r:id="rId159" xr:uid="{C79C376D-D347-49FC-88D4-E69CE5E55D41}"/>
+    <hyperlink ref="A160" r:id="rId160" xr:uid="{0522AFAD-B4FA-4470-842E-0D92D49AA757}"/>
+    <hyperlink ref="A161" r:id="rId161" xr:uid="{55A297E2-9BB9-4C22-9179-0C5A99081B05}"/>
+    <hyperlink ref="A162" r:id="rId162" xr:uid="{C9C521E1-2F32-4DDB-B2E5-6C53E2F1AFF5}"/>
+    <hyperlink ref="A163" r:id="rId163" xr:uid="{375FEA59-346A-4B48-80A3-3C760E523863}"/>
+    <hyperlink ref="A164" r:id="rId164" xr:uid="{E6DEED25-2CB0-4B66-B1A2-102B41EF844A}"/>
+    <hyperlink ref="A165" r:id="rId165" xr:uid="{58D98EDA-8F7F-4378-B5D9-C1CFBF2361CD}"/>
+    <hyperlink ref="A166" r:id="rId166" xr:uid="{8D929CE3-5FDA-430D-AC0E-4979DE86ED2E}"/>
+    <hyperlink ref="A167" r:id="rId167" xr:uid="{63CB3EEF-C736-4B0D-8381-3786E9386C9E}"/>
+    <hyperlink ref="A168" r:id="rId168" xr:uid="{72AB24E6-0E5A-4EE1-BF16-7F1411F0F724}"/>
+    <hyperlink ref="A169" r:id="rId169" xr:uid="{DECAF86F-011F-4224-AE29-C4FFE4DE269E}"/>
+    <hyperlink ref="A170" r:id="rId170" xr:uid="{5463B484-FDA4-48CD-9BB5-CB8938C1C753}"/>
+    <hyperlink ref="A171" r:id="rId171" xr:uid="{CF4E9950-71C9-420B-9BC7-6C35954751DE}"/>
+    <hyperlink ref="A172" r:id="rId172" xr:uid="{B7E700FE-BD60-4966-B512-1174BF60F1ED}"/>
+    <hyperlink ref="A173" r:id="rId173" xr:uid="{CE40C246-64D6-42EE-A465-C55E7BE4BDA1}"/>
+    <hyperlink ref="A174" r:id="rId174" xr:uid="{5E5E1795-DB82-49B4-8835-27E89B687BFB}"/>
+    <hyperlink ref="A175" r:id="rId175" xr:uid="{377E9AB5-30D6-4213-8256-B9D7802B3B2E}"/>
+    <hyperlink ref="A176" r:id="rId176" xr:uid="{A77D0316-F36F-4856-B631-FE64453C59DE}"/>
+    <hyperlink ref="A177" r:id="rId177" xr:uid="{24724993-4D88-4152-B047-61BDCCB1B56D}"/>
+    <hyperlink ref="A178" r:id="rId178" xr:uid="{405ADB86-6293-4B2D-A6D7-5104A190190D}"/>
+    <hyperlink ref="A179" r:id="rId179" xr:uid="{8EEDB3AD-5E72-4D85-9096-A1654227B931}"/>
+    <hyperlink ref="A180" r:id="rId180" xr:uid="{65A95792-3B2F-410A-AD8C-AB146B473752}"/>
+    <hyperlink ref="A181" r:id="rId181" xr:uid="{5264A06D-5517-42E8-BB57-5C02D7C82F57}"/>
+    <hyperlink ref="A182" r:id="rId182" xr:uid="{3DF4FE67-2F4F-4850-901A-A44CE0EA9472}"/>
+    <hyperlink ref="A183" r:id="rId183" xr:uid="{81642742-6E3F-490B-9909-EB2F7F6E7361}"/>
+    <hyperlink ref="A184" r:id="rId184" xr:uid="{32A5EF3C-F956-4DB7-88DE-596D9B59AECC}"/>
+    <hyperlink ref="A185" r:id="rId185" xr:uid="{047E9C59-570E-4590-908F-50ADD8D643DA}"/>
+    <hyperlink ref="A186" r:id="rId186" xr:uid="{F2065B96-6B0B-406A-AF8A-04354459B906}"/>
+    <hyperlink ref="A187" r:id="rId187" xr:uid="{B47F867D-A4D6-4519-B610-10FE353C119D}"/>
+    <hyperlink ref="A188" r:id="rId188" xr:uid="{866950CF-6697-4BCE-9C4A-13E78BE4E331}"/>
+    <hyperlink ref="A189" r:id="rId189" xr:uid="{DBEE31D2-BB90-4628-BA5D-E465D3E3682E}"/>
+    <hyperlink ref="A190" r:id="rId190" xr:uid="{C3F58E18-5A75-4066-8310-8395AE91EC53}"/>
+    <hyperlink ref="A191" r:id="rId191" xr:uid="{AF0B9AC6-A528-4B3A-A01E-89F125779F91}"/>
+    <hyperlink ref="A192" r:id="rId192" xr:uid="{AA078B6C-63A0-4A12-A612-52C2DF598B53}"/>
+    <hyperlink ref="A193" r:id="rId193" xr:uid="{C4256300-EB65-49B9-AD17-50F1D1A496D5}"/>
+    <hyperlink ref="A194" r:id="rId194" xr:uid="{E239D2FF-3C81-4BF0-B59F-85612F44B5FC}"/>
+    <hyperlink ref="A195" r:id="rId195" xr:uid="{AEAB54E7-86CF-4A42-AF52-90B1CF9E9BB9}"/>
+    <hyperlink ref="A196" r:id="rId196" xr:uid="{A7AD8795-AE2D-4077-A6F1-8378A33458AC}"/>
+    <hyperlink ref="A197" r:id="rId197" xr:uid="{CD244691-909F-4BB0-AD7A-B771BB2699B5}"/>
+    <hyperlink ref="A198" r:id="rId198" xr:uid="{6B48F49F-4E05-4068-8C42-60D5F7F65ACA}"/>
+    <hyperlink ref="A199" r:id="rId199" xr:uid="{EA15DEAA-A09A-4BEA-A789-103DBD16CA0D}"/>
+    <hyperlink ref="A200" r:id="rId200" xr:uid="{5CB72CDE-F770-4E0B-A33F-19A68AD7C336}"/>
+    <hyperlink ref="A201" r:id="rId201" xr:uid="{8726756E-72DF-40BA-966F-8556075842D8}"/>
+    <hyperlink ref="A202" r:id="rId202" xr:uid="{C78140EC-CB94-4FEF-9F67-5B2B8C166BE5}"/>
+    <hyperlink ref="A203" r:id="rId203" xr:uid="{A2F9FB4B-BCA2-45A3-969D-9946D6BD1797}"/>
+    <hyperlink ref="A204" r:id="rId204" xr:uid="{30A7C1C5-3B85-49FD-9963-01D6D27585D4}"/>
+    <hyperlink ref="A205" r:id="rId205" xr:uid="{C296844A-4030-4D24-AA83-4F8DA25E98CD}"/>
+    <hyperlink ref="A206" r:id="rId206" xr:uid="{217C82F0-4F18-4058-96C1-793265011B07}"/>
+    <hyperlink ref="A207" r:id="rId207" xr:uid="{09DD8511-58E0-4E41-8DCE-B213F5B6113C}"/>
+    <hyperlink ref="A208" r:id="rId208" xr:uid="{B01C8ED8-AF8C-4BAC-A619-2690DEC8B83D}"/>
+    <hyperlink ref="A209" r:id="rId209" xr:uid="{C43AE873-40C5-44B2-8FA2-87776DFA5AFA}"/>
+    <hyperlink ref="A210" r:id="rId210" xr:uid="{E4065C80-0015-43E0-9DC6-7A909FFF005A}"/>
+    <hyperlink ref="A211" r:id="rId211" xr:uid="{37F7680C-BAC1-4A7B-BE91-D0CAABD50CDC}"/>
+    <hyperlink ref="A212" r:id="rId212" xr:uid="{61AACC55-CAE8-4CB9-B7AA-646D2EB5DF12}"/>
+    <hyperlink ref="A213" r:id="rId213" xr:uid="{84570893-4B88-4FBF-AED5-8B3EA5A57D9F}"/>
+    <hyperlink ref="A214" r:id="rId214" xr:uid="{CA8423E2-38E3-4C0F-A4D4-0BA9BF47AB6A}"/>
+    <hyperlink ref="A215" r:id="rId215" xr:uid="{9B0C1EB7-EC2D-4E10-BB82-C42D656B8953}"/>
+    <hyperlink ref="A216" r:id="rId216" xr:uid="{5F833AA0-390A-4CBC-98FC-0884ECEB33B1}"/>
+    <hyperlink ref="A217" r:id="rId217" xr:uid="{209E2ECF-4B65-4CB3-8D78-AE3D5E1CE09E}"/>
+    <hyperlink ref="A218" r:id="rId218" xr:uid="{7728D5CB-A678-4F38-8B5C-2AEECF829CA9}"/>
+    <hyperlink ref="A219" r:id="rId219" xr:uid="{542B7809-CEF0-4AE4-AB29-8E18930F517A}"/>
+    <hyperlink ref="A220" r:id="rId220" xr:uid="{D2671936-650E-4E7B-93AD-1C07F38E31EE}"/>
+    <hyperlink ref="A221" r:id="rId221" xr:uid="{53C1E824-9C1A-4F4A-8C37-1AA86E7C4D05}"/>
+    <hyperlink ref="A222" r:id="rId222" xr:uid="{9C4DE300-6D01-4CB8-9F8A-FAC12BCBC21B}"/>
+    <hyperlink ref="A223" r:id="rId223" xr:uid="{3E0E4FAE-BE5C-48B8-A5C9-0AF1BCADA00D}"/>
+    <hyperlink ref="A224" r:id="rId224" xr:uid="{E94EE9A4-4251-4370-976B-75046FEB87D4}"/>
+    <hyperlink ref="A225" r:id="rId225" xr:uid="{C75D7BA6-21EF-42C1-A3B6-CA10AA4F746A}"/>
+    <hyperlink ref="A226" r:id="rId226" xr:uid="{04E11318-2734-47C5-A17F-E73463A8C2C8}"/>
+    <hyperlink ref="A227" r:id="rId227" xr:uid="{75591682-C823-443F-8A9A-9A1107528C91}"/>
+    <hyperlink ref="A228" r:id="rId228" xr:uid="{E108D1DD-8622-4562-8871-BFD7917EA629}"/>
+    <hyperlink ref="A229" r:id="rId229" xr:uid="{5BA0221E-A64D-4739-8BB2-65431916BBEF}"/>
+    <hyperlink ref="A230" r:id="rId230" xr:uid="{9450B2AA-C8F2-4274-A650-7D13196EA49A}"/>
+    <hyperlink ref="A231" r:id="rId231" xr:uid="{35BFD02F-D5A5-429F-858F-A06AC5601E85}"/>
+    <hyperlink ref="A232" r:id="rId232" xr:uid="{4D531F47-E8F5-44FB-A5D3-EBCD50960D20}"/>
+    <hyperlink ref="A233" r:id="rId233" xr:uid="{4DAF49C7-CFEF-44ED-B3FD-BAD1ED275D72}"/>
+    <hyperlink ref="A234" r:id="rId234" xr:uid="{D777AFA5-DA41-4803-8F75-92A906E327C2}"/>
+    <hyperlink ref="A235" r:id="rId235" xr:uid="{F0813FD0-B9B9-4FA5-A462-77A02DA5A27A}"/>
+    <hyperlink ref="A236" r:id="rId236" xr:uid="{8A50B684-22F5-4D61-80C1-23D3B94D566C}"/>
+    <hyperlink ref="A237" r:id="rId237" xr:uid="{4787BB9F-9C79-45EA-B092-5BE3838435C6}"/>
+    <hyperlink ref="A238" r:id="rId238" xr:uid="{498D85DF-B1FA-4572-A37F-C4E7F37434A3}"/>
+    <hyperlink ref="A239" r:id="rId239" xr:uid="{ED623E72-8139-46DB-B75F-C898FD18A63C}"/>
+    <hyperlink ref="A240" r:id="rId240" xr:uid="{0DB4CCBF-4C45-4345-88B0-27A63C5175B1}"/>
+    <hyperlink ref="A241" r:id="rId241" xr:uid="{256E3BC0-E751-4E21-B574-1A2AACD27790}"/>
+    <hyperlink ref="A242" r:id="rId242" xr:uid="{B7978068-0835-4B87-B4B2-A7600A9B8A11}"/>
+    <hyperlink ref="A243" r:id="rId243" xr:uid="{B4B8B4A8-42F1-4906-85E6-9AE4BFFBEFDB}"/>
+    <hyperlink ref="A244" r:id="rId244" xr:uid="{E1403AC2-CAE3-4B78-8953-B593392AF582}"/>
+    <hyperlink ref="A245" r:id="rId245" xr:uid="{FA30BE21-5C60-4FF5-ACFA-0AA0B9C141D6}"/>
+    <hyperlink ref="A246" r:id="rId246" xr:uid="{C7D0C85A-4C3E-49F4-B554-AAF5DB1EC9E9}"/>
+    <hyperlink ref="A247" r:id="rId247" xr:uid="{0FF24C1D-A544-4295-B496-4116EA4E09ED}"/>
+    <hyperlink ref="A248" r:id="rId248" xr:uid="{EECD8FC8-9DE8-44CC-B004-3B5852373DF8}"/>
+    <hyperlink ref="A249" r:id="rId249" xr:uid="{F486C947-C1BD-41DF-AB08-3F150A66EB20}"/>
+    <hyperlink ref="A250" r:id="rId250" xr:uid="{2E3FC145-B09D-4A2D-8D39-481003E84CD9}"/>
+    <hyperlink ref="A251" r:id="rId251" xr:uid="{79541485-6C90-42EB-A1CB-C6ECA47C3185}"/>
+    <hyperlink ref="A252" r:id="rId252" xr:uid="{A2BEDCCC-7221-4E17-A45B-A94F50976C2B}"/>
+    <hyperlink ref="A253" r:id="rId253" xr:uid="{3D423B5F-617F-4A34-9E78-3770187ECD32}"/>
+    <hyperlink ref="A254" r:id="rId254" xr:uid="{4C2B5EA6-C299-4B9D-AE26-12B0DC52E4CD}"/>
+    <hyperlink ref="A255" r:id="rId255" xr:uid="{56DF7310-07F4-4B2D-BE4D-DDAAAC77FA4C}"/>
+    <hyperlink ref="A256" r:id="rId256" xr:uid="{0128CDAB-0FD8-437F-B871-EEB2D822E3CF}"/>
+    <hyperlink ref="A257" r:id="rId257" xr:uid="{32A84E28-8090-4393-9F5E-51D9F61E1AE4}"/>
+    <hyperlink ref="A258" r:id="rId258" xr:uid="{AF9742D8-0899-44EA-B4D0-595FF15A610C}"/>
+    <hyperlink ref="A259" r:id="rId259" xr:uid="{CD1B5448-8CDF-4BF9-B8F2-F92FB7AB1B33}"/>
+    <hyperlink ref="A260" r:id="rId260" xr:uid="{9F583BB4-87C8-49E0-85D0-1BF68EE933E9}"/>
+    <hyperlink ref="A261" r:id="rId261" xr:uid="{5161BC47-B708-4A61-8E17-4E45B9C1BA8F}"/>
+    <hyperlink ref="A262" r:id="rId262" xr:uid="{46E347ED-0F04-45E2-A263-8B9BC17F10E3}"/>
+    <hyperlink ref="A263" r:id="rId263" xr:uid="{739219BB-1EE4-4883-A3DB-74F5C07A1D72}"/>
+    <hyperlink ref="A264" r:id="rId264" xr:uid="{F1E7C739-BE96-49C2-B1C6-4B03172C3144}"/>
+    <hyperlink ref="A265" r:id="rId265" xr:uid="{666EC2A9-9818-4026-A403-3CF1084F125E}"/>
+    <hyperlink ref="A266" r:id="rId266" xr:uid="{7FF86C48-728B-49EB-B7B8-471412F89768}"/>
+    <hyperlink ref="A267" r:id="rId267" xr:uid="{A861A2A7-546A-49B9-9D10-FFC9CFD3E1E1}"/>
+    <hyperlink ref="A268" r:id="rId268" xr:uid="{C93BD355-766E-4EF6-B125-087AB2325E23}"/>
+    <hyperlink ref="A269" r:id="rId269" xr:uid="{604F11C5-80AF-4C67-A587-ECA07028468B}"/>
+    <hyperlink ref="A270" r:id="rId270" xr:uid="{1AE09F2E-683A-47BB-B33C-3E8DCE59DAEB}"/>
+    <hyperlink ref="A271" r:id="rId271" xr:uid="{141BB308-B72D-4C91-88D4-46E8A8654D2F}"/>
+    <hyperlink ref="A272" r:id="rId272" xr:uid="{7786EC0F-0F8B-4375-8EF1-0FDBAB6729F4}"/>
+    <hyperlink ref="A273" r:id="rId273" xr:uid="{7358CB5B-0CD9-46DD-A707-EF738BCF2A76}"/>
+    <hyperlink ref="A274" r:id="rId274" xr:uid="{3262BAE2-3FF9-43BA-BFAB-6664BB27E7E3}"/>
+    <hyperlink ref="A275" r:id="rId275" xr:uid="{FF3363E3-13D2-4158-A6A3-6C35EFFE4B93}"/>
+    <hyperlink ref="A276" r:id="rId276" xr:uid="{A796EAFA-088F-453B-9D16-A976D7277D94}"/>
+    <hyperlink ref="A277" r:id="rId277" xr:uid="{E3EE445A-9A75-4041-AE6D-1038B1A3C142}"/>
+    <hyperlink ref="A278" r:id="rId278" xr:uid="{FD6F4BFF-50DD-420F-B6D9-E82C765A129A}"/>
+    <hyperlink ref="A279" r:id="rId279" xr:uid="{FED54A27-C354-4CB7-A060-41727495097B}"/>
+    <hyperlink ref="A280" r:id="rId280" xr:uid="{38FD6CC5-6AF0-4516-907F-F58ED40BE64E}"/>
+    <hyperlink ref="A281" r:id="rId281" xr:uid="{CD6AC966-7785-473A-B481-4F3EA5F9E5F2}"/>
+    <hyperlink ref="A282" r:id="rId282" xr:uid="{2767B94A-ECED-4659-8DA5-69EEA8E0822C}"/>
+    <hyperlink ref="A283" r:id="rId283" xr:uid="{513BAA74-1E1C-45C1-9153-EE831165E1D7}"/>
+    <hyperlink ref="A284" r:id="rId284" xr:uid="{3F1F4D8E-A31B-4B91-97BC-C43A94716C0E}"/>
+    <hyperlink ref="A285" r:id="rId285" xr:uid="{AA8C4D30-CBD3-4538-9A3A-4129EA7D94EC}"/>
+    <hyperlink ref="A286" r:id="rId286" xr:uid="{F044FC42-AA43-4957-8B0A-00B679135953}"/>
+    <hyperlink ref="A287" r:id="rId287" xr:uid="{4D1D9349-1A08-4182-8F36-876FE5DC933F}"/>
+    <hyperlink ref="A288" r:id="rId288" xr:uid="{CEBFD171-17A8-48EE-8A71-0A789318450E}"/>
+    <hyperlink ref="A289" r:id="rId289" xr:uid="{83F49E05-AFC2-48A2-BF62-1062E7BD0C6E}"/>
+    <hyperlink ref="A290" r:id="rId290" xr:uid="{6C052AC5-A84F-4E79-BFC4-750C2CAF4F49}"/>
+    <hyperlink ref="A291" r:id="rId291" xr:uid="{18D4B4D6-3C4B-4D8E-B9BE-C885DA7F7DAE}"/>
+    <hyperlink ref="A292" r:id="rId292" xr:uid="{C904A856-67B3-4E9A-B838-06BE3EF0589B}"/>
+    <hyperlink ref="A293" r:id="rId293" xr:uid="{386263B6-15D8-4A9B-8CC2-80303B498627}"/>
+    <hyperlink ref="A294" r:id="rId294" xr:uid="{C5B41C08-C968-4079-9E4C-6A80A32D54B7}"/>
+    <hyperlink ref="A295" r:id="rId295" xr:uid="{4C1C98B9-5DFF-49AE-B2C5-CB9A33F85A2B}"/>
+    <hyperlink ref="A296" r:id="rId296" xr:uid="{04FE6EBF-13E0-4D47-9C4A-1ACF2CD7453C}"/>
+    <hyperlink ref="A297" r:id="rId297" xr:uid="{A2EA5CD3-1382-421A-870D-D925AD2521DE}"/>
+    <hyperlink ref="A298" r:id="rId298" xr:uid="{091F143C-EF43-4686-A051-C890F14D7E7B}"/>
+    <hyperlink ref="A299" r:id="rId299" xr:uid="{3BB09BFB-A8FA-4A98-948E-D098703BB895}"/>
+    <hyperlink ref="A300" r:id="rId300" xr:uid="{CE9A8548-5CC1-4C70-BCFA-188AB443730B}"/>
+    <hyperlink ref="A301" r:id="rId301" xr:uid="{A4180CE8-EA91-4B47-8683-FCE9FC6D2E54}"/>
+    <hyperlink ref="A302" r:id="rId302" xr:uid="{D8CD166D-DA27-412C-88AF-F46412543337}"/>
+    <hyperlink ref="A303" r:id="rId303" xr:uid="{45C4463B-B473-485A-A836-1E493486FC49}"/>
+    <hyperlink ref="A304" r:id="rId304" xr:uid="{775D357B-8DE0-4168-8A63-360CABA5304B}"/>
+    <hyperlink ref="A305" r:id="rId305" xr:uid="{8D4BFF5F-D17E-44D5-AEFE-08107CD022BE}"/>
+    <hyperlink ref="A306" r:id="rId306" xr:uid="{0A259A5F-E7E2-4F5D-9184-024B227B6828}"/>
+    <hyperlink ref="A307" r:id="rId307" xr:uid="{BBF72E57-9785-4248-8599-2B425E18DDD2}"/>
+    <hyperlink ref="A308" r:id="rId308" xr:uid="{29CF2EE9-7FEB-4916-B8F8-ECE45DB2D1F3}"/>
+    <hyperlink ref="A309" r:id="rId309" xr:uid="{A073D7D2-05C7-4538-AC36-CD8B6FE802F8}"/>
+    <hyperlink ref="A310" r:id="rId310" xr:uid="{3B54CC39-A085-4297-8E0A-D364133CD49A}"/>
+    <hyperlink ref="A311" r:id="rId311" xr:uid="{EBDCF052-2C49-4A82-A4CE-29FD0AA9E889}"/>
+    <hyperlink ref="A312" r:id="rId312" xr:uid="{F2238622-217E-4720-8BDD-51B90AA901CB}"/>
+    <hyperlink ref="A313" r:id="rId313" xr:uid="{01A70079-3E1C-4CC2-BAA2-22522C8B09AF}"/>
+    <hyperlink ref="A314" r:id="rId314" xr:uid="{F51D0D69-49B4-49DD-8A09-7F26B2C0BE17}"/>
+    <hyperlink ref="A315" r:id="rId315" xr:uid="{04CE286A-4F2C-4864-A855-15ECA0EDF7D7}"/>
+    <hyperlink ref="A316" r:id="rId316" xr:uid="{ABA19813-9838-4F1C-A7AA-576C30769B51}"/>
+    <hyperlink ref="A317" r:id="rId317" xr:uid="{E987A2A2-6119-4659-BA24-58B8E54AA402}"/>
+    <hyperlink ref="A318" r:id="rId318" xr:uid="{C14894F2-77D8-4AD2-9330-FB20C13F5D3A}"/>
+    <hyperlink ref="A319" r:id="rId319" xr:uid="{80078424-C2D9-47B1-A3F7-236E3E8CCA64}"/>
+    <hyperlink ref="A320" r:id="rId320" xr:uid="{419B40DD-AC0D-41BD-ADDA-66AF71AC7074}"/>
+    <hyperlink ref="A321" r:id="rId321" xr:uid="{8FED9452-2CC0-4870-94E6-7653E0D49E8C}"/>
+    <hyperlink ref="A322" r:id="rId322" xr:uid="{8BF7FC44-6ABB-4A53-817D-23ABDF9CBF91}"/>
+    <hyperlink ref="A323" r:id="rId323" xr:uid="{ADC4B130-BF0C-42F1-AB80-A505FE99FB65}"/>
+    <hyperlink ref="A324" r:id="rId324" xr:uid="{5ED66968-C057-4471-849E-4996B9656B6C}"/>
+    <hyperlink ref="A325" r:id="rId325" xr:uid="{8736559F-C700-4938-98C1-D3770110E816}"/>
+    <hyperlink ref="A326" r:id="rId326" xr:uid="{F4B8CC41-AC4A-4C01-B413-3FB8C0162E35}"/>
+    <hyperlink ref="A327" r:id="rId327" xr:uid="{8F206EE2-7A97-4E8D-B16D-06288DDCF531}"/>
+    <hyperlink ref="A328" r:id="rId328" xr:uid="{098B3426-C534-448F-8C7A-878787B8775D}"/>
+    <hyperlink ref="A329" r:id="rId329" xr:uid="{3CEA407A-00C9-42E1-B6AA-806F5D000BC1}"/>
+    <hyperlink ref="A330" r:id="rId330" xr:uid="{6A48535C-D9EE-4DAA-BC6E-B45697538E85}"/>
+    <hyperlink ref="A331" r:id="rId331" xr:uid="{902D1A37-BE5D-4D4C-86EF-E49B87F1D687}"/>
+    <hyperlink ref="A332" r:id="rId332" xr:uid="{B18F228B-EC96-4428-B2DF-A71C20FF5FEB}"/>
+    <hyperlink ref="A333" r:id="rId333" xr:uid="{B6BD79D5-3503-464E-8C13-F093894A9652}"/>
+    <hyperlink ref="A334" r:id="rId334" xr:uid="{A349AC2C-C829-4367-A740-6F48F2951B37}"/>
+    <hyperlink ref="A335" r:id="rId335" xr:uid="{9834D38C-CD75-4BC4-9A5F-BF147969E3F3}"/>
+    <hyperlink ref="A336" r:id="rId336" xr:uid="{3D8D6E6C-3511-45D9-AF8A-94A9B0D9BF12}"/>
+    <hyperlink ref="A337" r:id="rId337" xr:uid="{9125C539-65D3-4416-9CDC-D7E344331038}"/>
+    <hyperlink ref="A338" r:id="rId338" xr:uid="{D62BE232-F9F4-4BC6-82D5-E602330DE8C7}"/>
+    <hyperlink ref="A339" r:id="rId339" xr:uid="{0B0F4A1D-D2BB-4BCF-94D4-F3F8D5ED3E1B}"/>
+    <hyperlink ref="A340" r:id="rId340" xr:uid="{C2FFCB33-9529-42AD-AC48-871BD5A26406}"/>
+    <hyperlink ref="A341" r:id="rId341" xr:uid="{4CBDD384-DAEE-452C-8075-4911969C24D7}"/>
+    <hyperlink ref="A342" r:id="rId342" xr:uid="{63C9C3EB-9CBB-43F2-9EEB-E6ED0C768616}"/>
+    <hyperlink ref="A343" r:id="rId343" xr:uid="{9C1BFFC0-E4B9-421D-A198-786B6407D102}"/>
+    <hyperlink ref="A344" r:id="rId344" xr:uid="{3FE2B348-0FC8-4C3D-9985-6F7BC1A7F489}"/>
+    <hyperlink ref="A345" r:id="rId345" xr:uid="{6C71C8E3-733B-493D-AB2C-2D0763739C06}"/>
+    <hyperlink ref="A346" r:id="rId346" xr:uid="{AFA30AC2-0B28-4C3B-B21D-B72FECFB303D}"/>
+    <hyperlink ref="A347" r:id="rId347" xr:uid="{3F6469E4-638E-4AA7-888E-DD7B3ED464EA}"/>
+    <hyperlink ref="A348" r:id="rId348" xr:uid="{03FDFF7E-B4FA-4800-8F4F-2F3E67A4F3CF}"/>
+    <hyperlink ref="A349" r:id="rId349" xr:uid="{291A7CA3-DFDB-4496-A20F-7A3F055D3FC7}"/>
+    <hyperlink ref="A350" r:id="rId350" xr:uid="{28B327AC-3B78-4EC2-8ADD-9F1CD8D12D2B}"/>
+    <hyperlink ref="A351" r:id="rId351" xr:uid="{CCBD9DC0-A5BA-4028-89F8-A17DFF4C69E7}"/>
+    <hyperlink ref="A352" r:id="rId352" xr:uid="{E5EDCA69-AF66-4035-87DF-7A244DCDDBFD}"/>
+    <hyperlink ref="A353" r:id="rId353" xr:uid="{C02C846B-6423-4863-B02D-608108E1986E}"/>
+    <hyperlink ref="A354" r:id="rId354" xr:uid="{EE36258E-CE4F-4BBB-BC30-792E4DE8ED47}"/>
+    <hyperlink ref="A355" r:id="rId355" xr:uid="{3869AAE8-A4AC-4893-BE5C-0D363A51992A}"/>
+    <hyperlink ref="A356" r:id="rId356" xr:uid="{65F592F2-DA92-4655-A463-39F7A931BF7D}"/>
+    <hyperlink ref="A357" r:id="rId357" xr:uid="{43A9494C-1B93-441D-9299-417FF54F525F}"/>
+    <hyperlink ref="A358" r:id="rId358" xr:uid="{25D70EAE-E83F-44CA-BE45-ACBFA47E9668}"/>
+    <hyperlink ref="A359" r:id="rId359" xr:uid="{194A0136-2F3E-4E8F-888D-D755189193F2}"/>
+    <hyperlink ref="A360" r:id="rId360" xr:uid="{0C9F681D-CEE6-4B63-8144-AC3BA7E720A0}"/>
+    <hyperlink ref="A361" r:id="rId361" xr:uid="{730BC683-7F3D-419B-B9D0-4E2B8489D44D}"/>
+    <hyperlink ref="A362" r:id="rId362" xr:uid="{4978F14B-08A1-46C8-BC27-6BCAEC66F37C}"/>
+    <hyperlink ref="A363" r:id="rId363" xr:uid="{B258938B-5BC4-4A64-B226-2459DD8349B4}"/>
+    <hyperlink ref="A364" r:id="rId364" xr:uid="{450DC582-8D1D-4E2F-A643-31C5C7650BC3}"/>
+    <hyperlink ref="A365" r:id="rId365" xr:uid="{7FB83F64-1167-413D-949F-7DBE3B55B726}"/>
+    <hyperlink ref="A366" r:id="rId366" xr:uid="{A906C300-5D98-4B22-ACAE-063BBE71AAD6}"/>
+    <hyperlink ref="A367" r:id="rId367" xr:uid="{64492352-FDBE-4DB5-BA13-333014618BB7}"/>
+    <hyperlink ref="A368" r:id="rId368" xr:uid="{CE6031C5-EE6F-467B-B717-41183955E075}"/>
+    <hyperlink ref="A369" r:id="rId369" xr:uid="{CEF5BB32-F217-4113-BF91-E3A92C2AAE85}"/>
+    <hyperlink ref="A370" r:id="rId370" xr:uid="{E43DA129-2823-4A10-8397-D07D989E0F6D}"/>
+    <hyperlink ref="A371" r:id="rId371" xr:uid="{29CBB210-5E57-47AE-9B25-9F1B4920B552}"/>
+    <hyperlink ref="A372" r:id="rId372" xr:uid="{5EF9649B-8847-4029-90DB-3540B6BBDCE7}"/>
+    <hyperlink ref="A373" r:id="rId373" xr:uid="{A158E29B-EF35-4DF5-9D1B-D951E4FC27EE}"/>
+    <hyperlink ref="A374" r:id="rId374" xr:uid="{BFD005D9-4691-4375-8465-5FA89961B6C6}"/>
+    <hyperlink ref="A375" r:id="rId375" xr:uid="{02BFECCA-4BB7-4F60-BCFF-E06824C6B74D}"/>
+    <hyperlink ref="A376" r:id="rId376" xr:uid="{E33A5ECB-E1BD-43F1-8940-A51E02A79D30}"/>
+    <hyperlink ref="A377" r:id="rId377" xr:uid="{E8C69297-C2DB-41EA-BA71-C206C3D55A78}"/>
+    <hyperlink ref="A378" r:id="rId378" xr:uid="{71112CBB-FCE0-4F75-BB4E-3CE88D4F2007}"/>
+    <hyperlink ref="A379" r:id="rId379" xr:uid="{6419B0F2-168E-45CB-BE67-1AC2C30750CF}"/>
+    <hyperlink ref="A380" r:id="rId380" xr:uid="{B96D6EA8-E43A-449C-8B37-B2E2C757E1AD}"/>
+    <hyperlink ref="A381" r:id="rId381" xr:uid="{EFE30B70-6AF3-4D2F-B3D7-479F66433C11}"/>
+    <hyperlink ref="A382" r:id="rId382" xr:uid="{7902BB11-B225-4F3E-8DD8-4C421AFF23CC}"/>
+    <hyperlink ref="A383" r:id="rId383" xr:uid="{09B7D6D3-0F73-4B33-8483-49793B9E1FB2}"/>
+    <hyperlink ref="A384" r:id="rId384" xr:uid="{26FEE24B-D39F-4E4E-A132-B072C423AD0A}"/>
+    <hyperlink ref="A385" r:id="rId385" xr:uid="{B5B729EA-FF4A-4F38-852C-BA4549B1B45E}"/>
+    <hyperlink ref="A386" r:id="rId386" xr:uid="{AD041F6B-E467-4C95-B4FC-DCCB0A660054}"/>
+    <hyperlink ref="A387" r:id="rId387" xr:uid="{71BA8913-395A-4B08-BE53-A7923CB685B7}"/>
+    <hyperlink ref="A388" r:id="rId388" xr:uid="{08B78DD4-001A-4F4F-BAF4-F6C83EEA22BC}"/>
+    <hyperlink ref="A389" r:id="rId389" xr:uid="{013C8AFB-F07B-45B1-9956-71854902522E}"/>
+    <hyperlink ref="A390" r:id="rId390" xr:uid="{890844BE-1F8D-4C9C-A22E-772458FCA04A}"/>
+    <hyperlink ref="A391" r:id="rId391" xr:uid="{84490B49-9234-4C73-A9FF-B87AF5FD89AB}"/>
+    <hyperlink ref="A393" r:id="rId392" xr:uid="{AB25FB6B-1D8B-473F-9AB1-0F662F64F0FA}"/>
+    <hyperlink ref="A394" r:id="rId393" xr:uid="{28950698-5C0F-4CC2-B60E-EA72929B0BCB}"/>
+    <hyperlink ref="A395" r:id="rId394" xr:uid="{A2E4E94F-2460-43DC-A427-26AA8A16AE2E}"/>
+    <hyperlink ref="A396" r:id="rId395" xr:uid="{F27003BD-AE5A-4113-BCE1-A8B55CC219EC}"/>
+    <hyperlink ref="A397" r:id="rId396" xr:uid="{D4060D1C-7301-4610-8220-0D3D2E07CA5B}"/>
+    <hyperlink ref="A398" r:id="rId397" xr:uid="{1FA01D84-F25B-48E7-999C-B09FD2B02CEC}"/>
+    <hyperlink ref="A399" r:id="rId398" xr:uid="{A0230C20-4478-4A04-B86E-78D286C5696A}"/>
+    <hyperlink ref="A400" r:id="rId399" xr:uid="{4AED1FA4-ACFB-4A40-BAA0-E7D61A85ECB0}"/>
+    <hyperlink ref="A401" r:id="rId400" xr:uid="{41CFC7FE-104F-4991-B30F-3AA9E5B08604}"/>
+    <hyperlink ref="A402" r:id="rId401" xr:uid="{73A6D288-8DA9-4E64-901E-3244E770EC43}"/>
+    <hyperlink ref="A403" r:id="rId402" xr:uid="{C6BBF6FF-B6D2-4FFD-9ACF-CD48E6A388C3}"/>
+    <hyperlink ref="A404" r:id="rId403" xr:uid="{2FDB5721-433A-4072-9621-719A37B4D648}"/>
+    <hyperlink ref="A416" r:id="rId404" xr:uid="{353FFA3B-1430-4984-9121-1F98CAF37889}"/>
+    <hyperlink ref="A417" r:id="rId405" xr:uid="{05D4AB6B-E95D-47F3-80B5-F613560909E0}"/>
+    <hyperlink ref="A418" r:id="rId406" xr:uid="{55D1337D-F3F8-4858-99B2-F88500269C47}"/>
+    <hyperlink ref="A420" r:id="rId407" xr:uid="{54F0F55C-285B-4E99-80B3-94F05683A245}"/>
+    <hyperlink ref="A421" r:id="rId408" xr:uid="{B3C46894-303B-4584-8847-B04C94B27E26}"/>
+    <hyperlink ref="A422" r:id="rId409" xr:uid="{04C57F76-2D62-42CF-81FF-93D4802811C6}"/>
+    <hyperlink ref="A423" r:id="rId410" xr:uid="{3D548AFC-62B5-4233-BA6C-2F73F47C1881}"/>
+    <hyperlink ref="A424" r:id="rId411" xr:uid="{4250EB83-3797-46F6-9680-343738A4CE51}"/>
+    <hyperlink ref="A425" r:id="rId412" xr:uid="{15CD4F98-699C-48B3-B6FB-32B762AE2699}"/>
+    <hyperlink ref="A426" r:id="rId413" xr:uid="{48B4B8A5-EF2D-431C-9EBE-55837153B0B9}"/>
+    <hyperlink ref="A427" r:id="rId414" xr:uid="{2625D7E4-C0AD-4149-9FF7-FD29B827C528}"/>
+    <hyperlink ref="A428" r:id="rId415" xr:uid="{AE939726-06C6-4FB4-8094-8E88EF12DAB2}"/>
+    <hyperlink ref="A429" r:id="rId416" xr:uid="{673AE7D5-87B3-4083-8A21-21B29FB7ECF9}"/>
+    <hyperlink ref="A431" r:id="rId417" xr:uid="{E0855901-B3D2-4D1A-9892-09491DEC4E3C}"/>
+    <hyperlink ref="A432" r:id="rId418" xr:uid="{0B68D01E-AFDE-4952-BD7D-DC76BFE6DF9C}"/>
+    <hyperlink ref="A433" r:id="rId419" xr:uid="{3E95A796-685C-4492-95A9-25B0347ACE67}"/>
+    <hyperlink ref="A436" r:id="rId420" xr:uid="{0578DFE7-5B0B-4063-84E5-14BDDB5E6390}"/>
+    <hyperlink ref="A437" r:id="rId421" xr:uid="{791A492F-795D-4B40-930B-D19F2627AE59}"/>
+    <hyperlink ref="A438" r:id="rId422" xr:uid="{E7A19C07-F63D-48CA-8534-7E37827C2F8B}"/>
+    <hyperlink ref="A439" r:id="rId423" xr:uid="{7C852999-52FD-47CF-A2C4-65C83770F520}"/>
+    <hyperlink ref="A440" r:id="rId424" xr:uid="{FEDF8117-DCD7-4A28-9E7C-F0EE9E886EC3}"/>
+    <hyperlink ref="A441" r:id="rId425" xr:uid="{E71D2DD4-02E4-4EAA-B664-EBC1C3E02D3A}"/>
+    <hyperlink ref="A442" r:id="rId426" xr:uid="{9DE922EB-89F3-45F1-B049-4CE2A49ECD85}"/>
+    <hyperlink ref="A443" r:id="rId427" xr:uid="{63B31189-F761-49D5-84C6-BBAD863E8150}"/>
+    <hyperlink ref="A444" r:id="rId428" xr:uid="{B2AB402E-88C7-4A5A-899E-FBCEF5335128}"/>
+    <hyperlink ref="A445" r:id="rId429" xr:uid="{F746E8B6-0AE9-43D8-828C-113CB87618B3}"/>
+    <hyperlink ref="A446" r:id="rId430" xr:uid="{279E2F92-FEFA-4610-AB12-7C4A963E587E}"/>
+    <hyperlink ref="A447" r:id="rId431" xr:uid="{14DAD465-EE1A-420D-963D-33074304A1B8}"/>
+    <hyperlink ref="A448" r:id="rId432" xr:uid="{70EC26C0-BA12-4DE8-8653-62ECB318ACEE}"/>
+    <hyperlink ref="A449" r:id="rId433" xr:uid="{0C5E0043-0E1A-45E8-B5D4-8147939B7ADB}"/>
+    <hyperlink ref="A450" r:id="rId434" xr:uid="{6A8E4D61-BAF2-4699-B53E-2E7548877319}"/>
+    <hyperlink ref="A451" r:id="rId435" xr:uid="{021E20DA-18A3-4A26-A752-E004088DA180}"/>
+    <hyperlink ref="A452" r:id="rId436" xr:uid="{D123830B-45ED-4F58-917E-730C3F5E08F5}"/>
+    <hyperlink ref="A453" r:id="rId437" xr:uid="{31D922C0-3E67-4137-B51F-5F7554846A24}"/>
+    <hyperlink ref="A454" r:id="rId438" xr:uid="{AADEA829-F3F4-4278-B8EE-613EA001C85B}"/>
+    <hyperlink ref="A455" r:id="rId439" xr:uid="{82AB2FBB-D92D-4618-8B6B-5095A4A8F6FA}"/>
+    <hyperlink ref="A456" r:id="rId440" xr:uid="{3A2E9097-1671-404A-86A2-FC63F498277C}"/>
+    <hyperlink ref="A457" r:id="rId441" xr:uid="{F1CC6F9C-3A96-4560-BDE4-EEDBD9C22E8F}"/>
+    <hyperlink ref="A458" r:id="rId442" xr:uid="{D090F360-488B-45DB-AE8F-089568941E32}"/>
+    <hyperlink ref="A459" r:id="rId443" xr:uid="{307F9C32-8529-47DD-B7C2-B7DC2A7D2252}"/>
+    <hyperlink ref="A460" r:id="rId444" xr:uid="{66252AA4-018E-47B8-AF9B-0B90976FE110}"/>
+    <hyperlink ref="A461" r:id="rId445" xr:uid="{9C650C0B-13AD-45B9-9C0A-FECBC6AD52E8}"/>
+    <hyperlink ref="A462" r:id="rId446" xr:uid="{A17B1C6A-1231-4408-9592-FCA99CADC85E}"/>
+    <hyperlink ref="A463" r:id="rId447" xr:uid="{DBC938F0-954C-4167-9133-A8F2A19DC955}"/>
+    <hyperlink ref="A464" r:id="rId448" xr:uid="{9B66E790-AF56-4BE2-9B51-54E331339B4C}"/>
+    <hyperlink ref="A465" r:id="rId449" xr:uid="{06D0C538-ABF8-4608-AB4A-B4383C54EBB4}"/>
+    <hyperlink ref="A466" r:id="rId450" xr:uid="{96B86536-1B07-44D0-9146-9184651C2BC8}"/>
+    <hyperlink ref="A467" r:id="rId451" xr:uid="{3FD14F0A-B9E2-4606-9C6A-42A9266923AD}"/>
+    <hyperlink ref="A468" r:id="rId452" xr:uid="{EF195CB2-6BE1-4F29-925F-24803A13666E}"/>
+    <hyperlink ref="A469" r:id="rId453" xr:uid="{D7BACE0E-DA96-49FD-B80E-8F4009F7512E}"/>
+    <hyperlink ref="A470" r:id="rId454" xr:uid="{B765198E-E065-4FDE-8C6C-27FEAC6ECD41}"/>
+    <hyperlink ref="A471" r:id="rId455" xr:uid="{F519CBB0-5D2A-4F37-95D0-0EA32335DDFD}"/>
+    <hyperlink ref="A472" r:id="rId456" xr:uid="{F53FB423-F75D-46BA-8BEA-7293124438C4}"/>
+    <hyperlink ref="A473" r:id="rId457" xr:uid="{820C93E1-8959-4163-B20F-662BFC9026A4}"/>
+    <hyperlink ref="A474" r:id="rId458" xr:uid="{917EA9B9-1071-451A-988D-D378A7438140}"/>
+    <hyperlink ref="A475" r:id="rId459" xr:uid="{8F7BF906-22CE-4541-A565-C5BBA0EFC15C}"/>
+    <hyperlink ref="A476" r:id="rId460" xr:uid="{8313D76D-24B9-4CCC-BD38-B33ED2C2D078}"/>
+    <hyperlink ref="A477" r:id="rId461" xr:uid="{2BF72637-B97E-4DC0-9708-8FC7D01A90D6}"/>
+    <hyperlink ref="A478" r:id="rId462" xr:uid="{4F895B9B-8FBA-43AE-A87D-DD3BDF6C272E}"/>
+    <hyperlink ref="A479" r:id="rId463" xr:uid="{F454A690-895F-42FE-930A-364EDE699345}"/>
+    <hyperlink ref="A481" r:id="rId464" xr:uid="{77EF28A0-9925-4C6B-87BC-25979DA180C1}"/>
+    <hyperlink ref="A482" r:id="rId465" xr:uid="{3F7EB356-CBC5-4A3C-BEB7-F1D9CB94F97B}"/>
+    <hyperlink ref="A483" r:id="rId466" xr:uid="{72C70DEA-C669-468F-953C-2ADE538F7C29}"/>
+    <hyperlink ref="A484" r:id="rId467" xr:uid="{314C727B-401C-4841-86C7-C9C7EA172AAD}"/>
+    <hyperlink ref="A485" r:id="rId468" xr:uid="{3A9D6B5A-6066-4367-9202-C8B423BC5AC9}"/>
+    <hyperlink ref="A486" r:id="rId469" xr:uid="{21BF1B1D-0DA6-413B-9CC0-7C780A3518F8}"/>
+    <hyperlink ref="A487" r:id="rId470" xr:uid="{23E8C97C-E88A-4E81-BEAF-2159BA594E42}"/>
+    <hyperlink ref="A488" r:id="rId471" xr:uid="{34898C38-AEA1-4EDE-8E5B-091A10A2A068}"/>
+    <hyperlink ref="A489" r:id="rId472" xr:uid="{4BFF6507-453A-4544-B268-F759D3FB91B2}"/>
+    <hyperlink ref="A490" r:id="rId473" xr:uid="{D31FC931-E5BA-4318-BF0A-828D1BB1C7F5}"/>
+    <hyperlink ref="A491" r:id="rId474" xr:uid="{8A3F2800-768E-43AB-A2A7-C002F05E6C51}"/>
+    <hyperlink ref="A492" r:id="rId475" xr:uid="{D60789C4-0C5F-40F3-A321-062F5CF3E1D5}"/>
+    <hyperlink ref="A493" r:id="rId476" xr:uid="{0D61781C-E342-427D-9925-57F34DF176F1}"/>
+    <hyperlink ref="A494" r:id="rId477" xr:uid="{371CBFC5-8CC9-4008-837E-33D4EBFE29F7}"/>
+    <hyperlink ref="A495" r:id="rId478" xr:uid="{923C5063-C325-4F18-B86C-FEBA6F46B333}"/>
+    <hyperlink ref="A496" r:id="rId479" xr:uid="{DB327924-DF14-4B9D-B089-BD5055A29424}"/>
+    <hyperlink ref="A497" r:id="rId480" xr:uid="{0C0CFFBA-D56B-42A8-8FFB-406A170DCEF6}"/>
+    <hyperlink ref="A498" r:id="rId481" xr:uid="{9F984B81-91C7-45F7-8E4F-1B313D0F8B52}"/>
+    <hyperlink ref="A499" r:id="rId482" xr:uid="{1A5ABEA5-1377-49BA-BCDA-BCADE764E4D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId483"/>
